--- a/egyeb-fileok/MAINEKCEL.xlsx
+++ b/egyeb-fileok/MAINEKCEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6176FDB5-102B-476F-8663-BCD0C682D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041C76A-82D5-4BCC-BABF-1FDEA499DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv4 címzés" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="456">
   <si>
     <t>MARKETING</t>
   </si>
@@ -1385,6 +1385,30 @@
   </si>
   <si>
     <t>fe80:abfa::4</t>
+  </si>
+  <si>
+    <t>Dialer1</t>
+  </si>
+  <si>
+    <t>203.5.100.34</t>
+  </si>
+  <si>
+    <t>Virtual-Access</t>
+  </si>
+  <si>
+    <t>203.5.100.38</t>
+  </si>
+  <si>
+    <t>203.5.100.42</t>
+  </si>
+  <si>
+    <t>2001:db8:baba:ab12::2/64</t>
+  </si>
+  <si>
+    <t>2001:db8:baba:c112::2/64</t>
+  </si>
+  <si>
+    <t>2001:db8:baba:ba12::2/64</t>
   </si>
 </sst>
 </file>
@@ -2427,71 +2451,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2517,16 +2478,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2536,6 +2557,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2556,23 +2583,13 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="150">
     <dxf>
       <fill>
         <patternFill>
@@ -2584,13 +2601,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2723,6 +2733,174 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2779,6 +2957,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -2787,6 +2979,118 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2975,6 +3279,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3052,399 +3426,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3975,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24CC80-6D3D-45B6-87BE-7D1F6E23AC51}">
   <dimension ref="A1:BJ393"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,78 +4029,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="H1" s="79" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="O1" s="79" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
+      <c r="O1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="81"/>
-      <c r="V1" s="79" t="s">
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="98"/>
+      <c r="V1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="81"/>
-      <c r="AC1" s="79" t="s">
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="98"/>
+      <c r="AC1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="81"/>
-      <c r="AJ1" s="79" t="s">
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="81"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="98"/>
+      <c r="AQ1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
-      <c r="AX1" s="79" t="s">
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
+      <c r="AX1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
-      <c r="BE1" s="79" t="s">
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="98"/>
+      <c r="BE1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="81"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="98"/>
     </row>
     <row r="2" spans="1:62" s="4" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -4285,7 +4267,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="99" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="57"/>
@@ -4299,7 +4281,7 @@
         <v>252</v>
       </c>
       <c r="F3" s="59"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="99" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
@@ -4313,7 +4295,7 @@
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="85" t="s">
+      <c r="O3" s="99" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
@@ -4327,7 +4309,7 @@
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="85" t="s">
+      <c r="V3" s="99" t="s">
         <v>255</v>
       </c>
       <c r="W3" s="57"/>
@@ -4353,10 +4335,10 @@
       <c r="AF3" s="64">
         <v>27</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="100"/>
+      <c r="AH3" s="79"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -4369,10 +4351,10 @@
       <c r="AM3" s="64">
         <v>27</v>
       </c>
-      <c r="AN3" s="99" t="s">
+      <c r="AN3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="100"/>
+      <c r="AO3" s="79"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -4380,7 +4362,7 @@
       <c r="AS3" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="AT3" s="82">
+      <c r="AT3" s="105">
         <v>28</v>
       </c>
       <c r="AU3" s="27"/>
@@ -4399,7 +4381,7 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>185</v>
@@ -4411,7 +4393,7 @@
         <v>257</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="H4" s="86"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
         <v>196</v>
@@ -4423,7 +4405,7 @@
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27" t="s">
         <v>190</v>
@@ -4435,7 +4417,7 @@
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="86"/>
+      <c r="V4" s="100"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27" t="s">
         <v>264</v>
@@ -4466,7 +4448,7 @@
       <c r="AS4" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="AT4" s="83"/>
+      <c r="AT4" s="106"/>
       <c r="AU4" s="27"/>
       <c r="AV4" s="29"/>
       <c r="AX4" s="26"/>
@@ -4483,7 +4465,7 @@
       <c r="BJ4" s="29"/>
     </row>
     <row r="5" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4493,11 +4475,11 @@
       <c r="D5" s="28">
         <v>32</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="H5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4507,11 +4489,11 @@
       <c r="K5" s="28">
         <v>32</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4521,11 +4503,11 @@
       <c r="R5" s="28">
         <v>32</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="89"/>
-      <c r="V5" s="86"/>
+      <c r="T5" s="87"/>
+      <c r="V5" s="100"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27" t="s">
         <v>265</v>
@@ -4556,7 +4538,7 @@
       <c r="AS5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AT5" s="84"/>
+      <c r="AT5" s="107"/>
       <c r="AU5" s="27"/>
       <c r="AV5" s="29"/>
       <c r="AX5" s="26"/>
@@ -4572,38 +4554,56 @@
       <c r="BI5" s="27"/>
       <c r="BJ5" s="29"/>
     </row>
-    <row r="6" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+    <row r="6" spans="1:62" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>449</v>
+      </c>
       <c r="D6" s="28">
         <v>30</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="F6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>451</v>
+      </c>
       <c r="K6" s="28">
         <v>30</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="M6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="O6" s="100"/>
+      <c r="P6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>452</v>
+      </c>
       <c r="R6" s="28">
         <v>30</v>
       </c>
       <c r="S6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="V6" s="86"/>
+      <c r="T6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="V6" s="100"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -4613,10 +4613,10 @@
       <c r="Y6" s="28">
         <v>32</v>
       </c>
-      <c r="Z6" s="88" t="s">
+      <c r="Z6" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="89"/>
+      <c r="AA6" s="87"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -4653,7 +4653,7 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" s="6" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="87"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="86"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="27" t="s">
         <v>297</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31" t="s">
         <v>186</v>
@@ -4753,7 +4753,7 @@
         <v>250</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="99" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -4767,7 +4767,7 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="99" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
@@ -4781,7 +4781,7 @@
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="27" t="s">
         <v>298</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="99" t="s">
         <v>252</v>
       </c>
       <c r="B9" s="57"/>
@@ -4839,7 +4839,7 @@
         <v>251</v>
       </c>
       <c r="F9" s="59"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -4849,11 +4849,11 @@
       <c r="K9" s="28">
         <v>29</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="104"/>
-      <c r="O9" s="86"/>
+      <c r="M9" s="83"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -4863,11 +4863,11 @@
       <c r="R9" s="28">
         <v>29</v>
       </c>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="104"/>
-      <c r="V9" s="86"/>
+      <c r="T9" s="83"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="27" t="s">
         <v>299</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
         <v>187</v>
@@ -4923,7 +4923,7 @@
         <v>255</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="H10" s="86"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -4933,9 +4933,9 @@
       <c r="K10" s="28">
         <v>28</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="105"/>
-      <c r="O10" s="86"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="84"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -4945,9 +4945,9 @@
       <c r="R10" s="28">
         <v>28</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="105"/>
-      <c r="V10" s="86"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="84"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="27" t="s">
         <v>300</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
         <v>188</v>
@@ -5003,7 +5003,7 @@
         <v>256</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -5013,9 +5013,9 @@
       <c r="K11" s="28">
         <v>28</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="105"/>
-      <c r="O11" s="86"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="84"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -5025,9 +5025,9 @@
       <c r="R11" s="28">
         <v>28</v>
       </c>
-      <c r="S11" s="102"/>
-      <c r="T11" s="105"/>
-      <c r="V11" s="86"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="84"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="27" t="s">
         <v>301</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
         <v>254</v>
@@ -5083,7 +5083,7 @@
         <v>257</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="86"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5093,9 +5093,9 @@
       <c r="K12" s="28">
         <v>27</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="105"/>
-      <c r="O12" s="86"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="84"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5105,9 +5105,9 @@
       <c r="R12" s="28">
         <v>27</v>
       </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="105"/>
-      <c r="V12" s="86"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="27" t="s">
         <v>272</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -5161,11 +5161,11 @@
       <c r="D13" s="32">
         <v>32</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="H13" s="86"/>
+      <c r="F13" s="89"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5175,9 +5175,9 @@
       <c r="K13" s="28">
         <v>23</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="105"/>
-      <c r="O13" s="86"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="84"/>
+      <c r="O13" s="100"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5187,9 +5187,9 @@
       <c r="R13" s="28">
         <v>23</v>
       </c>
-      <c r="S13" s="102"/>
-      <c r="T13" s="105"/>
-      <c r="V13" s="86"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="84"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="27" t="s">
         <v>274</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="99" t="s">
         <v>257</v>
       </c>
       <c r="B14" s="57"/>
@@ -5247,7 +5247,7 @@
         <v>251</v>
       </c>
       <c r="F14" s="59"/>
-      <c r="H14" s="86"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5257,9 +5257,9 @@
       <c r="K14" s="28">
         <v>20</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="105"/>
-      <c r="O14" s="86"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="84"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5269,9 +5269,9 @@
       <c r="R14" s="28">
         <v>20</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="105"/>
-      <c r="V14" s="86"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="84"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="27" t="s">
         <v>276</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>261</v>
@@ -5327,7 +5327,7 @@
         <v>255</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="86"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5337,9 +5337,9 @@
       <c r="K15" s="28">
         <v>29</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="105"/>
-      <c r="O15" s="86"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="84"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5349,9 +5349,9 @@
       <c r="R15" s="28">
         <v>29</v>
       </c>
-      <c r="S15" s="102"/>
-      <c r="T15" s="105"/>
-      <c r="V15" s="86"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="84"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="27" t="s">
         <v>278</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
         <v>262</v>
@@ -5407,7 +5407,7 @@
         <v>256</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5417,9 +5417,9 @@
       <c r="K16" s="28">
         <v>29</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="106"/>
-      <c r="O16" s="86"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="85"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5429,9 +5429,9 @@
       <c r="R16" s="28">
         <v>29</v>
       </c>
-      <c r="S16" s="103"/>
-      <c r="T16" s="106"/>
-      <c r="V16" s="87"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="85"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="31" t="s">
         <v>280</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27" t="s">
         <v>260</v>
@@ -5487,7 +5487,7 @@
         <v>252</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="H17" s="87"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5497,11 +5497,11 @@
       <c r="K17" s="32">
         <v>32</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="78"/>
-      <c r="O17" s="87"/>
+      <c r="M17" s="89"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5511,11 +5511,11 @@
       <c r="R17" s="32">
         <v>32</v>
       </c>
-      <c r="S17" s="77" t="s">
+      <c r="S17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="78"/>
-      <c r="V17" s="85" t="s">
+      <c r="T17" s="89"/>
+      <c r="V17" s="99" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
@@ -5561,7 +5561,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -5571,11 +5571,11 @@
       <c r="D18" s="32">
         <v>32</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="H18" s="96" t="s">
+      <c r="F18" s="89"/>
+      <c r="H18" s="102" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -5589,7 +5589,7 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="85" t="s">
+      <c r="O18" s="99" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
@@ -5603,7 +5603,7 @@
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="86"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27" t="s">
         <v>283</v>
@@ -5647,7 +5647,7 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="99" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="57"/>
@@ -5661,7 +5661,7 @@
         <v>315</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="H19" s="97"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -5671,11 +5671,11 @@
       <c r="K19" s="28">
         <v>29</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="104"/>
-      <c r="O19" s="86"/>
+      <c r="M19" s="83"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -5685,11 +5685,11 @@
       <c r="R19" s="28">
         <v>29</v>
       </c>
-      <c r="S19" s="101" t="s">
+      <c r="S19" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="104"/>
-      <c r="V19" s="86"/>
+      <c r="T19" s="83"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="27"/>
       <c r="X19" s="27" t="s">
         <v>284</v>
@@ -5733,7 +5733,7 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
         <v>310</v>
@@ -5745,7 +5745,7 @@
         <v>251</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="H20" s="97"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -5755,9 +5755,9 @@
       <c r="K20" s="28">
         <v>28</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="105"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="84"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -5767,9 +5767,9 @@
       <c r="R20" s="28">
         <v>28</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="105"/>
-      <c r="V20" s="86"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="84"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -5779,10 +5779,10 @@
       <c r="Y20" s="28">
         <v>32</v>
       </c>
-      <c r="Z20" s="88" t="s">
+      <c r="Z20" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="89"/>
+      <c r="AA20" s="87"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -5815,7 +5815,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -5825,11 +5825,11 @@
       <c r="D21" s="32">
         <v>32</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="H21" s="97"/>
+      <c r="F21" s="89"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -5839,9 +5839,9 @@
       <c r="K21" s="28">
         <v>28</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="105"/>
-      <c r="O21" s="86"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="84"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -5851,9 +5851,9 @@
       <c r="R21" s="28">
         <v>28</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="105"/>
-      <c r="V21" s="86"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="84"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="97"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5915,9 +5915,9 @@
       <c r="K22" s="28">
         <v>27</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="105"/>
-      <c r="O22" s="86"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="84"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5927,9 +5927,9 @@
       <c r="R22" s="28">
         <v>27</v>
       </c>
-      <c r="S22" s="102"/>
-      <c r="T22" s="105"/>
-      <c r="V22" s="86"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="84"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="97"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -5989,9 +5989,9 @@
       <c r="K23" s="28">
         <v>23</v>
       </c>
-      <c r="L23" s="102"/>
-      <c r="M23" s="105"/>
-      <c r="O23" s="86"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="84"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -6001,9 +6001,9 @@
       <c r="R23" s="28">
         <v>23</v>
       </c>
-      <c r="S23" s="102"/>
-      <c r="T23" s="105"/>
-      <c r="V23" s="86"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="84"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="97"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6063,9 +6063,9 @@
       <c r="K24" s="28">
         <v>20</v>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="105"/>
-      <c r="O24" s="86"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="84"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6075,9 +6075,9 @@
       <c r="R24" s="28">
         <v>20</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="105"/>
-      <c r="V24" s="86"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="84"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6137,9 +6137,9 @@
       <c r="K25" s="28">
         <v>29</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="105"/>
-      <c r="O25" s="86"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="84"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6149,9 +6149,9 @@
       <c r="R25" s="28">
         <v>29</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="T25" s="105"/>
-      <c r="V25" s="86"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="84"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="97"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6211,9 +6211,9 @@
       <c r="K26" s="28">
         <v>29</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="86"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="85"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6223,9 +6223,9 @@
       <c r="R26" s="28">
         <v>29</v>
       </c>
-      <c r="S26" s="103"/>
-      <c r="T26" s="106"/>
-      <c r="V26" s="86"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="85"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="98"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6285,11 +6285,11 @@
       <c r="K27" s="32">
         <v>32</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="O27" s="87"/>
+      <c r="M27" s="89"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6299,11 +6299,11 @@
       <c r="R27" s="32">
         <v>32</v>
       </c>
-      <c r="S27" s="77" t="s">
+      <c r="S27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="78"/>
-      <c r="V27" s="86"/>
+      <c r="T27" s="89"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="86"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="86"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="87"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -6563,10 +6563,10 @@
       <c r="Y31" s="64">
         <v>26</v>
       </c>
-      <c r="Z31" s="99" t="s">
+      <c r="Z31" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AA31" s="100"/>
+      <c r="AA31" s="79"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
@@ -6629,10 +6629,10 @@
       <c r="Y32" s="64">
         <v>26</v>
       </c>
-      <c r="Z32" s="99" t="s">
+      <c r="Z32" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AA32" s="100"/>
+      <c r="AA32" s="79"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
@@ -10456,6 +10456,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="O8:O17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z7:AA16"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="V17:V30"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="AG3:AH3"/>
@@ -10472,134 +10504,102 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z7:AA16"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="V17:V30"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="V3:V16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="O8:O17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:F3 B4:F4 B5:E5 A9:F9 B10:F11 B12 E12:F12 B13:E13 A14:F14 B15:F17 B18:E18 A19:F19 B20:F20 B21:E21 A22:F76">
-    <cfRule type="expression" dxfId="155" priority="5">
+    <cfRule type="expression" dxfId="149" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="6">
+    <cfRule type="expression" dxfId="148" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F8">
-    <cfRule type="expression" dxfId="153" priority="3">
+    <cfRule type="expression" dxfId="147" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="4">
+    <cfRule type="expression" dxfId="146" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:M3 I4:M4 I5:L5 I6:M7">
-    <cfRule type="expression" dxfId="151" priority="31">
+    <cfRule type="expression" dxfId="145" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="32">
+    <cfRule type="expression" dxfId="144" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K27">
-    <cfRule type="expression" dxfId="149" priority="13">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="14">
+    <cfRule type="expression" dxfId="142" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Q3:R7 V3:AA3 AC3:AG3 AX3:BC77 BE3:BJ77 W4:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="147" priority="33">
+    <cfRule type="expression" dxfId="141" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 V3:AA3 AC3:AG3 Q3:R7 AX3:BC77 BE3:BJ77 W4:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="146" priority="34">
+    <cfRule type="expression" dxfId="140" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="145" priority="15">
+    <cfRule type="expression" dxfId="139" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="138" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:T4 O5:S5">
-    <cfRule type="expression" dxfId="143" priority="29">
+    <cfRule type="expression" dxfId="137" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="30">
+    <cfRule type="expression" dxfId="136" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:T7">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="135" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="2">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W11">
-    <cfRule type="expression" dxfId="139" priority="9">
+    <cfRule type="expression" dxfId="133" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="10">
+    <cfRule type="expression" dxfId="132" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Z21 W22:Y30">
-    <cfRule type="expression" dxfId="137" priority="11">
+    <cfRule type="expression" dxfId="131" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="12">
+    <cfRule type="expression" dxfId="130" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3 AJ4:AO77">
-    <cfRule type="expression" dxfId="135" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="8">
+    <cfRule type="expression" dxfId="128" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV3 AQ4:AS5 AU4:AV5">
-    <cfRule type="expression" dxfId="133" priority="21">
+    <cfRule type="expression" dxfId="127" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="22">
+    <cfRule type="expression" dxfId="126" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10612,15 +10612,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B1D877-AB6E-4B8B-93B1-7FB6A5739D3A}">
   <dimension ref="A1:BJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -10684,86 +10684,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="74" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="73"/>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="73"/>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="81"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="98"/>
       <c r="U1" s="73"/>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="81"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="98"/>
       <c r="AB1" s="73"/>
-      <c r="AC1" s="79" t="s">
+      <c r="AC1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="81"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="98"/>
       <c r="AI1" s="73"/>
-      <c r="AJ1" s="79" t="s">
+      <c r="AJ1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="81"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="98"/>
       <c r="AP1" s="73"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AQ1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
       <c r="AW1" s="73"/>
-      <c r="AX1" s="79" t="s">
+      <c r="AX1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="81"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="98"/>
       <c r="BD1" s="73"/>
-      <c r="BE1" s="79" t="s">
+      <c r="BE1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="81"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="98"/>
     </row>
     <row r="2" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
@@ -10938,50 +10938,50 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="99" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="57"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="57" t="s">
         <v>252</v>
       </c>
       <c r="F3" s="59"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="99" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="K3" s="108"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="57" t="s">
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="85" t="s">
+      <c r="O3" s="99" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
-      <c r="Q3" s="107" t="s">
+      <c r="Q3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="R3" s="108"/>
+      <c r="R3" s="109"/>
       <c r="S3" s="57" t="s">
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="85" t="s">
+      <c r="V3" s="99" t="s">
         <v>255</v>
       </c>
       <c r="W3" s="57"/>
-      <c r="X3" s="99" t="s">
+      <c r="X3" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="Y3" s="109"/>
+      <c r="Y3" s="114"/>
       <c r="Z3" s="57" t="s">
         <v>252</v>
       </c>
@@ -10998,10 +10998,10 @@
       <c r="AF3" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="100"/>
+      <c r="AH3" s="79"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -11014,10 +11014,10 @@
       <c r="AM3" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="AN3" s="99" t="s">
+      <c r="AN3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="100"/>
+      <c r="AO3" s="79"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="AS3" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="AT3" s="120" t="s">
+      <c r="AT3" s="77" t="s">
         <v>355</v>
       </c>
       <c r="AU3" s="27"/>
@@ -11044,42 +11044,42 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="27" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="H4" s="86"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="27" t="s">
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="R4" s="108"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="27" t="s">
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="86"/>
+      <c r="V4" s="100"/>
       <c r="W4" s="27"/>
-      <c r="X4" s="99" t="s">
+      <c r="X4" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" s="109"/>
+      <c r="Y4" s="114"/>
       <c r="Z4" s="27" t="s">
         <v>257</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="AS4" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="AT4" s="120" t="s">
+      <c r="AT4" s="77" t="s">
         <v>436</v>
       </c>
       <c r="AU4" s="27"/>
@@ -11122,7 +11122,7 @@
       <c r="BJ4" s="29"/>
     </row>
     <row r="5" spans="1:62" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11132,11 +11132,11 @@
       <c r="D5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="H5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11146,11 +11146,11 @@
       <c r="K5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11160,16 +11160,16 @@
       <c r="R5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="89"/>
-      <c r="V5" s="86"/>
+      <c r="T5" s="87"/>
+      <c r="V5" s="100"/>
       <c r="W5" s="27"/>
-      <c r="X5" s="107" t="s">
+      <c r="X5" s="108" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" s="108"/>
+      <c r="Y5" s="109"/>
       <c r="Z5" s="27" t="s">
         <v>256</v>
       </c>
@@ -11193,7 +11193,7 @@
       <c r="AS5" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="AT5" s="120" t="s">
+      <c r="AT5" s="77" t="s">
         <v>446</v>
       </c>
       <c r="AU5" s="27"/>
@@ -11211,32 +11211,50 @@
       <c r="BI5" s="27"/>
       <c r="BJ5" s="29"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="110"/>
+    <row r="6" spans="1:62" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="110"/>
+      <c r="F6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6" s="27"/>
       <c r="L6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="M6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="O6" s="100"/>
+      <c r="P6" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>455</v>
+      </c>
       <c r="R6" s="28"/>
       <c r="S6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="V6" s="86"/>
+      <c r="T6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="V6" s="100"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -11246,10 +11264,10 @@
       <c r="Y6" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z6" s="88" t="s">
+      <c r="Z6" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="89"/>
+      <c r="AA6" s="87"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -11286,31 +11304,31 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="110"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="50" t="s">
         <v>312</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="60" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="87"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -11322,7 +11340,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="86"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="26" t="s">
         <v>297</v>
       </c>
@@ -11335,7 +11353,7 @@
       <c r="Z7" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="111"/>
+      <c r="AA7" s="110"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="27"/>
@@ -11375,17 +11393,17 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="31" t="s">
         <v>250</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="99" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -11395,19 +11413,19 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="99" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="R8" s="108"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="26" t="s">
         <v>298</v>
       </c>
@@ -11418,7 +11436,7 @@
         <v>348</v>
       </c>
       <c r="Z8" s="92"/>
-      <c r="AA8" s="112"/>
+      <c r="AA8" s="111"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="27"/>
@@ -11452,19 +11470,19 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="99" t="s">
         <v>252</v>
       </c>
       <c r="B9" s="57"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="57" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="59"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -11474,11 +11492,11 @@
       <c r="K9" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="104"/>
-      <c r="O9" s="86"/>
+      <c r="M9" s="83"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -11488,11 +11506,11 @@
       <c r="R9" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="104"/>
-      <c r="V9" s="86"/>
+      <c r="T9" s="83"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="26" t="s">
         <v>299</v>
       </c>
@@ -11503,7 +11521,7 @@
         <v>349</v>
       </c>
       <c r="Z9" s="92"/>
-      <c r="AA9" s="112"/>
+      <c r="AA9" s="111"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="27"/>
@@ -11537,17 +11555,17 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="27" t="s">
         <v>255</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="H10" s="86"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -11557,9 +11575,9 @@
       <c r="K10" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="105"/>
-      <c r="O10" s="86"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="84"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -11569,9 +11587,9 @@
       <c r="R10" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="105"/>
-      <c r="V10" s="86"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="84"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="26" t="s">
         <v>300</v>
       </c>
@@ -11582,7 +11600,7 @@
         <v>350</v>
       </c>
       <c r="Z10" s="92"/>
-      <c r="AA10" s="112"/>
+      <c r="AA10" s="111"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="27"/>
@@ -11616,17 +11634,17 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="27" t="s">
         <v>256</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -11636,9 +11654,9 @@
       <c r="K11" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="105"/>
-      <c r="O11" s="86"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="84"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -11648,9 +11666,9 @@
       <c r="R11" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="S11" s="102"/>
-      <c r="T11" s="105"/>
-      <c r="V11" s="86"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="84"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="26" t="s">
         <v>301</v>
       </c>
@@ -11661,7 +11679,7 @@
         <v>351</v>
       </c>
       <c r="Z11" s="92"/>
-      <c r="AA11" s="112"/>
+      <c r="AA11" s="111"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="27"/>
@@ -11695,17 +11713,17 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="27" t="s">
         <v>257</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="86"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11715,9 +11733,9 @@
       <c r="K12" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="105"/>
-      <c r="O12" s="86"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="84"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11727,9 +11745,9 @@
       <c r="R12" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="105"/>
-      <c r="V12" s="86"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="26" t="s">
         <v>272</v>
       </c>
@@ -11740,7 +11758,7 @@
         <v>352</v>
       </c>
       <c r="Z12" s="92"/>
-      <c r="AA12" s="112"/>
+      <c r="AA12" s="111"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="27"/>
@@ -11774,7 +11792,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -11784,11 +11802,11 @@
       <c r="D13" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="H13" s="86"/>
+      <c r="F13" s="89"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11798,9 +11816,9 @@
       <c r="K13" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="105"/>
-      <c r="O13" s="86"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="84"/>
+      <c r="O13" s="100"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11810,9 +11828,9 @@
       <c r="R13" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="S13" s="102"/>
-      <c r="T13" s="105"/>
-      <c r="V13" s="86"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="84"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="26" t="s">
         <v>274</v>
       </c>
@@ -11823,7 +11841,7 @@
         <v>353</v>
       </c>
       <c r="Z13" s="92"/>
-      <c r="AA13" s="112"/>
+      <c r="AA13" s="111"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="27"/>
@@ -11857,19 +11875,19 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="99" t="s">
         <v>257</v>
       </c>
       <c r="B14" s="57"/>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="57" t="s">
         <v>251</v>
       </c>
       <c r="F14" s="59"/>
-      <c r="H14" s="86"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11879,9 +11897,9 @@
       <c r="K14" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="105"/>
-      <c r="O14" s="86"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="84"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11891,9 +11909,9 @@
       <c r="R14" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="105"/>
-      <c r="V14" s="86"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="84"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="26" t="s">
         <v>276</v>
       </c>
@@ -11904,7 +11922,7 @@
         <v>354</v>
       </c>
       <c r="Z14" s="92"/>
-      <c r="AA14" s="112"/>
+      <c r="AA14" s="111"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="27"/>
@@ -11938,17 +11956,17 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="108" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="27" t="s">
         <v>255</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="86"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -11958,9 +11976,9 @@
       <c r="K15" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="105"/>
-      <c r="O15" s="86"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="84"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -11970,9 +11988,9 @@
       <c r="R15" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="S15" s="102"/>
-      <c r="T15" s="105"/>
-      <c r="V15" s="86"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="84"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="26" t="s">
         <v>278</v>
       </c>
@@ -11983,7 +12001,7 @@
         <v>355</v>
       </c>
       <c r="Z15" s="92"/>
-      <c r="AA15" s="112"/>
+      <c r="AA15" s="111"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="27"/>
@@ -12017,17 +12035,17 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="27" t="s">
         <v>256</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12037,9 +12055,9 @@
       <c r="K16" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="106"/>
-      <c r="O16" s="86"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="85"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12049,9 +12067,9 @@
       <c r="R16" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="S16" s="103"/>
-      <c r="T16" s="106"/>
-      <c r="V16" s="87"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="85"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="26" t="s">
         <v>280</v>
       </c>
@@ -12062,7 +12080,7 @@
         <v>356</v>
       </c>
       <c r="Z16" s="94"/>
-      <c r="AA16" s="113"/>
+      <c r="AA16" s="112"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="27"/>
@@ -12096,17 +12114,17 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="27" t="s">
         <v>252</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="H17" s="87"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12116,11 +12134,11 @@
       <c r="K17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="78"/>
-      <c r="O17" s="87"/>
+      <c r="M17" s="89"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12130,18 +12148,18 @@
       <c r="R17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S17" s="77" t="s">
+      <c r="S17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="78"/>
-      <c r="V17" s="85" t="s">
+      <c r="T17" s="89"/>
+      <c r="V17" s="99" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
-      <c r="X17" s="107" t="s">
+      <c r="X17" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="Y17" s="108"/>
+      <c r="Y17" s="109"/>
       <c r="Z17" s="57" t="s">
         <v>252</v>
       </c>
@@ -12179,7 +12197,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -12189,11 +12207,11 @@
       <c r="D18" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="H18" s="96" t="s">
+      <c r="F18" s="89"/>
+      <c r="H18" s="102" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -12203,24 +12221,24 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="85" t="s">
+      <c r="O18" s="99" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
-      <c r="Q18" s="107" t="s">
+      <c r="Q18" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="R18" s="108"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="86"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="27"/>
-      <c r="X18" s="107" t="s">
+      <c r="X18" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="Y18" s="108"/>
+      <c r="Y18" s="109"/>
       <c r="Z18" s="27" t="s">
         <v>257</v>
       </c>
@@ -12257,19 +12275,19 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="99" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="57"/>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="D19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="57" t="s">
         <v>315</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="H19" s="97"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -12279,11 +12297,11 @@
       <c r="K19" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="104"/>
-      <c r="O19" s="86"/>
+      <c r="M19" s="83"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -12293,16 +12311,16 @@
       <c r="R19" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="S19" s="101" t="s">
+      <c r="S19" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="104"/>
-      <c r="V19" s="86"/>
+      <c r="T19" s="83"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="27"/>
-      <c r="X19" s="107" t="s">
+      <c r="X19" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="Y19" s="108"/>
+      <c r="Y19" s="109"/>
       <c r="Z19" s="27" t="s">
         <v>255</v>
       </c>
@@ -12339,17 +12357,17 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="27" t="s">
         <v>251</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="H20" s="97"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -12359,9 +12377,9 @@
       <c r="K20" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="105"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="84"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -12371,9 +12389,9 @@
       <c r="R20" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="105"/>
-      <c r="V20" s="86"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="84"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -12383,10 +12401,10 @@
       <c r="Y20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z20" s="88" t="s">
+      <c r="Z20" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="89"/>
+      <c r="AA20" s="87"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -12419,7 +12437,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -12429,11 +12447,11 @@
       <c r="D21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="H21" s="97"/>
+      <c r="F21" s="89"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -12443,9 +12461,9 @@
       <c r="K21" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="105"/>
-      <c r="O21" s="86"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="84"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -12455,9 +12473,9 @@
       <c r="R21" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="105"/>
-      <c r="V21" s="86"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="84"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -12509,7 +12527,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="97"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12519,9 +12537,9 @@
       <c r="K22" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="105"/>
-      <c r="O22" s="86"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="84"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12531,9 +12549,9 @@
       <c r="R22" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="S22" s="102"/>
-      <c r="T22" s="105"/>
-      <c r="V22" s="86"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="84"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -12583,7 +12601,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="97"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12593,9 +12611,9 @@
       <c r="K23" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="L23" s="102"/>
-      <c r="M23" s="105"/>
-      <c r="O23" s="86"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="84"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12605,9 +12623,9 @@
       <c r="R23" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="S23" s="102"/>
-      <c r="T23" s="105"/>
-      <c r="V23" s="86"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="84"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -12657,7 +12675,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="97"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12667,9 +12685,9 @@
       <c r="K24" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="105"/>
-      <c r="O24" s="86"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="84"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12679,9 +12697,9 @@
       <c r="R24" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="105"/>
-      <c r="V24" s="86"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="84"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -12731,7 +12749,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12741,9 +12759,9 @@
       <c r="K25" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="105"/>
-      <c r="O25" s="86"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="84"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12753,9 +12771,9 @@
       <c r="R25" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="T25" s="105"/>
-      <c r="V25" s="86"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="84"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -12805,7 +12823,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="97"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12815,9 +12833,9 @@
       <c r="K26" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="86"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="85"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12827,9 +12845,9 @@
       <c r="R26" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="S26" s="103"/>
-      <c r="T26" s="106"/>
-      <c r="V26" s="86"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="85"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -12879,7 +12897,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="98"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12889,11 +12907,11 @@
       <c r="K27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="O27" s="87"/>
+      <c r="M27" s="89"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12903,11 +12921,11 @@
       <c r="R27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S27" s="77" t="s">
+      <c r="S27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="78"/>
-      <c r="V27" s="86"/>
+      <c r="T27" s="89"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -12969,7 +12987,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="86"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -13031,7 +13049,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="86"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -13093,7 +13111,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="87"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -15937,27 +15955,43 @@
       <c r="BJ80" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="Z20:AA20"/>
+  <mergeCells count="72">
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="H18:H27"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="Q8:R8"/>
@@ -15973,496 +16007,454 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="V17:V30"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:O7"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A3:C3 E3:F4 B4:B5 B10:B13 E14:F17 B15:B18 E19:F20 B20:B21 A22:F80">
-    <cfRule type="expression" dxfId="131" priority="166">
+    <cfRule type="expression" dxfId="125" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="165">
+    <cfRule type="expression" dxfId="124" priority="169">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="expression" dxfId="129" priority="126">
+    <cfRule type="expression" dxfId="123" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="125">
+    <cfRule type="expression" dxfId="122" priority="129">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="127" priority="118">
+    <cfRule type="expression" dxfId="121" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="117">
+    <cfRule type="expression" dxfId="120" priority="121">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="125" priority="109">
+    <cfRule type="expression" dxfId="119" priority="114">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="113">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="110">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C8">
-    <cfRule type="expression" dxfId="123" priority="106">
+    <cfRule type="expression" dxfId="117" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="105">
+    <cfRule type="expression" dxfId="116" priority="109">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="121" priority="127">
+    <cfRule type="expression" dxfId="115" priority="132">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="131">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="113" priority="123">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="120">
+    <cfRule type="expression" dxfId="112" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="117" priority="111">
+    <cfRule type="expression" dxfId="111" priority="116">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="115">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="112">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="115" priority="108">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="107">
+    <cfRule type="expression" dxfId="108" priority="111">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="113" priority="136">
+    <cfRule type="expression" dxfId="107" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="135">
+    <cfRule type="expression" dxfId="106" priority="139">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="111" priority="140">
+    <cfRule type="expression" dxfId="105" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="139">
+    <cfRule type="expression" dxfId="104" priority="143">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="expression" dxfId="109" priority="143">
+    <cfRule type="expression" dxfId="103" priority="148">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="147">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="144">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="expression" dxfId="101" priority="164">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="163">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="expression" dxfId="99" priority="141">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:E5">
-    <cfRule type="expression" dxfId="107" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="160">
+  <conditionalFormatting sqref="C18:E18">
+    <cfRule type="expression" dxfId="97" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E13">
-    <cfRule type="expression" dxfId="105" priority="138">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="137">
+    <cfRule type="expression" dxfId="96" priority="145">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:E18">
-    <cfRule type="expression" dxfId="103" priority="141">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="142">
+  <conditionalFormatting sqref="C21:E21">
+    <cfRule type="expression" dxfId="95" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="expression" dxfId="101" priority="146">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="145">
+    <cfRule type="expression" dxfId="94" priority="149">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F12">
-    <cfRule type="expression" dxfId="99" priority="163">
+    <cfRule type="expression" dxfId="93" priority="168">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="167">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="164">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3 J6:J7">
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="91" priority="107">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="90" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:K18">
-    <cfRule type="expression" dxfId="95" priority="173">
+    <cfRule type="expression" dxfId="89" priority="177">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="174">
+    <cfRule type="expression" dxfId="88" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K17">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="87" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="21">
+    <cfRule type="expression" dxfId="86" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K27">
-    <cfRule type="expression" dxfId="91" priority="18">
+    <cfRule type="expression" dxfId="85" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="89" priority="99">
+    <cfRule type="expression" dxfId="83" priority="103">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="100">
+    <cfRule type="expression" dxfId="82" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="87" priority="102">
+    <cfRule type="expression" dxfId="81" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="101">
+    <cfRule type="expression" dxfId="80" priority="105">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L17">
-    <cfRule type="expression" dxfId="85" priority="153">
+    <cfRule type="expression" dxfId="79" priority="157">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="154">
+    <cfRule type="expression" dxfId="78" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:L27">
-    <cfRule type="expression" dxfId="83" priority="149">
+    <cfRule type="expression" dxfId="77" priority="153">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="150">
+    <cfRule type="expression" dxfId="76" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M4 I4:I7 L6:M7">
-    <cfRule type="expression" dxfId="81" priority="181">
+    <cfRule type="expression" dxfId="75" priority="185">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="182">
+    <cfRule type="expression" dxfId="74" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 Q5:R7 W6:Z6 AD7:AI17 H8:M8 L9:M9 R9:R16 P17:S17 V17 AA17:AA19 L18:M19 S18:T19 P27:S27 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="79" priority="184">
+    <cfRule type="expression" dxfId="73" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="78" priority="176">
+    <cfRule type="expression" dxfId="72" priority="179">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="180">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:Q4">
-    <cfRule type="expression" dxfId="76" priority="95">
+    <cfRule type="expression" dxfId="70" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="96">
+    <cfRule type="expression" dxfId="69" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q18">
-    <cfRule type="expression" dxfId="74" priority="91">
+    <cfRule type="expression" dxfId="68" priority="95">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="92">
+    <cfRule type="expression" dxfId="67" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q16">
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="66" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:R26">
-    <cfRule type="expression" dxfId="70" priority="30">
+    <cfRule type="expression" dxfId="64" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R7 P17:S17 P27:S27 W6:Z6 O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 AD7:AI17 H8:M8 L9:M9 R9:R16 V17 AA17:AA19 L18:M19 S18:T19 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="68" priority="183">
+    <cfRule type="expression" dxfId="62" priority="187">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="expression" dxfId="67" priority="158">
+    <cfRule type="expression" dxfId="61" priority="161">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="157">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:R27">
-    <cfRule type="expression" dxfId="65" priority="156">
+    <cfRule type="expression" dxfId="59" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="155">
+    <cfRule type="expression" dxfId="58" priority="159">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T4 O5:S5 O6:T6 O7:R7">
-    <cfRule type="expression" dxfId="63" priority="179">
+    <cfRule type="expression" dxfId="57" priority="183">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="180">
+    <cfRule type="expression" dxfId="56" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T9">
-    <cfRule type="expression" dxfId="61" priority="162">
+    <cfRule type="expression" dxfId="55" priority="165">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:W31 Y31:AA31 V32:AA80">
-    <cfRule type="expression" dxfId="59" priority="188">
+    <cfRule type="expression" dxfId="53" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="187">
+    <cfRule type="expression" dxfId="52" priority="191">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:X3">
-    <cfRule type="expression" dxfId="57" priority="72">
+    <cfRule type="expression" dxfId="51" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:X5">
-    <cfRule type="expression" dxfId="55" priority="66">
+    <cfRule type="expression" dxfId="49" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Z7 W8:Y16">
-    <cfRule type="expression" dxfId="53" priority="36">
+    <cfRule type="expression" dxfId="47" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="35">
+    <cfRule type="expression" dxfId="46" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X19">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="45" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21:X31">
+    <cfRule type="expression" dxfId="43" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:Y6">
+    <cfRule type="expression" dxfId="41" priority="137">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21:X31">
-    <cfRule type="expression" dxfId="49" priority="33">
+  <conditionalFormatting sqref="X20:Y20">
+    <cfRule type="expression" dxfId="39" priority="135">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="38" priority="136">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="134">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="133">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="expression" dxfId="35" priority="83">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:Y6">
-    <cfRule type="expression" dxfId="47" priority="134">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="133">
+  <conditionalFormatting sqref="Y21:Y30">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="expression" dxfId="45" priority="129">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="130">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="131">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="132">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="41" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Y30">
-    <cfRule type="expression" dxfId="39" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="76">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="37" priority="73">
+    <cfRule type="expression" dxfId="31" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="74">
+    <cfRule type="expression" dxfId="30" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z21 W17:W30">
-    <cfRule type="expression" dxfId="35" priority="171">
+    <cfRule type="expression" dxfId="29" priority="175">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="172">
+    <cfRule type="expression" dxfId="28" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AG3">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AO80">
-    <cfRule type="expression" dxfId="29" priority="167">
+    <cfRule type="expression" dxfId="23" priority="171">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="168">
+    <cfRule type="expression" dxfId="22" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3:AR5 AU4:AV5">
-    <cfRule type="expression" dxfId="27" priority="177">
+  <conditionalFormatting sqref="AQ3:AV80">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="178">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6:AV80">
-    <cfRule type="expression" dxfId="25" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS4:AS5">
-    <cfRule type="expression" dxfId="23" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:AV3">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4">
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -16470,11 +16462,11 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT5">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16514,21 +16506,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="E1" s="114" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="E1" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="I1" s="114" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
+      <c r="I1" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
@@ -17436,10 +17428,10 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11 I3:K11 A3:C14">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17469,18 +17461,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="D1" s="114" t="s">
+      <c r="B1" s="117"/>
+      <c r="D1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="E1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="116"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -17871,26 +17863,26 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B12">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E10">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17924,22 +17916,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="98"/>
+      <c r="D1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="G1" s="79" t="s">
+      <c r="E1" s="98"/>
+      <c r="G1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="J1" s="79" t="s">
+      <c r="H1" s="98"/>
+      <c r="J1" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -18104,26 +18096,26 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B8 J3:K9">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H5">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18175,13 +18167,13 @@
         <v>131</v>
       </c>
       <c r="H1" s="38"/>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -18844,7 +18836,7 @@
     <cfRule type="expression" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18852,7 +18844,7 @@
     <cfRule type="expression" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/egyeb-fileok/MAINEKCEL.xlsx
+++ b/egyeb-fileok/MAINEKCEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iskola\2024-2025\SKR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041C76A-82D5-4BCC-BABF-1FDEA499DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22639276-6F33-4000-A158-776644D2CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv4 címzés" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="459">
   <si>
     <t>MARKETING</t>
   </si>
@@ -1409,6 +1409,15 @@
   </si>
   <si>
     <t>2001:db8:baba:ba12::2/64</t>
+  </si>
+  <si>
+    <t>fe80:ab12::2</t>
+  </si>
+  <si>
+    <t>fe80:c112::2</t>
+  </si>
+  <si>
+    <t>fe80:ba12::2</t>
   </si>
 </sst>
 </file>
@@ -2454,6 +2463,72 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,76 +2553,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,12 +2572,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,34 +2599,6 @@
     <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="150">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2733,6 +2714,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -2741,6 +2736,349 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2776,13 +3114,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2887,6 +3218,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2895,6 +3233,69 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2971,13 +3372,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2986,48 +3380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3111,350 +3463,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4029,78 +4038,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="H1" s="96" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="H1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
-      <c r="O1" s="96" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="O1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="98"/>
-      <c r="V1" s="96" t="s">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="V1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="98"/>
-      <c r="AC1" s="96" t="s">
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="82"/>
+      <c r="AC1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="98"/>
-      <c r="AJ1" s="96" t="s">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="82"/>
+      <c r="AJ1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="98"/>
-      <c r="AQ1" s="96" t="s">
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
+      <c r="AQ1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="98"/>
-      <c r="AX1" s="96" t="s">
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="82"/>
+      <c r="AX1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="98"/>
-      <c r="BE1" s="96" t="s">
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
+      <c r="BE1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="98"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="82"/>
     </row>
     <row r="2" spans="1:62" s="4" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -4267,7 +4276,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="86" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="57"/>
@@ -4281,7 +4290,7 @@
         <v>252</v>
       </c>
       <c r="F3" s="59"/>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
@@ -4295,7 +4304,7 @@
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="99" t="s">
+      <c r="O3" s="86" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
@@ -4309,7 +4318,7 @@
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="99" t="s">
+      <c r="V3" s="86" t="s">
         <v>255</v>
       </c>
       <c r="W3" s="57"/>
@@ -4335,10 +4344,10 @@
       <c r="AF3" s="64">
         <v>27</v>
       </c>
-      <c r="AG3" s="78" t="s">
+      <c r="AG3" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="79"/>
+      <c r="AH3" s="101"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -4351,10 +4360,10 @@
       <c r="AM3" s="64">
         <v>27</v>
       </c>
-      <c r="AN3" s="78" t="s">
+      <c r="AN3" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="79"/>
+      <c r="AO3" s="101"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -4362,7 +4371,7 @@
       <c r="AS3" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="AT3" s="105">
+      <c r="AT3" s="83">
         <v>28</v>
       </c>
       <c r="AU3" s="27"/>
@@ -4381,7 +4390,7 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>185</v>
@@ -4393,7 +4402,7 @@
         <v>257</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
         <v>196</v>
@@ -4405,7 +4414,7 @@
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="100"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27" t="s">
         <v>190</v>
@@ -4417,7 +4426,7 @@
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="100"/>
+      <c r="V4" s="87"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27" t="s">
         <v>264</v>
@@ -4448,7 +4457,7 @@
       <c r="AS4" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="AT4" s="106"/>
+      <c r="AT4" s="84"/>
       <c r="AU4" s="27"/>
       <c r="AV4" s="29"/>
       <c r="AX4" s="26"/>
@@ -4465,7 +4474,7 @@
       <c r="BJ4" s="29"/>
     </row>
     <row r="5" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4475,11 +4484,11 @@
       <c r="D5" s="28">
         <v>32</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="H5" s="100"/>
+      <c r="F5" s="90"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4489,11 +4498,11 @@
       <c r="K5" s="28">
         <v>32</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="90"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4503,11 +4512,11 @@
       <c r="R5" s="28">
         <v>32</v>
       </c>
-      <c r="S5" s="86" t="s">
+      <c r="S5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="V5" s="100"/>
+      <c r="T5" s="90"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27" t="s">
         <v>265</v>
@@ -4538,7 +4547,7 @@
       <c r="AS5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AT5" s="107"/>
+      <c r="AT5" s="85"/>
       <c r="AU5" s="27"/>
       <c r="AV5" s="29"/>
       <c r="AX5" s="26"/>
@@ -4555,7 +4564,7 @@
       <c r="BJ5" s="29"/>
     </row>
     <row r="6" spans="1:62" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="27" t="s">
         <v>448</v>
       </c>
@@ -4571,7 +4580,7 @@
       <c r="F6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="27" t="s">
         <v>448</v>
       </c>
@@ -4587,7 +4596,7 @@
       <c r="M6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="O6" s="100"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="27" t="s">
         <v>448</v>
       </c>
@@ -4603,7 +4612,7 @@
       <c r="T6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="V6" s="100"/>
+      <c r="V6" s="87"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -4613,10 +4622,10 @@
       <c r="Y6" s="28">
         <v>32</v>
       </c>
-      <c r="Z6" s="86" t="s">
+      <c r="Z6" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="87"/>
+      <c r="AA6" s="90"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -4653,7 +4662,7 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" s="6" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
@@ -4665,7 +4674,7 @@
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4677,7 +4686,7 @@
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="101"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4689,7 +4698,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="100"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="27" t="s">
         <v>297</v>
       </c>
@@ -4699,10 +4708,10 @@
       <c r="Y7" s="28">
         <v>27</v>
       </c>
-      <c r="Z7" s="90" t="s">
+      <c r="Z7" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="91"/>
+      <c r="AA7" s="92"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
@@ -4741,7 +4750,7 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31" t="s">
         <v>186</v>
@@ -4753,7 +4762,7 @@
         <v>250</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="86" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -4767,7 +4776,7 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="99" t="s">
+      <c r="O8" s="86" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
@@ -4781,7 +4790,7 @@
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="27" t="s">
         <v>298</v>
       </c>
@@ -4791,8 +4800,8 @@
       <c r="Y8" s="28">
         <v>26</v>
       </c>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="27"/>
       <c r="AE8" s="27"/>
@@ -4825,7 +4834,7 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="86" t="s">
         <v>252</v>
       </c>
       <c r="B9" s="57"/>
@@ -4839,7 +4848,7 @@
         <v>251</v>
       </c>
       <c r="F9" s="59"/>
-      <c r="H9" s="100"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -4849,11 +4858,11 @@
       <c r="K9" s="28">
         <v>29</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="O9" s="100"/>
+      <c r="M9" s="105"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -4863,11 +4872,11 @@
       <c r="R9" s="28">
         <v>29</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="V9" s="100"/>
+      <c r="T9" s="105"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="27" t="s">
         <v>299</v>
       </c>
@@ -4877,8 +4886,8 @@
       <c r="Y9" s="28">
         <v>28</v>
       </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
@@ -4911,7 +4920,7 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
         <v>187</v>
@@ -4923,7 +4932,7 @@
         <v>255</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="H10" s="100"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -4933,9 +4942,9 @@
       <c r="K10" s="28">
         <v>28</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="84"/>
-      <c r="O10" s="100"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="106"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -4945,9 +4954,9 @@
       <c r="R10" s="28">
         <v>28</v>
       </c>
-      <c r="S10" s="81"/>
-      <c r="T10" s="84"/>
-      <c r="V10" s="100"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="106"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="27" t="s">
         <v>300</v>
       </c>
@@ -4957,8 +4966,8 @@
       <c r="Y10" s="28">
         <v>27</v>
       </c>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="94"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="27"/>
       <c r="AE10" s="27"/>
@@ -4991,7 +5000,7 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
         <v>188</v>
@@ -5003,7 +5012,7 @@
         <v>256</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="100"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -5013,9 +5022,9 @@
       <c r="K11" s="28">
         <v>28</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="84"/>
-      <c r="O11" s="100"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="106"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -5025,9 +5034,9 @@
       <c r="R11" s="28">
         <v>28</v>
       </c>
-      <c r="S11" s="81"/>
-      <c r="T11" s="84"/>
-      <c r="V11" s="100"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="106"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="27" t="s">
         <v>301</v>
       </c>
@@ -5037,8 +5046,8 @@
       <c r="Y11" s="28">
         <v>26</v>
       </c>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
@@ -5071,7 +5080,7 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
         <v>254</v>
@@ -5083,7 +5092,7 @@
         <v>257</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5093,9 +5102,9 @@
       <c r="K12" s="28">
         <v>27</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="84"/>
-      <c r="O12" s="100"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="106"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5105,9 +5114,9 @@
       <c r="R12" s="28">
         <v>27</v>
       </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="84"/>
-      <c r="V12" s="100"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="106"/>
+      <c r="V12" s="87"/>
       <c r="W12" s="27" t="s">
         <v>272</v>
       </c>
@@ -5117,8 +5126,8 @@
       <c r="Y12" s="28">
         <v>20</v>
       </c>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
@@ -5151,7 +5160,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -5161,11 +5170,11 @@
       <c r="D13" s="32">
         <v>32</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="79"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5175,9 +5184,9 @@
       <c r="K13" s="28">
         <v>23</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="84"/>
-      <c r="O13" s="100"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="106"/>
+      <c r="O13" s="87"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5187,9 +5196,9 @@
       <c r="R13" s="28">
         <v>23</v>
       </c>
-      <c r="S13" s="81"/>
-      <c r="T13" s="84"/>
-      <c r="V13" s="100"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="106"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="27" t="s">
         <v>274</v>
       </c>
@@ -5199,8 +5208,8 @@
       <c r="Y13" s="28">
         <v>26</v>
       </c>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
@@ -5233,7 +5242,7 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="86" t="s">
         <v>257</v>
       </c>
       <c r="B14" s="57"/>
@@ -5247,7 +5256,7 @@
         <v>251</v>
       </c>
       <c r="F14" s="59"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5257,9 +5266,9 @@
       <c r="K14" s="28">
         <v>20</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="84"/>
-      <c r="O14" s="100"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="106"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5269,9 +5278,9 @@
       <c r="R14" s="28">
         <v>20</v>
       </c>
-      <c r="S14" s="81"/>
-      <c r="T14" s="84"/>
-      <c r="V14" s="100"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="106"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="27" t="s">
         <v>276</v>
       </c>
@@ -5281,8 +5290,8 @@
       <c r="Y14" s="28">
         <v>22</v>
       </c>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
@@ -5315,7 +5324,7 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>261</v>
@@ -5327,7 +5336,7 @@
         <v>255</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="100"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5337,9 +5346,9 @@
       <c r="K15" s="28">
         <v>29</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="84"/>
-      <c r="O15" s="100"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="106"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5349,9 +5358,9 @@
       <c r="R15" s="28">
         <v>29</v>
       </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="84"/>
-      <c r="V15" s="100"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="106"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="27" t="s">
         <v>278</v>
       </c>
@@ -5361,8 +5370,8 @@
       <c r="Y15" s="28">
         <v>28</v>
       </c>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
@@ -5395,7 +5404,7 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
         <v>262</v>
@@ -5407,7 +5416,7 @@
         <v>256</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5417,9 +5426,9 @@
       <c r="K16" s="28">
         <v>29</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="85"/>
-      <c r="O16" s="100"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="107"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5429,9 +5438,9 @@
       <c r="R16" s="28">
         <v>29</v>
       </c>
-      <c r="S16" s="82"/>
-      <c r="T16" s="85"/>
-      <c r="V16" s="101"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="107"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="31" t="s">
         <v>280</v>
       </c>
@@ -5441,8 +5450,8 @@
       <c r="Y16" s="32">
         <v>28</v>
       </c>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="96"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
@@ -5475,7 +5484,7 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27" t="s">
         <v>260</v>
@@ -5487,7 +5496,7 @@
         <v>252</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5497,11 +5506,11 @@
       <c r="K17" s="32">
         <v>32</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="O17" s="101"/>
+      <c r="M17" s="79"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5511,11 +5520,11 @@
       <c r="R17" s="32">
         <v>32</v>
       </c>
-      <c r="S17" s="88" t="s">
+      <c r="S17" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="89"/>
-      <c r="V17" s="99" t="s">
+      <c r="T17" s="79"/>
+      <c r="V17" s="86" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
@@ -5561,7 +5570,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -5571,11 +5580,11 @@
       <c r="D18" s="32">
         <v>32</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="H18" s="102" t="s">
+      <c r="F18" s="79"/>
+      <c r="H18" s="97" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -5589,7 +5598,7 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="99" t="s">
+      <c r="O18" s="86" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
@@ -5603,7 +5612,7 @@
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="100"/>
+      <c r="V18" s="87"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27" t="s">
         <v>283</v>
@@ -5647,7 +5656,7 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="86" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="57"/>
@@ -5661,7 +5670,7 @@
         <v>315</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="H19" s="103"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -5671,11 +5680,11 @@
       <c r="K19" s="28">
         <v>29</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="83"/>
-      <c r="O19" s="100"/>
+      <c r="M19" s="105"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -5685,11 +5694,11 @@
       <c r="R19" s="28">
         <v>29</v>
       </c>
-      <c r="S19" s="80" t="s">
+      <c r="S19" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="83"/>
-      <c r="V19" s="100"/>
+      <c r="T19" s="105"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="27"/>
       <c r="X19" s="27" t="s">
         <v>284</v>
@@ -5733,7 +5742,7 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
         <v>310</v>
@@ -5745,7 +5754,7 @@
         <v>251</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="H20" s="103"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -5755,9 +5764,9 @@
       <c r="K20" s="28">
         <v>28</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="84"/>
-      <c r="O20" s="100"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="106"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -5767,9 +5776,9 @@
       <c r="R20" s="28">
         <v>28</v>
       </c>
-      <c r="S20" s="81"/>
-      <c r="T20" s="84"/>
-      <c r="V20" s="100"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="106"/>
+      <c r="V20" s="87"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -5779,10 +5788,10 @@
       <c r="Y20" s="28">
         <v>32</v>
       </c>
-      <c r="Z20" s="86" t="s">
+      <c r="Z20" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="87"/>
+      <c r="AA20" s="90"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -5815,7 +5824,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -5825,11 +5834,11 @@
       <c r="D21" s="32">
         <v>32</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="H21" s="103"/>
+      <c r="F21" s="79"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -5839,9 +5848,9 @@
       <c r="K21" s="28">
         <v>28</v>
       </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="84"/>
-      <c r="O21" s="100"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="106"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -5851,9 +5860,9 @@
       <c r="R21" s="28">
         <v>28</v>
       </c>
-      <c r="S21" s="81"/>
-      <c r="T21" s="84"/>
-      <c r="V21" s="100"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="106"/>
+      <c r="V21" s="87"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -5863,10 +5872,10 @@
       <c r="Y21" s="28">
         <v>27</v>
       </c>
-      <c r="Z21" s="90" t="s">
+      <c r="Z21" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="AA21" s="91"/>
+      <c r="AA21" s="92"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
@@ -5905,7 +5914,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="103"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5915,9 +5924,9 @@
       <c r="K22" s="28">
         <v>27</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="84"/>
-      <c r="O22" s="100"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="106"/>
+      <c r="O22" s="87"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5927,9 +5936,9 @@
       <c r="R22" s="28">
         <v>27</v>
       </c>
-      <c r="S22" s="81"/>
-      <c r="T22" s="84"/>
-      <c r="V22" s="100"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="106"/>
+      <c r="V22" s="87"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -5939,8 +5948,8 @@
       <c r="Y22" s="28">
         <v>26</v>
       </c>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
@@ -5979,7 +5988,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="103"/>
+      <c r="H23" s="98"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -5989,9 +5998,9 @@
       <c r="K23" s="28">
         <v>23</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="84"/>
-      <c r="O23" s="100"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="106"/>
+      <c r="O23" s="87"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -6001,9 +6010,9 @@
       <c r="R23" s="28">
         <v>23</v>
       </c>
-      <c r="S23" s="81"/>
-      <c r="T23" s="84"/>
-      <c r="V23" s="100"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="106"/>
+      <c r="V23" s="87"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -6013,8 +6022,8 @@
       <c r="Y23" s="28">
         <v>28</v>
       </c>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
@@ -6053,7 +6062,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="103"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6063,9 +6072,9 @@
       <c r="K24" s="28">
         <v>20</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="84"/>
-      <c r="O24" s="100"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="106"/>
+      <c r="O24" s="87"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6075,9 +6084,9 @@
       <c r="R24" s="28">
         <v>20</v>
       </c>
-      <c r="S24" s="81"/>
-      <c r="T24" s="84"/>
-      <c r="V24" s="100"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="106"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -6087,8 +6096,8 @@
       <c r="Y24" s="28">
         <v>27</v>
       </c>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
@@ -6127,7 +6136,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6137,9 +6146,9 @@
       <c r="K25" s="28">
         <v>29</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="84"/>
-      <c r="O25" s="100"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="106"/>
+      <c r="O25" s="87"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6149,9 +6158,9 @@
       <c r="R25" s="28">
         <v>29</v>
       </c>
-      <c r="S25" s="81"/>
-      <c r="T25" s="84"/>
-      <c r="V25" s="100"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="106"/>
+      <c r="V25" s="87"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -6161,8 +6170,8 @@
       <c r="Y25" s="28">
         <v>26</v>
       </c>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
@@ -6201,7 +6210,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="103"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6211,9 +6220,9 @@
       <c r="K26" s="28">
         <v>29</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="85"/>
-      <c r="O26" s="100"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="107"/>
+      <c r="O26" s="87"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6223,9 +6232,9 @@
       <c r="R26" s="28">
         <v>29</v>
       </c>
-      <c r="S26" s="82"/>
-      <c r="T26" s="85"/>
-      <c r="V26" s="100"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="107"/>
+      <c r="V26" s="87"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -6235,8 +6244,8 @@
       <c r="Y26" s="28">
         <v>20</v>
       </c>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
@@ -6275,7 +6284,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="104"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6285,11 +6294,11 @@
       <c r="K27" s="32">
         <v>32</v>
       </c>
-      <c r="L27" s="88" t="s">
+      <c r="L27" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="O27" s="101"/>
+      <c r="M27" s="79"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6299,11 +6308,11 @@
       <c r="R27" s="32">
         <v>32</v>
       </c>
-      <c r="S27" s="88" t="s">
+      <c r="S27" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="89"/>
-      <c r="V27" s="100"/>
+      <c r="T27" s="79"/>
+      <c r="V27" s="87"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -6313,8 +6322,8 @@
       <c r="Y27" s="28">
         <v>26</v>
       </c>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
@@ -6365,7 +6374,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="100"/>
+      <c r="V28" s="87"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -6375,8 +6384,8 @@
       <c r="Y28" s="28">
         <v>22</v>
       </c>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
@@ -6427,7 +6436,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="100"/>
+      <c r="V29" s="87"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -6437,8 +6446,8 @@
       <c r="Y29" s="28">
         <v>28</v>
       </c>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
@@ -6489,7 +6498,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="101"/>
+      <c r="V30" s="88"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -6499,8 +6508,8 @@
       <c r="Y30" s="32">
         <v>28</v>
       </c>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="96"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
@@ -6563,10 +6572,10 @@
       <c r="Y31" s="64">
         <v>26</v>
       </c>
-      <c r="Z31" s="78" t="s">
+      <c r="Z31" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AA31" s="79"/>
+      <c r="AA31" s="101"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
@@ -6629,10 +6638,10 @@
       <c r="Y32" s="64">
         <v>26</v>
       </c>
-      <c r="Z32" s="78" t="s">
+      <c r="Z32" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AA32" s="79"/>
+      <c r="AA32" s="101"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
@@ -10456,6 +10465,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="L9:L16"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S9:S16"/>
+    <mergeCell ref="T9:T16"/>
+    <mergeCell ref="M9:M16"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z7:AA16"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="V17:V30"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BE1:BJ1"/>
@@ -10472,38 +10513,6 @@
     <mergeCell ref="H8:H17"/>
     <mergeCell ref="O8:O17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z7:AA16"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="V17:V30"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="L9:L16"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S9:S16"/>
-    <mergeCell ref="T9:T16"/>
-    <mergeCell ref="M9:M16"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Z6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:F3 B4:F4 B5:E5 A9:F9 B10:F11 B12 E12:F12 B13:E13 A14:F14 B15:F17 B18:E18 A19:F19 B20:F20 B21:E21 A22:F76">
     <cfRule type="expression" dxfId="149" priority="5">
@@ -10612,8 +10621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B1D877-AB6E-4B8B-93B1-7FB6A5739D3A}">
   <dimension ref="A1:BJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -10621,7 +10630,7 @@
     <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="6"/>
@@ -10684,86 +10693,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="74" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="73"/>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="73"/>
-      <c r="O1" s="96" t="s">
+      <c r="O1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="98"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
       <c r="U1" s="73"/>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="98"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="82"/>
       <c r="AB1" s="73"/>
-      <c r="AC1" s="96" t="s">
+      <c r="AC1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="98"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="82"/>
       <c r="AI1" s="73"/>
-      <c r="AJ1" s="96" t="s">
+      <c r="AJ1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="98"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
       <c r="AP1" s="73"/>
-      <c r="AQ1" s="96" t="s">
+      <c r="AQ1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="98"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="82"/>
       <c r="AW1" s="73"/>
-      <c r="AX1" s="96" t="s">
+      <c r="AX1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="98"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
       <c r="BD1" s="73"/>
-      <c r="BE1" s="96" t="s">
+      <c r="BE1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="98"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="82"/>
     </row>
     <row r="2" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
@@ -10938,50 +10947,50 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="86" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="57"/>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="57" t="s">
         <v>252</v>
       </c>
       <c r="F3" s="59"/>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="K3" s="109"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="57" t="s">
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="99" t="s">
+      <c r="O3" s="86" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="R3" s="109"/>
+      <c r="R3" s="110"/>
       <c r="S3" s="57" t="s">
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="99" t="s">
+      <c r="V3" s="86" t="s">
         <v>255</v>
       </c>
       <c r="W3" s="57"/>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="Y3" s="114"/>
+      <c r="Y3" s="108"/>
       <c r="Z3" s="57" t="s">
         <v>252</v>
       </c>
@@ -10998,10 +11007,10 @@
       <c r="AF3" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="AG3" s="78" t="s">
+      <c r="AG3" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="79"/>
+      <c r="AH3" s="101"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -11014,10 +11023,10 @@
       <c r="AM3" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="AN3" s="78" t="s">
+      <c r="AN3" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="79"/>
+      <c r="AO3" s="101"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -11044,42 +11053,42 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="27" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="K4" s="109"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="27" t="s">
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="100"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="R4" s="109"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="27" t="s">
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="100"/>
+      <c r="V4" s="87"/>
       <c r="W4" s="27"/>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" s="114"/>
+      <c r="Y4" s="108"/>
       <c r="Z4" s="27" t="s">
         <v>257</v>
       </c>
@@ -11122,7 +11131,7 @@
       <c r="BJ4" s="29"/>
     </row>
     <row r="5" spans="1:62" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11132,11 +11141,11 @@
       <c r="D5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="H5" s="100"/>
+      <c r="F5" s="90"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11146,11 +11155,11 @@
       <c r="K5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="90"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11160,16 +11169,16 @@
       <c r="R5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S5" s="86" t="s">
+      <c r="S5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="V5" s="100"/>
+      <c r="T5" s="90"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="27"/>
-      <c r="X5" s="108" t="s">
+      <c r="X5" s="109" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" s="109"/>
+      <c r="Y5" s="110"/>
       <c r="Z5" s="27" t="s">
         <v>256</v>
       </c>
@@ -11212,49 +11221,55 @@
       <c r="BJ5" s="29"/>
     </row>
     <row r="6" spans="1:62" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="27" t="s">
         <v>448</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>456</v>
+      </c>
       <c r="E6" s="27" t="s">
         <v>193</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="27" t="s">
         <v>448</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>457</v>
+      </c>
       <c r="L6" s="27" t="s">
         <v>193</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="O6" s="100"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="27" t="s">
         <v>448</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="R6" s="28"/>
+      <c r="R6" s="28" t="s">
+        <v>458</v>
+      </c>
       <c r="S6" s="27" t="s">
         <v>193</v>
       </c>
       <c r="T6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="V6" s="100"/>
+      <c r="V6" s="87"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -11264,10 +11279,10 @@
       <c r="Y6" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z6" s="86" t="s">
+      <c r="Z6" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="87"/>
+      <c r="AA6" s="90"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -11304,31 +11319,31 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="50" t="s">
         <v>312</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="113"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="60" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="101"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -11340,7 +11355,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="100"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="26" t="s">
         <v>297</v>
       </c>
@@ -11350,10 +11365,10 @@
       <c r="Y7" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="Z7" s="90" t="s">
+      <c r="Z7" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="110"/>
+      <c r="AA7" s="112"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="27"/>
@@ -11393,17 +11408,17 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="31" t="s">
         <v>250</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="86" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -11413,19 +11428,19 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="99" t="s">
+      <c r="O8" s="86" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="R8" s="109"/>
+      <c r="R8" s="110"/>
       <c r="S8" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="26" t="s">
         <v>298</v>
       </c>
@@ -11435,8 +11450,8 @@
       <c r="Y8" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="111"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="113"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="27"/>
@@ -11470,19 +11485,19 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="86" t="s">
         <v>252</v>
       </c>
       <c r="B9" s="57"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="109"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="57" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="59"/>
-      <c r="H9" s="100"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -11492,11 +11507,11 @@
       <c r="K9" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="O9" s="100"/>
+      <c r="M9" s="105"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -11506,11 +11521,11 @@
       <c r="R9" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="V9" s="100"/>
+      <c r="T9" s="105"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="26" t="s">
         <v>299</v>
       </c>
@@ -11520,8 +11535,8 @@
       <c r="Y9" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="111"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="113"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="27"/>
@@ -11555,17 +11570,17 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="27" t="s">
         <v>255</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="H10" s="100"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -11575,9 +11590,9 @@
       <c r="K10" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="84"/>
-      <c r="O10" s="100"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="106"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -11587,9 +11602,9 @@
       <c r="R10" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="S10" s="81"/>
-      <c r="T10" s="84"/>
-      <c r="V10" s="100"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="106"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="26" t="s">
         <v>300</v>
       </c>
@@ -11599,8 +11614,8 @@
       <c r="Y10" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="111"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="113"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="27"/>
@@ -11634,17 +11649,17 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="109" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="27" t="s">
         <v>256</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="100"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -11654,9 +11669,9 @@
       <c r="K11" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="84"/>
-      <c r="O11" s="100"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="106"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -11666,9 +11681,9 @@
       <c r="R11" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="S11" s="81"/>
-      <c r="T11" s="84"/>
-      <c r="V11" s="100"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="106"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="26" t="s">
         <v>301</v>
       </c>
@@ -11678,8 +11693,8 @@
       <c r="Y11" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="111"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="113"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="27"/>
@@ -11713,17 +11728,17 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="27" t="s">
         <v>257</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11733,9 +11748,9 @@
       <c r="K12" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="84"/>
-      <c r="O12" s="100"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="106"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11745,9 +11760,9 @@
       <c r="R12" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="84"/>
-      <c r="V12" s="100"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="106"/>
+      <c r="V12" s="87"/>
       <c r="W12" s="26" t="s">
         <v>272</v>
       </c>
@@ -11757,8 +11772,8 @@
       <c r="Y12" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="111"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="113"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="27"/>
@@ -11792,7 +11807,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -11802,11 +11817,11 @@
       <c r="D13" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="79"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11816,9 +11831,9 @@
       <c r="K13" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="84"/>
-      <c r="O13" s="100"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="106"/>
+      <c r="O13" s="87"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11828,9 +11843,9 @@
       <c r="R13" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="S13" s="81"/>
-      <c r="T13" s="84"/>
-      <c r="V13" s="100"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="106"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="26" t="s">
         <v>274</v>
       </c>
@@ -11840,8 +11855,8 @@
       <c r="Y13" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="111"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="113"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="27"/>
@@ -11875,19 +11890,19 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="86" t="s">
         <v>257</v>
       </c>
       <c r="B14" s="57"/>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="57" t="s">
         <v>251</v>
       </c>
       <c r="F14" s="59"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11897,9 +11912,9 @@
       <c r="K14" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="84"/>
-      <c r="O14" s="100"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="106"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11909,9 +11924,9 @@
       <c r="R14" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="S14" s="81"/>
-      <c r="T14" s="84"/>
-      <c r="V14" s="100"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="106"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="26" t="s">
         <v>276</v>
       </c>
@@ -11921,8 +11936,8 @@
       <c r="Y14" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="111"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="113"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="27"/>
@@ -11956,17 +11971,17 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="27" t="s">
         <v>255</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="100"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -11976,9 +11991,9 @@
       <c r="K15" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="84"/>
-      <c r="O15" s="100"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="106"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -11988,9 +12003,9 @@
       <c r="R15" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="84"/>
-      <c r="V15" s="100"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="106"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="26" t="s">
         <v>278</v>
       </c>
@@ -12000,8 +12015,8 @@
       <c r="Y15" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="111"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="113"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="27"/>
@@ -12035,17 +12050,17 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="109" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="109"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="27" t="s">
         <v>256</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12055,9 +12070,9 @@
       <c r="K16" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="85"/>
-      <c r="O16" s="100"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="107"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12067,9 +12082,9 @@
       <c r="R16" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="S16" s="82"/>
-      <c r="T16" s="85"/>
-      <c r="V16" s="101"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="107"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="26" t="s">
         <v>280</v>
       </c>
@@ -12079,8 +12094,8 @@
       <c r="Y16" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="112"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="114"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="27"/>
@@ -12114,17 +12129,17 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="109" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="27" t="s">
         <v>252</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12134,11 +12149,11 @@
       <c r="K17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="O17" s="101"/>
+      <c r="M17" s="79"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12148,18 +12163,18 @@
       <c r="R17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S17" s="88" t="s">
+      <c r="S17" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="89"/>
-      <c r="V17" s="99" t="s">
+      <c r="T17" s="79"/>
+      <c r="V17" s="86" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
-      <c r="X17" s="108" t="s">
+      <c r="X17" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="Y17" s="109"/>
+      <c r="Y17" s="110"/>
       <c r="Z17" s="57" t="s">
         <v>252</v>
       </c>
@@ -12197,7 +12212,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -12207,11 +12222,11 @@
       <c r="D18" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="H18" s="102" t="s">
+      <c r="F18" s="79"/>
+      <c r="H18" s="97" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -12221,24 +12236,24 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="99" t="s">
+      <c r="O18" s="86" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
-      <c r="Q18" s="108" t="s">
+      <c r="Q18" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="R18" s="109"/>
+      <c r="R18" s="110"/>
       <c r="S18" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="100"/>
+      <c r="V18" s="87"/>
       <c r="W18" s="27"/>
-      <c r="X18" s="108" t="s">
+      <c r="X18" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="Y18" s="109"/>
+      <c r="Y18" s="110"/>
       <c r="Z18" s="27" t="s">
         <v>257</v>
       </c>
@@ -12275,19 +12290,19 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="86" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="57"/>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="D19" s="109"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="57" t="s">
         <v>315</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="H19" s="103"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -12297,11 +12312,11 @@
       <c r="K19" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="83"/>
-      <c r="O19" s="100"/>
+      <c r="M19" s="105"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -12311,16 +12326,16 @@
       <c r="R19" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="S19" s="80" t="s">
+      <c r="S19" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="83"/>
-      <c r="V19" s="100"/>
+      <c r="T19" s="105"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="27"/>
-      <c r="X19" s="108" t="s">
+      <c r="X19" s="109" t="s">
         <v>360</v>
       </c>
-      <c r="Y19" s="109"/>
+      <c r="Y19" s="110"/>
       <c r="Z19" s="27" t="s">
         <v>255</v>
       </c>
@@ -12357,17 +12372,17 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>330</v>
       </c>
-      <c r="D20" s="109"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="27" t="s">
         <v>251</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="H20" s="103"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -12377,9 +12392,9 @@
       <c r="K20" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="84"/>
-      <c r="O20" s="100"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="106"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -12389,9 +12404,9 @@
       <c r="R20" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="S20" s="81"/>
-      <c r="T20" s="84"/>
-      <c r="V20" s="100"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="106"/>
+      <c r="V20" s="87"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -12401,10 +12416,10 @@
       <c r="Y20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z20" s="86" t="s">
+      <c r="Z20" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="87"/>
+      <c r="AA20" s="90"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -12437,7 +12452,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -12447,11 +12462,11 @@
       <c r="D21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="H21" s="103"/>
+      <c r="F21" s="79"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -12461,9 +12476,9 @@
       <c r="K21" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="84"/>
-      <c r="O21" s="100"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="106"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -12473,9 +12488,9 @@
       <c r="R21" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="S21" s="81"/>
-      <c r="T21" s="84"/>
-      <c r="V21" s="100"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="106"/>
+      <c r="V21" s="87"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -12485,10 +12500,10 @@
       <c r="Y21" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="Z21" s="90" t="s">
+      <c r="Z21" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="AA21" s="91"/>
+      <c r="AA21" s="92"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
@@ -12527,7 +12542,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="103"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12537,9 +12552,9 @@
       <c r="K22" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="84"/>
-      <c r="O22" s="100"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="106"/>
+      <c r="O22" s="87"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12549,9 +12564,9 @@
       <c r="R22" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="S22" s="81"/>
-      <c r="T22" s="84"/>
-      <c r="V22" s="100"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="106"/>
+      <c r="V22" s="87"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -12561,8 +12576,8 @@
       <c r="Y22" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
@@ -12601,7 +12616,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="103"/>
+      <c r="H23" s="98"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12611,9 +12626,9 @@
       <c r="K23" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="84"/>
-      <c r="O23" s="100"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="106"/>
+      <c r="O23" s="87"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12623,9 +12638,9 @@
       <c r="R23" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="S23" s="81"/>
-      <c r="T23" s="84"/>
-      <c r="V23" s="100"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="106"/>
+      <c r="V23" s="87"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -12635,8 +12650,8 @@
       <c r="Y23" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
@@ -12675,7 +12690,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="103"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12685,9 +12700,9 @@
       <c r="K24" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="84"/>
-      <c r="O24" s="100"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="106"/>
+      <c r="O24" s="87"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12697,9 +12712,9 @@
       <c r="R24" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="S24" s="81"/>
-      <c r="T24" s="84"/>
-      <c r="V24" s="100"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="106"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -12709,8 +12724,8 @@
       <c r="Y24" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
@@ -12749,7 +12764,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12759,9 +12774,9 @@
       <c r="K25" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="84"/>
-      <c r="O25" s="100"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="106"/>
+      <c r="O25" s="87"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12771,9 +12786,9 @@
       <c r="R25" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="81"/>
-      <c r="T25" s="84"/>
-      <c r="V25" s="100"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="106"/>
+      <c r="V25" s="87"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -12783,8 +12798,8 @@
       <c r="Y25" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
@@ -12823,7 +12838,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="103"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12833,9 +12848,9 @@
       <c r="K26" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="85"/>
-      <c r="O26" s="100"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="107"/>
+      <c r="O26" s="87"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12845,9 +12860,9 @@
       <c r="R26" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="S26" s="82"/>
-      <c r="T26" s="85"/>
-      <c r="V26" s="100"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="107"/>
+      <c r="V26" s="87"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -12857,8 +12872,8 @@
       <c r="Y26" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
@@ -12897,7 +12912,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="104"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12907,11 +12922,11 @@
       <c r="K27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L27" s="88" t="s">
+      <c r="L27" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="O27" s="101"/>
+      <c r="M27" s="79"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12921,11 +12936,11 @@
       <c r="R27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S27" s="88" t="s">
+      <c r="S27" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="89"/>
-      <c r="V27" s="100"/>
+      <c r="T27" s="79"/>
+      <c r="V27" s="87"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -12935,8 +12950,8 @@
       <c r="Y27" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
@@ -12987,7 +13002,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="100"/>
+      <c r="V28" s="87"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -12997,8 +13012,8 @@
       <c r="Y28" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
@@ -13049,7 +13064,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="100"/>
+      <c r="V29" s="87"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -13059,8 +13074,8 @@
       <c r="Y29" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
@@ -13111,7 +13126,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="101"/>
+      <c r="V30" s="88"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -13121,8 +13136,8 @@
       <c r="Y30" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="96"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
@@ -15956,42 +15971,25 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="V3:V16"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="Q8:R8"/>
@@ -16008,26 +16006,43 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="V17:V30"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="H18:H27"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A3:C3 E3:F4 B4:B5 B10:B13 E14:F17 B15:B18 E19:F20 B20:B21 A22:F80">
@@ -16039,43 +16054,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="expression" dxfId="123" priority="130">
+    <cfRule type="expression" dxfId="123" priority="129">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="129">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="121" priority="122">
+    <cfRule type="expression" dxfId="121" priority="121">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="121">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="119" priority="114">
+    <cfRule type="expression" dxfId="119" priority="113">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="113">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C8">
-    <cfRule type="expression" dxfId="117" priority="110">
+    <cfRule type="expression" dxfId="117" priority="109">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="109">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="115" priority="132">
+    <cfRule type="expression" dxfId="115" priority="131">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="131">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
@@ -16103,19 +16118,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="107" priority="140">
+    <cfRule type="expression" dxfId="107" priority="139">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="139">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="105" priority="144">
+    <cfRule type="expression" dxfId="105" priority="143">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="143">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
@@ -16151,323 +16166,323 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E21">
-    <cfRule type="expression" dxfId="95" priority="150">
+    <cfRule type="expression" dxfId="95" priority="149">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="149">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="93" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F12">
-    <cfRule type="expression" dxfId="93" priority="168">
+    <cfRule type="expression" dxfId="91" priority="167">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3 J6:J7">
-    <cfRule type="expression" dxfId="91" priority="107">
+    <cfRule type="expression" dxfId="89" priority="107">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="108">
+    <cfRule type="expression" dxfId="88" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:K18">
-    <cfRule type="expression" dxfId="89" priority="177">
+    <cfRule type="expression" dxfId="87" priority="177">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="178">
+    <cfRule type="expression" dxfId="86" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K17">
-    <cfRule type="expression" dxfId="87" priority="26">
+    <cfRule type="expression" dxfId="85" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="25">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:K27">
+    <cfRule type="expression" dxfId="83" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K27">
-    <cfRule type="expression" dxfId="85" priority="21">
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="81" priority="103">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="83" priority="103">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="104">
+    <cfRule type="expression" dxfId="80" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="81" priority="106">
+    <cfRule type="expression" dxfId="79" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="105">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L17">
-    <cfRule type="expression" dxfId="79" priority="157">
+    <cfRule type="expression" dxfId="77" priority="157">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="158">
+    <cfRule type="expression" dxfId="76" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:L27">
-    <cfRule type="expression" dxfId="77" priority="153">
+    <cfRule type="expression" dxfId="75" priority="153">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="154">
+    <cfRule type="expression" dxfId="74" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M4 I4:I7 L6:M7">
-    <cfRule type="expression" dxfId="75" priority="185">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="73" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="186">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:M4 I4:I7 L6:M7">
+    <cfRule type="expression" dxfId="71" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 Q5:R7 W6:Z6 AD7:AI17 H8:M8 L9:M9 R9:R16 P17:S17 V17 AA17:AA19 L18:M19 S18:T19 P27:S27 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="73" priority="188">
+    <cfRule type="expression" dxfId="69" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="72" priority="179">
+    <cfRule type="expression" dxfId="68" priority="180">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="179">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="180">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:Q4">
-    <cfRule type="expression" dxfId="70" priority="99">
+    <cfRule type="expression" dxfId="66" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="100">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q18">
-    <cfRule type="expression" dxfId="68" priority="95">
+    <cfRule type="expression" dxfId="64" priority="95">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="96">
+    <cfRule type="expression" dxfId="63" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q16">
-    <cfRule type="expression" dxfId="66" priority="29">
+    <cfRule type="expression" dxfId="62" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="30">
+    <cfRule type="expression" dxfId="61" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:R26">
-    <cfRule type="expression" dxfId="64" priority="33">
+    <cfRule type="expression" dxfId="60" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R7 P17:S17 P27:S27 W6:Z6 O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 AD7:AI17 H8:M8 L9:M9 R9:R16 V17 AA17:AA19 L18:M19 S18:T19 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="62" priority="187">
+    <cfRule type="expression" dxfId="58" priority="187">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="expression" dxfId="61" priority="161">
+    <cfRule type="expression" dxfId="57" priority="162">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="161">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="162">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:R27">
+    <cfRule type="expression" dxfId="55" priority="159">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:R27">
-    <cfRule type="expression" dxfId="59" priority="160">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="159">
+  <conditionalFormatting sqref="S3:T4 O5:S5 O6:T6 O7:R7">
+    <cfRule type="expression" dxfId="53" priority="183">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T4 O5:S5 O6:T6 O7:R7">
-    <cfRule type="expression" dxfId="57" priority="183">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="184">
+    <cfRule type="expression" dxfId="52" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T9">
-    <cfRule type="expression" dxfId="55" priority="165">
+    <cfRule type="expression" dxfId="51" priority="166">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="165">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="166">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:W31 Y31:AA31 V32:AA80">
-    <cfRule type="expression" dxfId="53" priority="192">
+    <cfRule type="expression" dxfId="49" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="191">
+    <cfRule type="expression" dxfId="48" priority="191">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:X3">
-    <cfRule type="expression" dxfId="51" priority="75">
+    <cfRule type="expression" dxfId="47" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="76">
+    <cfRule type="expression" dxfId="46" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:X5">
-    <cfRule type="expression" dxfId="49" priority="69">
+    <cfRule type="expression" dxfId="45" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Z7 W8:Y16">
-    <cfRule type="expression" dxfId="47" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X19">
-    <cfRule type="expression" dxfId="45" priority="64">
+    <cfRule type="expression" dxfId="41" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="63">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:X31">
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:Y6">
-    <cfRule type="expression" dxfId="41" priority="137">
+    <cfRule type="expression" dxfId="37" priority="137">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="138">
+    <cfRule type="expression" dxfId="36" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="expression" dxfId="39" priority="135">
+    <cfRule type="expression" dxfId="35" priority="133">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="136">
+    <cfRule type="expression" dxfId="34" priority="135">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="134">
+    <cfRule type="expression" dxfId="32" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="133">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="35" priority="83">
+    <cfRule type="expression" dxfId="31" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="84">
+    <cfRule type="expression" dxfId="30" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y30">
-    <cfRule type="expression" dxfId="33" priority="79">
+    <cfRule type="expression" dxfId="29" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="31" priority="77">
+    <cfRule type="expression" dxfId="27" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="78">
+    <cfRule type="expression" dxfId="26" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z21 W17:W30">
-    <cfRule type="expression" dxfId="29" priority="175">
+    <cfRule type="expression" dxfId="25" priority="175">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="176">
+    <cfRule type="expression" dxfId="24" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AG3">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="23" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AO80">
-    <cfRule type="expression" dxfId="23" priority="171">
+    <cfRule type="expression" dxfId="19" priority="171">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="172">
+    <cfRule type="expression" dxfId="18" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV80">
-    <cfRule type="expression" dxfId="21" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17428,10 +17443,10 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11 I3:K11 A3:C14">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17863,26 +17878,26 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B12">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E10">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17916,22 +17931,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="82"/>
+      <c r="D1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="82"/>
+      <c r="G1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="J1" s="96" t="s">
+      <c r="H1" s="82"/>
+      <c r="J1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="98"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -18096,26 +18111,26 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B8 J3:K9">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H5">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18836,7 +18851,7 @@
     <cfRule type="expression" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18844,7 +18859,7 @@
     <cfRule type="expression" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/egyeb-fileok/MAINEKCEL.xlsx
+++ b/egyeb-fileok/MAINEKCEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iskola\2024-2025\SKR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Téringer.Gergő\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22639276-6F33-4000-A158-776644D2CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A5D9F-8FA2-472F-A324-59E35D7AF11A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv4 címzés" sheetId="2" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="477">
   <si>
     <t>MARKETING</t>
   </si>
@@ -1418,6 +1407,60 @@
   </si>
   <si>
     <t>fe80:ba12::2</t>
+  </si>
+  <si>
+    <t>G0/1/1</t>
+  </si>
+  <si>
+    <t>Dialer1 (g0/1/0)</t>
+  </si>
+  <si>
+    <t>Virtual-Access (g0/1/0)</t>
+  </si>
+  <si>
+    <t>G0/0/0</t>
+  </si>
+  <si>
+    <t>G0/0/1</t>
+  </si>
+  <si>
+    <t>G0/1/0</t>
+  </si>
+  <si>
+    <t>G0/8</t>
+  </si>
+  <si>
+    <t>ens33</t>
+  </si>
+  <si>
+    <t>G0/5</t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0/2</t>
+  </si>
+  <si>
+    <t>Virtual-Access (G0/0/1)</t>
+  </si>
+  <si>
+    <t>Dialer1 (G0/1/0)</t>
+  </si>
+  <si>
+    <t>Port1 (Fa0/23-24)</t>
+  </si>
+  <si>
+    <t>Port1 (f0/23-24)</t>
+  </si>
+  <si>
+    <t>Virtual-Access (G0/0/2)</t>
+  </si>
+  <si>
+    <t>G0/0/2</t>
+  </si>
+  <si>
+    <t>Virtual-Access (g0/0/0)</t>
   </si>
 </sst>
 </file>
@@ -2463,72 +2506,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2553,16 +2530,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2572,6 +2609,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,7 +2641,231 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="182">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3668,9 +3935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3708,7 +3975,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3814,7 +4081,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3956,7 +4223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3966,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24CC80-6D3D-45B6-87BE-7D1F6E23AC51}">
   <dimension ref="A1:BJ393"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,78 +4305,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
-      <c r="H1" s="80" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="O1" s="80" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
+      <c r="O1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="V1" s="80" t="s">
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="98"/>
+      <c r="V1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="82"/>
-      <c r="AC1" s="80" t="s">
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="98"/>
+      <c r="AC1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="82"/>
-      <c r="AJ1" s="80" t="s">
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="82"/>
-      <c r="AQ1" s="80" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="98"/>
+      <c r="AQ1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="82"/>
-      <c r="AX1" s="80" t="s">
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
+      <c r="AX1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
-      <c r="BE1" s="80" t="s">
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="98"/>
+      <c r="BE1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="82"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="98"/>
     </row>
     <row r="2" spans="1:62" s="4" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -4276,10 +4543,12 @@
       </c>
     </row>
     <row r="3" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="57" t="s">
+        <v>462</v>
+      </c>
       <c r="C3" s="57" t="s">
         <v>184</v>
       </c>
@@ -4289,8 +4558,10 @@
       <c r="E3" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="H3" s="86" t="s">
+      <c r="F3" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" s="99" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
@@ -4304,7 +4575,7 @@
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="99" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
@@ -4318,10 +4589,12 @@
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="W3" s="57"/>
+      <c r="W3" s="57" t="s">
+        <v>468</v>
+      </c>
       <c r="X3" s="57" t="s">
         <v>263</v>
       </c>
@@ -4331,7 +4604,9 @@
       <c r="Z3" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="AA3" s="59"/>
+      <c r="AA3" s="27" t="s">
+        <v>462</v>
+      </c>
       <c r="AC3" s="62" t="s">
         <v>305</v>
       </c>
@@ -4344,10 +4619,10 @@
       <c r="AF3" s="64">
         <v>27</v>
       </c>
-      <c r="AG3" s="100" t="s">
+      <c r="AG3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="101"/>
+      <c r="AH3" s="79"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -4360,10 +4635,10 @@
       <c r="AM3" s="64">
         <v>27</v>
       </c>
-      <c r="AN3" s="100" t="s">
+      <c r="AN3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="101"/>
+      <c r="AO3" s="79"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -4371,7 +4646,7 @@
       <c r="AS3" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="AT3" s="83">
+      <c r="AT3" s="105">
         <v>28</v>
       </c>
       <c r="AU3" s="27"/>
@@ -4390,8 +4665,10 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="27" t="s">
+        <v>463</v>
+      </c>
       <c r="C4" s="27" t="s">
         <v>185</v>
       </c>
@@ -4401,8 +4678,10 @@
       <c r="E4" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="H4" s="87"/>
+      <c r="F4" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" s="100"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
         <v>196</v>
@@ -4414,7 +4693,7 @@
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="87"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27" t="s">
         <v>190</v>
@@ -4426,8 +4705,10 @@
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="27"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="27" t="s">
+        <v>469</v>
+      </c>
       <c r="X4" s="27" t="s">
         <v>264</v>
       </c>
@@ -4437,7 +4718,9 @@
       <c r="Z4" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="AA4" s="29"/>
+      <c r="AA4" s="27" t="s">
+        <v>463</v>
+      </c>
       <c r="AC4" s="47"/>
       <c r="AD4" s="55"/>
       <c r="AE4" s="55"/>
@@ -4457,7 +4740,7 @@
       <c r="AS4" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="AT4" s="84"/>
+      <c r="AT4" s="106"/>
       <c r="AU4" s="27"/>
       <c r="AV4" s="29"/>
       <c r="AX4" s="26"/>
@@ -4473,8 +4756,8 @@
       <c r="BI4" s="27"/>
       <c r="BJ4" s="29"/>
     </row>
-    <row r="5" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:62" s="6" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4484,11 +4767,11 @@
       <c r="D5" s="28">
         <v>32</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="H5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4498,11 +4781,11 @@
       <c r="K5" s="28">
         <v>32</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -4512,12 +4795,14 @@
       <c r="R5" s="28">
         <v>32</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="27"/>
+      <c r="T5" s="87"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="50" t="s">
+        <v>472</v>
+      </c>
       <c r="X5" s="27" t="s">
         <v>265</v>
       </c>
@@ -4527,7 +4812,9 @@
       <c r="Z5" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="AA5" s="29"/>
+      <c r="AA5" s="20" t="s">
+        <v>473</v>
+      </c>
       <c r="AC5" s="26"/>
       <c r="AD5" s="27"/>
       <c r="AE5" s="27"/>
@@ -4547,7 +4834,7 @@
       <c r="AS5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AT5" s="85"/>
+      <c r="AT5" s="107"/>
       <c r="AU5" s="27"/>
       <c r="AV5" s="29"/>
       <c r="AX5" s="26"/>
@@ -4563,10 +4850,10 @@
       <c r="BI5" s="27"/>
       <c r="BJ5" s="29"/>
     </row>
-    <row r="6" spans="1:62" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="27" t="s">
-        <v>448</v>
+    <row r="6" spans="1:62" s="6" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="50" t="s">
+        <v>460</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>449</v>
@@ -4578,11 +4865,11 @@
         <v>193</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="27" t="s">
-        <v>448</v>
+        <v>476</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="50" t="s">
+        <v>471</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>451</v>
@@ -4594,11 +4881,11 @@
         <v>193</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="27" t="s">
-        <v>448</v>
+        <v>470</v>
+      </c>
+      <c r="O6" s="100"/>
+      <c r="P6" s="50" t="s">
+        <v>471</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>452</v>
@@ -4610,9 +4897,9 @@
         <v>193</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="V6" s="87"/>
+        <v>474</v>
+      </c>
+      <c r="V6" s="100"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -4622,10 +4909,10 @@
       <c r="Y6" s="28">
         <v>32</v>
       </c>
-      <c r="Z6" s="89" t="s">
+      <c r="Z6" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="90"/>
+      <c r="AA6" s="87"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -4662,7 +4949,7 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" s="6" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
@@ -4674,7 +4961,7 @@
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4686,7 +4973,7 @@
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="88"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -4698,7 +4985,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="27" t="s">
         <v>297</v>
       </c>
@@ -4708,10 +4995,10 @@
       <c r="Y7" s="28">
         <v>27</v>
       </c>
-      <c r="Z7" s="91" t="s">
+      <c r="Z7" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="92"/>
+      <c r="AA7" s="91"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
@@ -4750,8 +5037,10 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="31" t="s">
+        <v>475</v>
+      </c>
       <c r="C8" s="31" t="s">
         <v>186</v>
       </c>
@@ -4761,8 +5050,10 @@
       <c r="E8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="H8" s="86" t="s">
+      <c r="F8" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="99" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -4776,7 +5067,7 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="99" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
@@ -4790,7 +5081,7 @@
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="27" t="s">
         <v>298</v>
       </c>
@@ -4800,8 +5091,8 @@
       <c r="Y8" s="28">
         <v>26</v>
       </c>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="94"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="27"/>
       <c r="AE8" s="27"/>
@@ -4834,10 +5125,12 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="57" t="s">
+        <v>475</v>
+      </c>
       <c r="C9" s="57" t="s">
         <v>248</v>
       </c>
@@ -4847,8 +5140,10 @@
       <c r="E9" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" s="100"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -4858,11 +5153,13 @@
       <c r="K9" s="28">
         <v>29</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="105"/>
-      <c r="O9" s="87"/>
+      <c r="M9" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="O9" s="100"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -4872,11 +5169,11 @@
       <c r="R9" s="28">
         <v>29</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="105"/>
-      <c r="V9" s="87"/>
+      <c r="T9" s="83"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="27" t="s">
         <v>299</v>
       </c>
@@ -4886,8 +5183,8 @@
       <c r="Y9" s="28">
         <v>28</v>
       </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="93"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
@@ -4920,8 +5217,10 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="27" t="s">
+        <v>462</v>
+      </c>
       <c r="C10" s="27" t="s">
         <v>187</v>
       </c>
@@ -4931,8 +5230,10 @@
       <c r="E10" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="H10" s="87"/>
+      <c r="F10" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="100"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -4942,9 +5243,9 @@
       <c r="K10" s="28">
         <v>28</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="106"/>
-      <c r="O10" s="87"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="84"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -4954,9 +5255,9 @@
       <c r="R10" s="28">
         <v>28</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="106"/>
-      <c r="V10" s="87"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="84"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="27" t="s">
         <v>300</v>
       </c>
@@ -4966,8 +5267,8 @@
       <c r="Y10" s="28">
         <v>27</v>
       </c>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="94"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="93"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="27"/>
       <c r="AE10" s="27"/>
@@ -5000,8 +5301,10 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="27" t="s">
+        <v>463</v>
+      </c>
       <c r="C11" s="27" t="s">
         <v>188</v>
       </c>
@@ -5011,8 +5314,10 @@
       <c r="E11" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="87"/>
+      <c r="F11" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="H11" s="100"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -5022,9 +5327,9 @@
       <c r="K11" s="28">
         <v>28</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="106"/>
-      <c r="O11" s="87"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="84"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -5034,9 +5339,9 @@
       <c r="R11" s="28">
         <v>28</v>
       </c>
-      <c r="S11" s="103"/>
-      <c r="T11" s="106"/>
-      <c r="V11" s="87"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="84"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="27" t="s">
         <v>301</v>
       </c>
@@ -5046,8 +5351,8 @@
       <c r="Y11" s="28">
         <v>26</v>
       </c>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="93"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
@@ -5080,8 +5385,10 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="27" t="s">
+        <v>464</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>254</v>
       </c>
@@ -5091,8 +5398,10 @@
       <c r="E12" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="H12" s="87"/>
+      <c r="F12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="100"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5102,9 +5411,9 @@
       <c r="K12" s="28">
         <v>27</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="106"/>
-      <c r="O12" s="87"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="84"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -5114,9 +5423,9 @@
       <c r="R12" s="28">
         <v>27</v>
       </c>
-      <c r="S12" s="103"/>
-      <c r="T12" s="106"/>
-      <c r="V12" s="87"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="27" t="s">
         <v>272</v>
       </c>
@@ -5126,8 +5435,8 @@
       <c r="Y12" s="28">
         <v>20</v>
       </c>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
@@ -5160,7 +5469,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -5170,11 +5479,11 @@
       <c r="D13" s="32">
         <v>32</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="H13" s="87"/>
+      <c r="F13" s="89"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5184,9 +5493,9 @@
       <c r="K13" s="28">
         <v>23</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="106"/>
-      <c r="O13" s="87"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="84"/>
+      <c r="O13" s="100"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -5196,9 +5505,9 @@
       <c r="R13" s="28">
         <v>23</v>
       </c>
-      <c r="S13" s="103"/>
-      <c r="T13" s="106"/>
-      <c r="V13" s="87"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="84"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="27" t="s">
         <v>274</v>
       </c>
@@ -5208,8 +5517,8 @@
       <c r="Y13" s="28">
         <v>26</v>
       </c>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="94"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="93"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
@@ -5242,10 +5551,12 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="57" t="s">
+        <v>475</v>
+      </c>
       <c r="C14" s="57" t="s">
         <v>258</v>
       </c>
@@ -5255,8 +5566,10 @@
       <c r="E14" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="H14" s="87"/>
+      <c r="F14" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="100"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5266,9 +5579,9 @@
       <c r="K14" s="28">
         <v>20</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="106"/>
-      <c r="O14" s="87"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="84"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -5278,9 +5591,9 @@
       <c r="R14" s="28">
         <v>20</v>
       </c>
-      <c r="S14" s="103"/>
-      <c r="T14" s="106"/>
-      <c r="V14" s="87"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="84"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="27" t="s">
         <v>276</v>
       </c>
@@ -5290,8 +5603,8 @@
       <c r="Y14" s="28">
         <v>22</v>
       </c>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="93"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
@@ -5324,8 +5637,10 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="27" t="s">
+        <v>462</v>
+      </c>
       <c r="C15" s="27" t="s">
         <v>261</v>
       </c>
@@ -5335,8 +5650,10 @@
       <c r="E15" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="H15" s="87"/>
+      <c r="F15" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" s="100"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5346,9 +5663,9 @@
       <c r="K15" s="28">
         <v>29</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="106"/>
-      <c r="O15" s="87"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="84"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -5358,9 +5675,9 @@
       <c r="R15" s="28">
         <v>29</v>
       </c>
-      <c r="S15" s="103"/>
-      <c r="T15" s="106"/>
-      <c r="V15" s="87"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="84"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="27" t="s">
         <v>278</v>
       </c>
@@ -5370,8 +5687,8 @@
       <c r="Y15" s="28">
         <v>28</v>
       </c>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="94"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="93"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
@@ -5404,8 +5721,10 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="27" t="s">
+        <v>463</v>
+      </c>
       <c r="C16" s="27" t="s">
         <v>262</v>
       </c>
@@ -5415,8 +5734,10 @@
       <c r="E16" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="H16" s="100"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5426,9 +5747,9 @@
       <c r="K16" s="28">
         <v>29</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="107"/>
-      <c r="O16" s="87"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="85"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -5438,9 +5759,9 @@
       <c r="R16" s="28">
         <v>29</v>
       </c>
-      <c r="S16" s="104"/>
-      <c r="T16" s="107"/>
-      <c r="V16" s="88"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="85"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="31" t="s">
         <v>280</v>
       </c>
@@ -5450,8 +5771,8 @@
       <c r="Y16" s="32">
         <v>28</v>
       </c>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="96"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="95"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
@@ -5484,8 +5805,10 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="29" t="s">
+        <v>464</v>
+      </c>
       <c r="C17" s="27" t="s">
         <v>260</v>
       </c>
@@ -5495,8 +5818,10 @@
       <c r="E17" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H17" s="101"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5506,11 +5831,11 @@
       <c r="K17" s="32">
         <v>32</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="79"/>
-      <c r="O17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -5520,11 +5845,11 @@
       <c r="R17" s="32">
         <v>32</v>
       </c>
-      <c r="S17" s="78" t="s">
+      <c r="S17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="79"/>
-      <c r="V17" s="86" t="s">
+      <c r="T17" s="89"/>
+      <c r="V17" s="99" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
@@ -5570,7 +5895,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -5580,11 +5905,11 @@
       <c r="D18" s="32">
         <v>32</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="H18" s="97" t="s">
+      <c r="F18" s="89"/>
+      <c r="H18" s="102" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -5598,7 +5923,7 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="99" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
@@ -5612,7 +5937,7 @@
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="87"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27" t="s">
         <v>283</v>
@@ -5656,10 +5981,12 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="57" t="s">
+        <v>467</v>
+      </c>
       <c r="C19" s="57" t="s">
         <v>309</v>
       </c>
@@ -5669,8 +5996,10 @@
       <c r="E19" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="H19" s="98"/>
+      <c r="F19" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="103"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -5680,11 +6009,13 @@
       <c r="K19" s="28">
         <v>29</v>
       </c>
-      <c r="L19" s="102" t="s">
+      <c r="L19" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="O19" s="87"/>
+      <c r="M19" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="O19" s="100"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -5694,11 +6025,11 @@
       <c r="R19" s="28">
         <v>29</v>
       </c>
-      <c r="S19" s="102" t="s">
+      <c r="S19" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="83"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="27"/>
       <c r="X19" s="27" t="s">
         <v>284</v>
@@ -5742,8 +6073,10 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="27" t="s">
+        <v>465</v>
+      </c>
       <c r="C20" s="27" t="s">
         <v>310</v>
       </c>
@@ -5753,8 +6086,10 @@
       <c r="E20" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="H20" s="98"/>
+      <c r="F20" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" s="103"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -5764,9 +6099,9 @@
       <c r="K20" s="28">
         <v>28</v>
       </c>
-      <c r="L20" s="103"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="87"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="84"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -5776,9 +6111,9 @@
       <c r="R20" s="28">
         <v>28</v>
       </c>
-      <c r="S20" s="103"/>
-      <c r="T20" s="106"/>
-      <c r="V20" s="87"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="84"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -5788,10 +6123,10 @@
       <c r="Y20" s="28">
         <v>32</v>
       </c>
-      <c r="Z20" s="89" t="s">
+      <c r="Z20" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="90"/>
+      <c r="AA20" s="87"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -5824,7 +6159,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -5834,11 +6169,11 @@
       <c r="D21" s="32">
         <v>32</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="H21" s="98"/>
+      <c r="F21" s="89"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -5848,9 +6183,9 @@
       <c r="K21" s="28">
         <v>28</v>
       </c>
-      <c r="L21" s="103"/>
-      <c r="M21" s="106"/>
-      <c r="O21" s="87"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="84"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -5860,9 +6195,9 @@
       <c r="R21" s="28">
         <v>28</v>
       </c>
-      <c r="S21" s="103"/>
-      <c r="T21" s="106"/>
-      <c r="V21" s="87"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="84"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -5872,10 +6207,10 @@
       <c r="Y21" s="28">
         <v>27</v>
       </c>
-      <c r="Z21" s="91" t="s">
+      <c r="Z21" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="AA21" s="92"/>
+      <c r="AA21" s="91"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
@@ -5914,7 +6249,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="98"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5924,9 +6259,9 @@
       <c r="K22" s="28">
         <v>27</v>
       </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="106"/>
-      <c r="O22" s="87"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="84"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -5936,9 +6271,9 @@
       <c r="R22" s="28">
         <v>27</v>
       </c>
-      <c r="S22" s="103"/>
-      <c r="T22" s="106"/>
-      <c r="V22" s="87"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="84"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -5948,8 +6283,8 @@
       <c r="Y22" s="28">
         <v>26</v>
       </c>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
@@ -5988,7 +6323,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="98"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -5998,9 +6333,9 @@
       <c r="K23" s="28">
         <v>23</v>
       </c>
-      <c r="L23" s="103"/>
-      <c r="M23" s="106"/>
-      <c r="O23" s="87"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="84"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -6010,9 +6345,9 @@
       <c r="R23" s="28">
         <v>23</v>
       </c>
-      <c r="S23" s="103"/>
-      <c r="T23" s="106"/>
-      <c r="V23" s="87"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="84"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -6022,8 +6357,8 @@
       <c r="Y23" s="28">
         <v>28</v>
       </c>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
@@ -6062,7 +6397,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6072,9 +6407,9 @@
       <c r="K24" s="28">
         <v>20</v>
       </c>
-      <c r="L24" s="103"/>
-      <c r="M24" s="106"/>
-      <c r="O24" s="87"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="84"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -6084,9 +6419,9 @@
       <c r="R24" s="28">
         <v>20</v>
       </c>
-      <c r="S24" s="103"/>
-      <c r="T24" s="106"/>
-      <c r="V24" s="87"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="84"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -6096,8 +6431,8 @@
       <c r="Y24" s="28">
         <v>27</v>
       </c>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
@@ -6136,7 +6471,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6146,9 +6481,9 @@
       <c r="K25" s="28">
         <v>29</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="106"/>
-      <c r="O25" s="87"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="84"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -6158,9 +6493,9 @@
       <c r="R25" s="28">
         <v>29</v>
       </c>
-      <c r="S25" s="103"/>
-      <c r="T25" s="106"/>
-      <c r="V25" s="87"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="84"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -6170,8 +6505,8 @@
       <c r="Y25" s="28">
         <v>26</v>
       </c>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="93"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
@@ -6210,7 +6545,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="98"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6220,9 +6555,9 @@
       <c r="K26" s="28">
         <v>29</v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="107"/>
-      <c r="O26" s="87"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="85"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -6232,9 +6567,9 @@
       <c r="R26" s="28">
         <v>29</v>
       </c>
-      <c r="S26" s="104"/>
-      <c r="T26" s="107"/>
-      <c r="V26" s="87"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="85"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -6244,8 +6579,8 @@
       <c r="Y26" s="28">
         <v>20</v>
       </c>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
@@ -6284,7 +6619,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6294,11 +6629,11 @@
       <c r="K27" s="32">
         <v>32</v>
       </c>
-      <c r="L27" s="78" t="s">
+      <c r="L27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="79"/>
-      <c r="O27" s="88"/>
+      <c r="M27" s="89"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -6308,11 +6643,11 @@
       <c r="R27" s="32">
         <v>32</v>
       </c>
-      <c r="S27" s="78" t="s">
+      <c r="S27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="79"/>
-      <c r="V27" s="87"/>
+      <c r="T27" s="89"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -6322,8 +6657,8 @@
       <c r="Y27" s="28">
         <v>26</v>
       </c>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
@@ -6374,7 +6709,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="87"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -6384,8 +6719,8 @@
       <c r="Y28" s="28">
         <v>22</v>
       </c>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
@@ -6436,7 +6771,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="87"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -6446,8 +6781,8 @@
       <c r="Y29" s="28">
         <v>28</v>
       </c>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="93"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
@@ -6498,7 +6833,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="88"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -6508,8 +6843,8 @@
       <c r="Y30" s="32">
         <v>28</v>
       </c>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="96"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="95"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
@@ -6572,10 +6907,10 @@
       <c r="Y31" s="64">
         <v>26</v>
       </c>
-      <c r="Z31" s="100" t="s">
+      <c r="Z31" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AA31" s="101"/>
+      <c r="AA31" s="79"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
@@ -6638,10 +6973,10 @@
       <c r="Y32" s="64">
         <v>26</v>
       </c>
-      <c r="Z32" s="100" t="s">
+      <c r="Z32" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AA32" s="101"/>
+      <c r="AA32" s="79"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
@@ -10465,6 +10800,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="O8:O17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z7:AA16"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="V17:V30"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="AG3:AH3"/>
@@ -10481,134 +10848,214 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z7:AA16"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="V17:V30"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="V3:V16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="O8:O17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:F3 B4:F4 B5:E5 A9:F9 B10:F11 B12 E12:F12 B13:E13 A14:F14 B15:F17 B18:E18 A19:F19 B20:F20 B21:E21 A22:F76">
-    <cfRule type="expression" dxfId="149" priority="5">
+  <conditionalFormatting sqref="A3 A9 A14 A19 C21:E21 A22:F76 C13:D20 C9:D11 C3:D5">
+    <cfRule type="expression" dxfId="181" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="6">
+    <cfRule type="expression" dxfId="180" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:F8">
-    <cfRule type="expression" dxfId="147" priority="3">
+  <conditionalFormatting sqref="C6:D8">
+    <cfRule type="expression" dxfId="179" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="4">
+    <cfRule type="expression" dxfId="178" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:M3 I4:M4 I5:L5 I6:M7">
-    <cfRule type="expression" dxfId="145" priority="31">
+    <cfRule type="expression" dxfId="177" priority="59">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="32">
+    <cfRule type="expression" dxfId="176" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K27">
-    <cfRule type="expression" dxfId="143" priority="13">
+    <cfRule type="expression" dxfId="175" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="14">
+    <cfRule type="expression" dxfId="174" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3 Q3:R7 V3:AA3 AC3:AG3 AX3:BC77 BE3:BJ77 W4:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="141" priority="33">
+  <conditionalFormatting sqref="O3 Q3:R7 V3:Z3 AC3:AG3 AX3:BC77 BE3:BJ77 W5:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77 W4:Z4">
+    <cfRule type="expression" dxfId="173" priority="61">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3 V3:AA3 AC3:AG3 Q3:R7 AX3:BC77 BE3:BJ77 W4:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="140" priority="34">
+  <conditionalFormatting sqref="O3 V3:Z3 AC3:AG3 Q3:R7 AX3:BC77 BE3:BJ77 W5:AA5 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 H8:M8 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 L17 P17:S17 V17 AA17:AA19 H18 O18:T18 L18:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77 W4:Z4">
+    <cfRule type="expression" dxfId="172" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="139" priority="15">
+    <cfRule type="expression" dxfId="171" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="16">
+    <cfRule type="expression" dxfId="170" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:T4 O5:S5">
-    <cfRule type="expression" dxfId="137" priority="29">
+    <cfRule type="expression" dxfId="169" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="30">
+    <cfRule type="expression" dxfId="168" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:T7">
-    <cfRule type="expression" dxfId="135" priority="1">
+    <cfRule type="expression" dxfId="167" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="2">
+    <cfRule type="expression" dxfId="166" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W11">
-    <cfRule type="expression" dxfId="133" priority="9">
+    <cfRule type="expression" dxfId="165" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="10">
+    <cfRule type="expression" dxfId="164" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Z21 W22:Y30">
-    <cfRule type="expression" dxfId="131" priority="11">
+    <cfRule type="expression" dxfId="163" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="12">
+    <cfRule type="expression" dxfId="162" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3 AJ4:AO77">
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="161" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="8">
+    <cfRule type="expression" dxfId="160" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV3 AQ4:AS5 AU4:AV5">
-    <cfRule type="expression" dxfId="127" priority="21">
+    <cfRule type="expression" dxfId="159" priority="49">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="22">
+    <cfRule type="expression" dxfId="158" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F4 E14:F16 E19:F20 E17">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:F12">
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B5 B10:B13 B15:B16 B20:B21 B18">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10621,8 +11068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B1D877-AB6E-4B8B-93B1-7FB6A5739D3A}">
   <dimension ref="A1:BJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -10693,86 +11140,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="74" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="73"/>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="73"/>
-      <c r="O1" s="80" t="s">
+      <c r="O1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="98"/>
       <c r="U1" s="73"/>
-      <c r="V1" s="80" t="s">
+      <c r="V1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="82"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="98"/>
       <c r="AB1" s="73"/>
-      <c r="AC1" s="80" t="s">
+      <c r="AC1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="82"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="98"/>
       <c r="AI1" s="73"/>
-      <c r="AJ1" s="80" t="s">
+      <c r="AJ1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="82"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="98"/>
       <c r="AP1" s="73"/>
-      <c r="AQ1" s="80" t="s">
+      <c r="AQ1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="82"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
       <c r="AW1" s="73"/>
-      <c r="AX1" s="80" t="s">
+      <c r="AX1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="98"/>
       <c r="BD1" s="73"/>
-      <c r="BE1" s="80" t="s">
+      <c r="BE1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="82"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="98"/>
     </row>
     <row r="2" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
@@ -10947,50 +11394,54 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="109" t="s">
+      <c r="B3" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="H3" s="86" t="s">
+      <c r="F3" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3" s="99" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="57"/>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="K3" s="110"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="57" t="s">
         <v>226</v>
       </c>
       <c r="M3" s="59"/>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="99" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="57"/>
-      <c r="Q3" s="109" t="s">
+      <c r="Q3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="R3" s="110"/>
+      <c r="R3" s="109"/>
       <c r="S3" s="57" t="s">
         <v>181</v>
       </c>
       <c r="T3" s="59"/>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="99" t="s">
         <v>255</v>
       </c>
       <c r="W3" s="57"/>
-      <c r="X3" s="100" t="s">
+      <c r="X3" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="Y3" s="108"/>
+      <c r="Y3" s="114"/>
       <c r="Z3" s="57" t="s">
         <v>252</v>
       </c>
@@ -11007,10 +11458,10 @@
       <c r="AF3" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="AG3" s="100" t="s">
+      <c r="AG3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="101"/>
+      <c r="AH3" s="79"/>
       <c r="AJ3" s="62" t="s">
         <v>183</v>
       </c>
@@ -11023,10 +11474,10 @@
       <c r="AM3" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="AN3" s="100" t="s">
+      <c r="AN3" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="AO3" s="101"/>
+      <c r="AO3" s="79"/>
       <c r="AQ3" s="26" t="s">
         <v>112</v>
       </c>
@@ -11053,42 +11504,46 @@
       <c r="BJ3" s="29"/>
     </row>
     <row r="4" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="109" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="H4" s="87"/>
+      <c r="F4" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="100"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="27" t="s">
         <v>227</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="O4" s="87"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="109" t="s">
+      <c r="Q4" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="R4" s="110"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="27" t="s">
         <v>182</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="V4" s="87"/>
+      <c r="V4" s="100"/>
       <c r="W4" s="27"/>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" s="108"/>
+      <c r="Y4" s="114"/>
       <c r="Z4" s="27" t="s">
         <v>257</v>
       </c>
@@ -11131,7 +11586,7 @@
       <c r="BJ4" s="29"/>
     </row>
     <row r="5" spans="1:62" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11141,11 +11596,11 @@
       <c r="D5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="H5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11155,11 +11610,11 @@
       <c r="K5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="27" t="s">
         <v>192</v>
       </c>
@@ -11169,16 +11624,16 @@
       <c r="R5" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="V5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="V5" s="100"/>
       <c r="W5" s="27"/>
-      <c r="X5" s="109" t="s">
+      <c r="X5" s="108" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" s="110"/>
+      <c r="Y5" s="109"/>
       <c r="Z5" s="27" t="s">
         <v>256</v>
       </c>
@@ -11220,10 +11675,10 @@
       <c r="BI5" s="27"/>
       <c r="BJ5" s="29"/>
     </row>
-    <row r="6" spans="1:62" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="27" t="s">
-        <v>448</v>
+    <row r="6" spans="1:62" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="50" t="s">
+        <v>460</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>453</v>
@@ -11235,9 +11690,9 @@
         <v>193</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" s="87"/>
+        <v>461</v>
+      </c>
+      <c r="H6" s="100"/>
       <c r="I6" s="27" t="s">
         <v>448</v>
       </c>
@@ -11253,7 +11708,7 @@
       <c r="M6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="O6" s="87"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="27" t="s">
         <v>448</v>
       </c>
@@ -11269,7 +11724,7 @@
       <c r="T6" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="V6" s="87"/>
+      <c r="V6" s="100"/>
       <c r="W6" s="27" t="s">
         <v>192</v>
       </c>
@@ -11279,10 +11734,10 @@
       <c r="Y6" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z6" s="89" t="s">
+      <c r="Z6" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA6" s="90"/>
+      <c r="AA6" s="87"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -11319,31 +11774,31 @@
       <c r="BJ6" s="29"/>
     </row>
     <row r="7" spans="1:62" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="50" t="s">
         <v>312</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="60" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="88"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="31" t="s">
         <v>316</v>
       </c>
@@ -11355,7 +11810,7 @@
       <c r="T7" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="26" t="s">
         <v>297</v>
       </c>
@@ -11365,10 +11820,10 @@
       <c r="Y7" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="Z7" s="91" t="s">
+      <c r="Z7" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="112"/>
+      <c r="AA7" s="110"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="27"/>
@@ -11408,17 +11863,21 @@
       <c r="BJ7" s="29"/>
     </row>
     <row r="8" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="109" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="H8" s="86" t="s">
+      <c r="F8" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="99" t="s">
         <v>226</v>
       </c>
       <c r="I8" s="57"/>
@@ -11428,19 +11887,19 @@
         <v>194</v>
       </c>
       <c r="M8" s="59"/>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="99" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="57"/>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="R8" s="110"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T8" s="59"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="26" t="s">
         <v>298</v>
       </c>
@@ -11450,8 +11909,8 @@
       <c r="Y8" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="113"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="111"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="27"/>
@@ -11485,19 +11944,23 @@
       <c r="BJ8" s="29"/>
     </row>
     <row r="9" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" s="100"/>
       <c r="I9" s="27" t="s">
         <v>204</v>
       </c>
@@ -11507,11 +11970,11 @@
       <c r="K9" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="105"/>
-      <c r="O9" s="87"/>
+      <c r="M9" s="83"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="27" t="s">
         <v>200</v>
       </c>
@@ -11521,11 +11984,11 @@
       <c r="R9" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="105"/>
-      <c r="V9" s="87"/>
+      <c r="T9" s="83"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="26" t="s">
         <v>299</v>
       </c>
@@ -11535,8 +11998,8 @@
       <c r="Y9" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="113"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="111"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="27"/>
@@ -11570,17 +12033,21 @@
       <c r="BJ9" s="29"/>
     </row>
     <row r="10" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="109" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="H10" s="87"/>
+      <c r="F10" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="100"/>
       <c r="I10" s="27" t="s">
         <v>230</v>
       </c>
@@ -11590,9 +12057,9 @@
       <c r="K10" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="106"/>
-      <c r="O10" s="87"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="84"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="27" t="s">
         <v>202</v>
       </c>
@@ -11602,9 +12069,9 @@
       <c r="R10" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="106"/>
-      <c r="V10" s="87"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="84"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="26" t="s">
         <v>300</v>
       </c>
@@ -11614,8 +12081,8 @@
       <c r="Y10" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="113"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="111"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="27"/>
@@ -11649,17 +12116,21 @@
       <c r="BJ10" s="29"/>
     </row>
     <row r="11" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="109" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="110"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="87"/>
+      <c r="F11" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="H11" s="100"/>
       <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
@@ -11669,9 +12140,9 @@
       <c r="K11" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="106"/>
-      <c r="O11" s="87"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="84"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="27" t="s">
         <v>204</v>
       </c>
@@ -11681,9 +12152,9 @@
       <c r="R11" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="S11" s="103"/>
-      <c r="T11" s="106"/>
-      <c r="V11" s="87"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="84"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="26" t="s">
         <v>301</v>
       </c>
@@ -11693,8 +12164,8 @@
       <c r="Y11" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="113"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="111"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="27"/>
@@ -11728,17 +12199,21 @@
       <c r="BJ11" s="29"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="109" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="110"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="H12" s="87"/>
+      <c r="F12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="100"/>
       <c r="I12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11748,9 +12223,9 @@
       <c r="K12" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="106"/>
-      <c r="O12" s="87"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="84"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="27" t="s">
         <v>206</v>
       </c>
@@ -11760,9 +12235,9 @@
       <c r="R12" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="S12" s="103"/>
-      <c r="T12" s="106"/>
-      <c r="V12" s="87"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="26" t="s">
         <v>272</v>
       </c>
@@ -11772,8 +12247,8 @@
       <c r="Y12" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="113"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="111"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="27"/>
@@ -11807,7 +12282,7 @@
       <c r="BJ12" s="29"/>
     </row>
     <row r="13" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="31" t="s">
         <v>192</v>
       </c>
@@ -11817,11 +12292,11 @@
       <c r="D13" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="H13" s="87"/>
+      <c r="F13" s="89"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11831,9 +12306,9 @@
       <c r="K13" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="106"/>
-      <c r="O13" s="87"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="84"/>
+      <c r="O13" s="100"/>
       <c r="P13" s="27" t="s">
         <v>208</v>
       </c>
@@ -11843,9 +12318,9 @@
       <c r="R13" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="S13" s="103"/>
-      <c r="T13" s="106"/>
-      <c r="V13" s="87"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="84"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="26" t="s">
         <v>274</v>
       </c>
@@ -11855,8 +12330,8 @@
       <c r="Y13" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="113"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="111"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="27"/>
@@ -11890,19 +12365,23 @@
       <c r="BJ13" s="29"/>
     </row>
     <row r="14" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="109" t="s">
+      <c r="B14" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="D14" s="110"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="H14" s="87"/>
+      <c r="F14" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="100"/>
       <c r="I14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11912,9 +12391,9 @@
       <c r="K14" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="106"/>
-      <c r="O14" s="87"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="84"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="27" t="s">
         <v>213</v>
       </c>
@@ -11924,9 +12403,9 @@
       <c r="R14" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="S14" s="103"/>
-      <c r="T14" s="106"/>
-      <c r="V14" s="87"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="84"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="26" t="s">
         <v>276</v>
       </c>
@@ -11936,8 +12415,8 @@
       <c r="Y14" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="113"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="111"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="27"/>
@@ -11971,17 +12450,21 @@
       <c r="BJ14" s="29"/>
     </row>
     <row r="15" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="109" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="108" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="110"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="H15" s="87"/>
+      <c r="F15" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" s="100"/>
       <c r="I15" s="27" t="s">
         <v>214</v>
       </c>
@@ -11991,9 +12474,9 @@
       <c r="K15" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="106"/>
-      <c r="O15" s="87"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="84"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="27" t="s">
         <v>214</v>
       </c>
@@ -12003,9 +12486,9 @@
       <c r="R15" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="S15" s="103"/>
-      <c r="T15" s="106"/>
-      <c r="V15" s="87"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="84"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="26" t="s">
         <v>278</v>
       </c>
@@ -12015,8 +12498,8 @@
       <c r="Y15" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="113"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="111"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="27"/>
@@ -12050,17 +12533,21 @@
       <c r="BJ15" s="29"/>
     </row>
     <row r="16" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="109" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="110"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="H16" s="100"/>
       <c r="I16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12070,9 +12557,9 @@
       <c r="K16" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="107"/>
-      <c r="O16" s="87"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="85"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="27" t="s">
         <v>215</v>
       </c>
@@ -12082,9 +12569,9 @@
       <c r="R16" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="S16" s="104"/>
-      <c r="T16" s="107"/>
-      <c r="V16" s="88"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="85"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="26" t="s">
         <v>280</v>
       </c>
@@ -12094,8 +12581,8 @@
       <c r="Y16" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="114"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="112"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="27"/>
@@ -12129,17 +12616,21 @@
       <c r="BJ16" s="29"/>
     </row>
     <row r="17" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="109" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="110"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H17" s="101"/>
       <c r="I17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12149,11 +12640,11 @@
       <c r="K17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="79"/>
-      <c r="O17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="31" t="s">
         <v>192</v>
       </c>
@@ -12163,18 +12654,18 @@
       <c r="R17" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S17" s="78" t="s">
+      <c r="S17" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T17" s="79"/>
-      <c r="V17" s="86" t="s">
+      <c r="T17" s="89"/>
+      <c r="V17" s="99" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="57"/>
-      <c r="X17" s="109" t="s">
+      <c r="X17" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="Y17" s="110"/>
+      <c r="Y17" s="109"/>
       <c r="Z17" s="57" t="s">
         <v>252</v>
       </c>
@@ -12212,7 +12703,7 @@
       <c r="BJ17" s="29"/>
     </row>
     <row r="18" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="31" t="s">
         <v>192</v>
       </c>
@@ -12222,11 +12713,11 @@
       <c r="D18" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="H18" s="97" t="s">
+      <c r="F18" s="89"/>
+      <c r="H18" s="102" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="57"/>
@@ -12236,24 +12727,24 @@
         <v>194</v>
       </c>
       <c r="M18" s="59"/>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="99" t="s">
         <v>182</v>
       </c>
       <c r="P18" s="57"/>
-      <c r="Q18" s="109" t="s">
+      <c r="Q18" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="R18" s="110"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="57" t="s">
         <v>180</v>
       </c>
       <c r="T18" s="59"/>
-      <c r="V18" s="87"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="27"/>
-      <c r="X18" s="109" t="s">
+      <c r="X18" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="Y18" s="110"/>
+      <c r="Y18" s="109"/>
       <c r="Z18" s="27" t="s">
         <v>257</v>
       </c>
@@ -12290,19 +12781,23 @@
       <c r="BJ18" s="29"/>
     </row>
     <row r="19" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="H19" s="98"/>
+      <c r="F19" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="103"/>
       <c r="I19" s="27" t="s">
         <v>204</v>
       </c>
@@ -12312,11 +12807,11 @@
       <c r="K19" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="L19" s="102" t="s">
+      <c r="L19" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="O19" s="87"/>
+      <c r="M19" s="83"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="27" t="s">
         <v>200</v>
       </c>
@@ -12326,16 +12821,16 @@
       <c r="R19" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="S19" s="102" t="s">
+      <c r="S19" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="83"/>
+      <c r="V19" s="100"/>
       <c r="W19" s="27"/>
-      <c r="X19" s="109" t="s">
+      <c r="X19" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="Y19" s="110"/>
+      <c r="Y19" s="109"/>
       <c r="Z19" s="27" t="s">
         <v>255</v>
       </c>
@@ -12372,17 +12867,21 @@
       <c r="BJ19" s="29"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="109" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="D20" s="110"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="H20" s="98"/>
+      <c r="F20" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="H20" s="103"/>
       <c r="I20" s="27" t="s">
         <v>230</v>
       </c>
@@ -12392,9 +12891,9 @@
       <c r="K20" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="L20" s="103"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="87"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="84"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="27" t="s">
         <v>202</v>
       </c>
@@ -12404,9 +12903,9 @@
       <c r="R20" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="S20" s="103"/>
-      <c r="T20" s="106"/>
-      <c r="V20" s="87"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="84"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="27" t="s">
         <v>192</v>
       </c>
@@ -12416,10 +12915,10 @@
       <c r="Y20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="Z20" s="89" t="s">
+      <c r="Z20" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="AA20" s="90"/>
+      <c r="AA20" s="87"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -12452,7 +12951,7 @@
       <c r="BJ20" s="29"/>
     </row>
     <row r="21" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="31" t="s">
         <v>192</v>
       </c>
@@ -12462,11 +12961,11 @@
       <c r="D21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="H21" s="98"/>
+      <c r="F21" s="89"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="27" t="s">
         <v>232</v>
       </c>
@@ -12476,9 +12975,9 @@
       <c r="K21" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="L21" s="103"/>
-      <c r="M21" s="106"/>
-      <c r="O21" s="87"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="84"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="27" t="s">
         <v>204</v>
       </c>
@@ -12488,9 +12987,9 @@
       <c r="R21" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="S21" s="103"/>
-      <c r="T21" s="106"/>
-      <c r="V21" s="87"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="84"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="27" t="s">
         <v>297</v>
       </c>
@@ -12500,10 +12999,10 @@
       <c r="Y21" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="Z21" s="91" t="s">
+      <c r="Z21" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="AA21" s="92"/>
+      <c r="AA21" s="91"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
@@ -12542,7 +13041,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
-      <c r="H22" s="98"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12552,9 +13051,9 @@
       <c r="K22" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="106"/>
-      <c r="O22" s="87"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="84"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="27" t="s">
         <v>206</v>
       </c>
@@ -12564,9 +13063,9 @@
       <c r="R22" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="S22" s="103"/>
-      <c r="T22" s="106"/>
-      <c r="V22" s="87"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="84"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="27" t="s">
         <v>298</v>
       </c>
@@ -12576,8 +13075,8 @@
       <c r="Y22" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
@@ -12616,7 +13115,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="27"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="98"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12626,9 +13125,9 @@
       <c r="K23" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="L23" s="103"/>
-      <c r="M23" s="106"/>
-      <c r="O23" s="87"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="84"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="27" t="s">
         <v>208</v>
       </c>
@@ -12638,9 +13137,9 @@
       <c r="R23" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="S23" s="103"/>
-      <c r="T23" s="106"/>
-      <c r="V23" s="87"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="84"/>
+      <c r="V23" s="100"/>
       <c r="W23" s="27" t="s">
         <v>299</v>
       </c>
@@ -12650,8 +13149,8 @@
       <c r="Y23" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
@@ -12690,7 +13189,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="29"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12700,9 +13199,9 @@
       <c r="K24" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="L24" s="103"/>
-      <c r="M24" s="106"/>
-      <c r="O24" s="87"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="84"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="27" t="s">
         <v>213</v>
       </c>
@@ -12712,9 +13211,9 @@
       <c r="R24" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="S24" s="103"/>
-      <c r="T24" s="106"/>
-      <c r="V24" s="87"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="84"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="27" t="s">
         <v>300</v>
       </c>
@@ -12724,8 +13223,8 @@
       <c r="Y24" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
@@ -12764,7 +13263,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="29"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12774,9 +13273,9 @@
       <c r="K25" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="106"/>
-      <c r="O25" s="87"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="84"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="27" t="s">
         <v>214</v>
       </c>
@@ -12786,9 +13285,9 @@
       <c r="R25" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="103"/>
-      <c r="T25" s="106"/>
-      <c r="V25" s="87"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="84"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="27" t="s">
         <v>301</v>
       </c>
@@ -12798,8 +13297,8 @@
       <c r="Y25" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="93"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
@@ -12838,7 +13337,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
       <c r="F26" s="29"/>
-      <c r="H26" s="98"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12848,9 +13347,9 @@
       <c r="K26" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="107"/>
-      <c r="O26" s="87"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="85"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="27" t="s">
         <v>215</v>
       </c>
@@ -12860,9 +13359,9 @@
       <c r="R26" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="S26" s="104"/>
-      <c r="T26" s="107"/>
-      <c r="V26" s="87"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="85"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="27" t="s">
         <v>272</v>
       </c>
@@ -12872,8 +13371,8 @@
       <c r="Y26" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
@@ -12912,7 +13411,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="27"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12922,11 +13421,11 @@
       <c r="K27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="L27" s="78" t="s">
+      <c r="L27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="79"/>
-      <c r="O27" s="88"/>
+      <c r="M27" s="89"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="31" t="s">
         <v>192</v>
       </c>
@@ -12936,11 +13435,11 @@
       <c r="R27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S27" s="78" t="s">
+      <c r="S27" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="T27" s="79"/>
-      <c r="V27" s="87"/>
+      <c r="T27" s="89"/>
+      <c r="V27" s="100"/>
       <c r="W27" s="27" t="s">
         <v>274</v>
       </c>
@@ -12950,8 +13449,8 @@
       <c r="Y27" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
@@ -13002,7 +13501,7 @@
       <c r="R28" s="45"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
-      <c r="V28" s="87"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="27" t="s">
         <v>276</v>
       </c>
@@ -13012,8 +13511,8 @@
       <c r="Y28" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
@@ -13064,7 +13563,7 @@
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
-      <c r="V29" s="87"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="27" t="s">
         <v>278</v>
       </c>
@@ -13074,8 +13573,8 @@
       <c r="Y29" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="93"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
@@ -13126,7 +13625,7 @@
       <c r="R30" s="28"/>
       <c r="S30" s="27"/>
       <c r="T30" s="29"/>
-      <c r="V30" s="88"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="31" t="s">
         <v>280</v>
       </c>
@@ -13136,8 +13635,8 @@
       <c r="Y30" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="96"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="95"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
@@ -15971,25 +16470,42 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="Q8:R8"/>
@@ -16006,483 +16522,482 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="V17:V30"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="V3:V16"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C3 E3:F4 B4:B5 B10:B13 E14:F17 B15:B18 E19:F20 B20:B21 A22:F80">
-    <cfRule type="expression" dxfId="125" priority="170">
+  <conditionalFormatting sqref="A3:C3 E3:F4 B4:B5 B10:B13 E14:F16 B15:B16 E19:F20 B20:B21 A22:F80 B18 E17">
+    <cfRule type="expression" dxfId="157" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="169">
+    <cfRule type="expression" dxfId="156" priority="173">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="expression" dxfId="123" priority="129">
+    <cfRule type="expression" dxfId="155" priority="133">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="130">
+    <cfRule type="expression" dxfId="154" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="121" priority="121">
+    <cfRule type="expression" dxfId="153" priority="125">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="122">
+    <cfRule type="expression" dxfId="152" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="151" priority="117">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="150" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C8">
-    <cfRule type="expression" dxfId="117" priority="109">
+    <cfRule type="expression" dxfId="149" priority="113">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="110">
+    <cfRule type="expression" dxfId="148" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="115" priority="131">
+    <cfRule type="expression" dxfId="147" priority="135">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="132">
+    <cfRule type="expression" dxfId="146" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="expression" dxfId="113" priority="123">
+    <cfRule type="expression" dxfId="145" priority="127">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="124">
+    <cfRule type="expression" dxfId="144" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C17">
-    <cfRule type="expression" dxfId="111" priority="116">
+    <cfRule type="expression" dxfId="143" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="115">
+    <cfRule type="expression" dxfId="142" priority="119">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="141" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="111">
+    <cfRule type="expression" dxfId="140" priority="115">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="107" priority="139">
+    <cfRule type="expression" dxfId="139" priority="143">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="140">
+    <cfRule type="expression" dxfId="138" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="105" priority="143">
+    <cfRule type="expression" dxfId="137" priority="147">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="144">
+    <cfRule type="expression" dxfId="136" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="expression" dxfId="103" priority="148">
+    <cfRule type="expression" dxfId="135" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="147">
+    <cfRule type="expression" dxfId="134" priority="151">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5">
-    <cfRule type="expression" dxfId="101" priority="164">
+    <cfRule type="expression" dxfId="133" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="163">
+    <cfRule type="expression" dxfId="132" priority="167">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="expression" dxfId="99" priority="141">
+    <cfRule type="expression" dxfId="131" priority="145">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="142">
+    <cfRule type="expression" dxfId="130" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:E18">
-    <cfRule type="expression" dxfId="97" priority="146">
+    <cfRule type="expression" dxfId="129" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="145">
+    <cfRule type="expression" dxfId="128" priority="149">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E21">
-    <cfRule type="expression" dxfId="95" priority="149">
+    <cfRule type="expression" dxfId="127" priority="153">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="150">
+    <cfRule type="expression" dxfId="126" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="93" priority="4">
+    <cfRule type="expression" dxfId="125" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="124" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F12">
-    <cfRule type="expression" dxfId="91" priority="167">
+    <cfRule type="expression" dxfId="123" priority="171">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="168">
+    <cfRule type="expression" dxfId="122" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3 J6:J7">
-    <cfRule type="expression" dxfId="89" priority="107">
+    <cfRule type="expression" dxfId="121" priority="111">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="108">
+    <cfRule type="expression" dxfId="120" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:K18">
-    <cfRule type="expression" dxfId="87" priority="177">
+    <cfRule type="expression" dxfId="119" priority="181">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="178">
+    <cfRule type="expression" dxfId="118" priority="182">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K17">
-    <cfRule type="expression" dxfId="85" priority="25">
+    <cfRule type="expression" dxfId="117" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="26">
+    <cfRule type="expression" dxfId="116" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K27">
-    <cfRule type="expression" dxfId="83" priority="22">
+    <cfRule type="expression" dxfId="115" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="21">
+    <cfRule type="expression" dxfId="114" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="81" priority="103">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="104">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="79" priority="105">
+    <cfRule type="expression" dxfId="111" priority="109">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="106">
+    <cfRule type="expression" dxfId="110" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L17">
-    <cfRule type="expression" dxfId="77" priority="157">
+    <cfRule type="expression" dxfId="109" priority="161">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="158">
+    <cfRule type="expression" dxfId="108" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:L27">
-    <cfRule type="expression" dxfId="75" priority="153">
+    <cfRule type="expression" dxfId="107" priority="157">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="154">
+    <cfRule type="expression" dxfId="106" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="105" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="104" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M4 I4:I7 L6:M7">
-    <cfRule type="expression" dxfId="71" priority="186">
+    <cfRule type="expression" dxfId="103" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="185">
+    <cfRule type="expression" dxfId="102" priority="189">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 Q5:R7 W6:Z6 AD7:AI17 H8:M8 L9:M9 R9:R16 P17:S17 V17 AA17:AA19 L18:M19 S18:T19 P27:S27 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="69" priority="188">
+    <cfRule type="expression" dxfId="101" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="68" priority="180">
+    <cfRule type="expression" dxfId="100" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="179">
+    <cfRule type="expression" dxfId="99" priority="183">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:Q4">
-    <cfRule type="expression" dxfId="66" priority="100">
+    <cfRule type="expression" dxfId="98" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="99">
+    <cfRule type="expression" dxfId="97" priority="103">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q18">
-    <cfRule type="expression" dxfId="64" priority="95">
+    <cfRule type="expression" dxfId="96" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="96">
+    <cfRule type="expression" dxfId="95" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q16">
-    <cfRule type="expression" dxfId="62" priority="29">
+    <cfRule type="expression" dxfId="94" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="30">
+    <cfRule type="expression" dxfId="93" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:R26">
-    <cfRule type="expression" dxfId="60" priority="34">
+    <cfRule type="expression" dxfId="92" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="91" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R7 P17:S17 P27:S27 W6:Z6 O3 Z3:AA5 AX3:BC80 BE3:BJ80 AC4:AH80 AD7:AI17 H8:M8 L9:M9 R9:R16 V17 AA17:AA19 L18:M19 S18:T19 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="58" priority="187">
+    <cfRule type="expression" dxfId="90" priority="191">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="expression" dxfId="57" priority="162">
+    <cfRule type="expression" dxfId="89" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="161">
+    <cfRule type="expression" dxfId="88" priority="165">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:R27">
-    <cfRule type="expression" dxfId="55" priority="159">
+    <cfRule type="expression" dxfId="87" priority="163">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="160">
+    <cfRule type="expression" dxfId="86" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T4 O5:S5 O6:T6 O7:R7">
-    <cfRule type="expression" dxfId="53" priority="183">
+    <cfRule type="expression" dxfId="85" priority="187">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="184">
+    <cfRule type="expression" dxfId="84" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T9">
-    <cfRule type="expression" dxfId="51" priority="166">
+    <cfRule type="expression" dxfId="83" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="165">
+    <cfRule type="expression" dxfId="82" priority="169">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:W31 Y31:AA31 V32:AA80">
-    <cfRule type="expression" dxfId="49" priority="192">
+    <cfRule type="expression" dxfId="81" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="191">
+    <cfRule type="expression" dxfId="80" priority="195">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:X3">
-    <cfRule type="expression" dxfId="47" priority="75">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="76">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:X5">
-    <cfRule type="expression" dxfId="45" priority="70">
+    <cfRule type="expression" dxfId="77" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="69">
+    <cfRule type="expression" dxfId="76" priority="73">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:Z7 W8:Y16">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="75" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="74" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X19">
-    <cfRule type="expression" dxfId="41" priority="63">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="64">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:X31">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="71" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="70" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:Y6">
-    <cfRule type="expression" dxfId="37" priority="137">
+    <cfRule type="expression" dxfId="69" priority="141">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="138">
+    <cfRule type="expression" dxfId="68" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="expression" dxfId="35" priority="133">
+    <cfRule type="expression" dxfId="67" priority="137">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="135">
+    <cfRule type="expression" dxfId="66" priority="139">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="134">
+    <cfRule type="expression" dxfId="65" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="136">
+    <cfRule type="expression" dxfId="64" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="31" priority="83">
+    <cfRule type="expression" dxfId="63" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="84">
+    <cfRule type="expression" dxfId="62" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y30">
-    <cfRule type="expression" dxfId="29" priority="80">
+    <cfRule type="expression" dxfId="61" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="79">
+    <cfRule type="expression" dxfId="60" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="27" priority="77">
+    <cfRule type="expression" dxfId="59" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="78">
+    <cfRule type="expression" dxfId="58" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z21 W17:W30">
-    <cfRule type="expression" dxfId="25" priority="175">
+    <cfRule type="expression" dxfId="57" priority="179">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="176">
+    <cfRule type="expression" dxfId="56" priority="180">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AG3">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="55" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="53" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="52" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AO80">
-    <cfRule type="expression" dxfId="19" priority="171">
+    <cfRule type="expression" dxfId="51" priority="175">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="172">
+    <cfRule type="expression" dxfId="50" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV80">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="49" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="31" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17443,10 +17958,10 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G11 I3:K11 A3:C14">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17878,26 +18393,26 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B12">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E10">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="43" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26">
+    <cfRule type="expression" dxfId="42" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17931,22 +18446,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="98"/>
+      <c r="D1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="G1" s="80" t="s">
+      <c r="E1" s="98"/>
+      <c r="G1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="J1" s="80" t="s">
+      <c r="H1" s="98"/>
+      <c r="J1" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="82"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -18111,26 +18626,26 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B8 J3:K9">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H5">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18851,7 +19366,7 @@
     <cfRule type="expression" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18859,7 +19374,7 @@
     <cfRule type="expression" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/egyeb-fileok/MAINEKCEL.xlsx
+++ b/egyeb-fileok/MAINEKCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iskola\2024-2025\SKR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820E0A5-74A0-44D2-8F88-A856276CDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044B742-BB94-46AD-BB21-EA8D632F4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1FFF5011-52B1-4043-B311-5942BCB5332E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="535">
   <si>
     <t>MARKETING</t>
   </si>
@@ -1396,12 +1396,6 @@
     <t>G0/5</t>
   </si>
   <si>
-    <t>Fa0/1</t>
-  </si>
-  <si>
-    <t>Fa0/2</t>
-  </si>
-  <si>
     <t>Virtual-Access (G0/0/1)</t>
   </si>
   <si>
@@ -1543,9 +1537,6 @@
     <t>fe80:c1d2::3</t>
   </si>
   <si>
-    <t>G0/2/0</t>
-  </si>
-  <si>
     <t>2001:db8:c1c1:ba48::1/128</t>
   </si>
   <si>
@@ -1640,6 +1631,21 @@
   </si>
   <si>
     <t>fe80:ab80::4</t>
+  </si>
+  <si>
+    <t>G0/1</t>
+  </si>
+  <si>
+    <t>G0/2</t>
+  </si>
+  <si>
+    <t>G1/1/1</t>
+  </si>
+  <si>
+    <t>G1/1/2</t>
+  </si>
+  <si>
+    <t>Port1 (G1/0/1-G1/0/2)</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2492,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2778,6 +2784,69 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2802,67 +2871,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2871,7 +2883,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2880,13 +2892,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,16 +2919,13 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="215">
     <dxf>
       <fill>
         <patternFill>
@@ -2933,6 +2936,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -2961,6 +2971,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -2989,6 +3006,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3024,6 +3048,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -3087,6 +3160,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3094,6 +3174,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3115,6 +3202,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3122,6 +3216,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3185,6 +3286,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3192,6 +3300,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3269,6 +3384,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3318,6 +3440,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3325,6 +3454,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3332,6 +3468,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3339,6 +3482,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3346,6 +3496,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3367,6 +3524,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3381,6 +3545,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3409,6 +3587,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3423,6 +3608,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3437,6 +3636,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3451,6 +3657,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3472,6 +3692,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3479,6 +3706,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3563,6 +3797,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3570,6 +3818,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3577,6 +3832,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3584,6 +3846,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3591,6 +3860,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3633,6 +3909,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3640,6 +3930,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3661,6 +3958,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3668,6 +3972,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3703,6 +4014,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3724,6 +4042,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3759,6 +4084,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3766,6 +4098,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3787,6 +4126,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3794,6 +4140,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3885,6 +4238,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3892,6 +4252,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3927,6 +4294,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3934,6 +4308,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3941,6 +4322,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3955,6 +4343,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -3997,6 +4392,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
@@ -4004,6 +4406,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -4011,350 +4420,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4675,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24CC80-6D3D-45B6-87BE-7D1F6E23AC51}">
   <dimension ref="A1:BJ393"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="Q8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,78 +4820,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
-      <c r="H1" s="117" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
-      <c r="O1" s="117" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="O1" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
-      <c r="V1" s="117" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="103"/>
+      <c r="V1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
-      <c r="AC1" s="117" t="s">
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="103"/>
+      <c r="AC1" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="119"/>
-      <c r="AJ1" s="117" t="s">
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
+      <c r="AJ1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="119"/>
-      <c r="AQ1" s="117" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="103"/>
+      <c r="AQ1" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AX1" s="117" t="s">
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="103"/>
+      <c r="AX1" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="118"/>
-      <c r="BB1" s="118"/>
-      <c r="BC1" s="119"/>
-      <c r="BE1" s="117" t="s">
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="103"/>
+      <c r="BE1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="118"/>
-      <c r="BG1" s="118"/>
-      <c r="BH1" s="118"/>
-      <c r="BI1" s="118"/>
-      <c r="BJ1" s="119"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="103"/>
     </row>
     <row r="2" spans="1:62" s="4" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -4985,7 +5058,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="106" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="54" t="s">
@@ -5001,9 +5074,9 @@
         <v>249</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="H3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="106" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="54" t="s">
@@ -5019,9 +5092,9 @@
         <v>223</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="O3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="O3" s="106" t="s">
         <v>177</v>
       </c>
       <c r="P3" s="54" t="s">
@@ -5037,13 +5110,13 @@
         <v>178</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="V3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="V3" s="106" t="s">
         <v>252</v>
       </c>
       <c r="W3" s="54" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="X3" s="54" t="s">
         <v>260</v>
@@ -5069,10 +5142,10 @@
       <c r="AF3" s="61">
         <v>27</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AH3" s="100"/>
+      <c r="AH3" s="121"/>
       <c r="AJ3" s="59" t="s">
         <v>180</v>
       </c>
@@ -5085,10 +5158,10 @@
       <c r="AM3" s="61">
         <v>27</v>
       </c>
-      <c r="AN3" s="99" t="s">
+      <c r="AN3" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AO3" s="100"/>
+      <c r="AO3" s="121"/>
       <c r="AQ3" s="44" t="s">
         <v>112</v>
       </c>
@@ -5098,19 +5171,19 @@
       <c r="AS3" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="AT3" s="126">
+      <c r="AT3" s="104">
         <v>28</v>
       </c>
       <c r="AU3" s="52"/>
       <c r="AV3" s="53"/>
       <c r="AX3" s="44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AY3" s="52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AZ3" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BA3" s="42">
         <v>29</v>
@@ -5118,13 +5191,13 @@
       <c r="BB3" s="52"/>
       <c r="BC3" s="53"/>
       <c r="BE3" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BF3" s="52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BG3" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BH3" s="42">
         <v>29</v>
@@ -5133,7 +5206,7 @@
       <c r="BJ3" s="53"/>
     </row>
     <row r="4" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="24" t="s">
         <v>446</v>
       </c>
@@ -5147,9 +5220,9 @@
         <v>254</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>446</v>
       </c>
@@ -5163,9 +5236,9 @@
         <v>224</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="O4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="O4" s="107"/>
       <c r="P4" s="24" t="s">
         <v>446</v>
       </c>
@@ -5179,11 +5252,11 @@
         <v>179</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="V4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="V4" s="107"/>
       <c r="W4" s="24" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="X4" s="24" t="s">
         <v>261</v>
@@ -5213,12 +5286,12 @@
         <v>113</v>
       </c>
       <c r="AR4" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS4" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="AT4" s="126"/>
+      <c r="AT4" s="104"/>
       <c r="AU4" s="24"/>
       <c r="AV4" s="26"/>
       <c r="AX4" s="23"/>
@@ -5235,7 +5308,7 @@
       <c r="BJ4" s="26"/>
     </row>
     <row r="5" spans="1:62" s="6" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="24" t="s">
         <v>189</v>
       </c>
@@ -5245,11 +5318,11 @@
       <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="H5" s="121"/>
+      <c r="F5" s="110"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="24" t="s">
         <v>189</v>
       </c>
@@ -5259,11 +5332,11 @@
       <c r="K5" s="25">
         <v>32</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="O5" s="121"/>
+      <c r="M5" s="110"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="24" t="s">
         <v>189</v>
       </c>
@@ -5273,13 +5346,13 @@
       <c r="R5" s="25">
         <v>32</v>
       </c>
-      <c r="S5" s="107" t="s">
+      <c r="S5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="V5" s="121"/>
+      <c r="T5" s="110"/>
+      <c r="V5" s="107"/>
       <c r="W5" s="47" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="X5" s="24" t="s">
         <v>262</v>
@@ -5291,7 +5364,7 @@
         <v>253</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="AC5" s="23"/>
       <c r="AD5" s="24"/>
@@ -5309,12 +5382,12 @@
         <v>114</v>
       </c>
       <c r="AR5" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AT5" s="127"/>
+      <c r="AT5" s="105"/>
       <c r="AU5" s="24"/>
       <c r="AV5" s="26"/>
       <c r="AX5" s="23"/>
@@ -5331,7 +5404,7 @@
       <c r="BJ5" s="26"/>
     </row>
     <row r="6" spans="1:62" s="6" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="47" t="s">
         <v>444</v>
       </c>
@@ -5345,11 +5418,11 @@
         <v>190</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="H6" s="121"/>
+        <v>457</v>
+      </c>
+      <c r="H6" s="107"/>
       <c r="I6" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>436</v>
@@ -5361,11 +5434,11 @@
         <v>190</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="O6" s="121"/>
+        <v>451</v>
+      </c>
+      <c r="O6" s="107"/>
       <c r="P6" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>437</v>
@@ -5377,9 +5450,9 @@
         <v>190</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="V6" s="121"/>
+        <v>455</v>
+      </c>
+      <c r="V6" s="107"/>
       <c r="W6" s="24" t="s">
         <v>189</v>
       </c>
@@ -5389,10 +5462,10 @@
       <c r="Y6" s="25">
         <v>32</v>
       </c>
-      <c r="Z6" s="107" t="s">
+      <c r="Z6" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="AA6" s="108"/>
+      <c r="AA6" s="110"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="24"/>
@@ -5406,13 +5479,13 @@
       <c r="AN6" s="24"/>
       <c r="AO6" s="26"/>
       <c r="AQ6" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AR6" s="24" t="s">
         <v>449</v>
       </c>
       <c r="AS6" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AT6" s="25">
         <v>29</v>
@@ -5433,15 +5506,15 @@
       <c r="BJ6" s="26"/>
     </row>
     <row r="7" spans="1:62" s="6" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="24" t="s">
         <v>312</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>309</v>
@@ -5449,15 +5522,15 @@
       <c r="F7" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H7" s="122"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="28" t="s">
         <v>312</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>310</v>
@@ -5465,15 +5538,15 @@
       <c r="M7" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="O7" s="122"/>
+      <c r="O7" s="108"/>
       <c r="P7" s="28" t="s">
         <v>312</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="S7" s="57" t="s">
         <v>311</v>
@@ -5481,7 +5554,7 @@
       <c r="T7" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="V7" s="121"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="24" t="s">
         <v>294</v>
       </c>
@@ -5511,10 +5584,10 @@
         <v>115</v>
       </c>
       <c r="AR7" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS7" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AT7" s="25">
         <v>28</v>
@@ -5535,9 +5608,9 @@
       <c r="BJ7" s="26"/>
     </row>
     <row r="8" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>183</v>
@@ -5551,11 +5624,11 @@
       <c r="F8" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="106" t="s">
         <v>223</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>225</v>
@@ -5569,11 +5642,11 @@
       <c r="M8" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="O8" s="120" t="s">
+      <c r="O8" s="106" t="s">
         <v>178</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q8" s="54" t="s">
         <v>195</v>
@@ -5587,7 +5660,7 @@
       <c r="T8" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="V8" s="121"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="24" t="s">
         <v>295</v>
       </c>
@@ -5631,11 +5704,11 @@
       <c r="BJ8" s="26"/>
     </row>
     <row r="9" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="106" t="s">
         <v>249</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>245</v>
@@ -5649,7 +5722,7 @@
       <c r="F9" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="24" t="s">
         <v>201</v>
       </c>
@@ -5659,13 +5732,13 @@
       <c r="K9" s="25">
         <v>29</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="M9" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="O9" s="121"/>
+      <c r="M9" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="O9" s="107"/>
       <c r="P9" s="24" t="s">
         <v>197</v>
       </c>
@@ -5675,13 +5748,13 @@
       <c r="R9" s="25">
         <v>29</v>
       </c>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="V9" s="121"/>
+      <c r="T9" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="V9" s="107"/>
       <c r="W9" s="24" t="s">
         <v>296</v>
       </c>
@@ -5725,7 +5798,7 @@
       <c r="BJ9" s="26"/>
     </row>
     <row r="10" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="24" t="s">
         <v>445</v>
       </c>
@@ -5739,9 +5812,9 @@
         <v>252</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="H10" s="121"/>
+        <v>532</v>
+      </c>
+      <c r="H10" s="107"/>
       <c r="I10" s="24" t="s">
         <v>227</v>
       </c>
@@ -5751,9 +5824,9 @@
       <c r="K10" s="25">
         <v>28</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="105"/>
-      <c r="O10" s="121"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="126"/>
+      <c r="O10" s="107"/>
       <c r="P10" s="24" t="s">
         <v>199</v>
       </c>
@@ -5763,9 +5836,9 @@
       <c r="R10" s="25">
         <v>28</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="105"/>
-      <c r="V10" s="121"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="126"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="24" t="s">
         <v>297</v>
       </c>
@@ -5809,7 +5882,7 @@
       <c r="BJ10" s="26"/>
     </row>
     <row r="11" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="24" t="s">
         <v>446</v>
       </c>
@@ -5823,9 +5896,9 @@
         <v>253</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="H11" s="121"/>
+        <v>532</v>
+      </c>
+      <c r="H11" s="107"/>
       <c r="I11" s="24" t="s">
         <v>229</v>
       </c>
@@ -5835,9 +5908,9 @@
       <c r="K11" s="25">
         <v>28</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="105"/>
-      <c r="O11" s="121"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="126"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="24" t="s">
         <v>201</v>
       </c>
@@ -5847,9 +5920,9 @@
       <c r="R11" s="25">
         <v>28</v>
       </c>
-      <c r="S11" s="102"/>
-      <c r="T11" s="105"/>
-      <c r="V11" s="121"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="126"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="24" t="s">
         <v>298</v>
       </c>
@@ -5893,7 +5966,7 @@
       <c r="BJ11" s="26"/>
     </row>
     <row r="12" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="24" t="s">
         <v>447</v>
       </c>
@@ -5909,7 +5982,7 @@
       <c r="F12" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="107"/>
       <c r="I12" s="24" t="s">
         <v>203</v>
       </c>
@@ -5919,9 +5992,9 @@
       <c r="K12" s="25">
         <v>27</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="105"/>
-      <c r="O12" s="121"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="126"/>
+      <c r="O12" s="107"/>
       <c r="P12" s="24" t="s">
         <v>203</v>
       </c>
@@ -5931,9 +6004,9 @@
       <c r="R12" s="25">
         <v>27</v>
       </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="105"/>
-      <c r="V12" s="121"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="126"/>
+      <c r="V12" s="107"/>
       <c r="W12" s="24" t="s">
         <v>269</v>
       </c>
@@ -5977,7 +6050,7 @@
       <c r="BJ12" s="26"/>
     </row>
     <row r="13" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="28" t="s">
         <v>189</v>
       </c>
@@ -5987,11 +6060,11 @@
       <c r="D13" s="29">
         <v>32</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="H13" s="121"/>
+      <c r="F13" s="100"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="24" t="s">
         <v>205</v>
       </c>
@@ -6001,9 +6074,9 @@
       <c r="K13" s="25">
         <v>23</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="105"/>
-      <c r="O13" s="121"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="126"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="24" t="s">
         <v>205</v>
       </c>
@@ -6013,9 +6086,9 @@
       <c r="R13" s="25">
         <v>23</v>
       </c>
-      <c r="S13" s="102"/>
-      <c r="T13" s="105"/>
-      <c r="V13" s="121"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="126"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="24" t="s">
         <v>271</v>
       </c>
@@ -6059,11 +6132,11 @@
       <c r="BJ13" s="26"/>
     </row>
     <row r="14" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="106" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>255</v>
@@ -6077,7 +6150,7 @@
       <c r="F14" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="H14" s="121"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="24" t="s">
         <v>210</v>
       </c>
@@ -6087,9 +6160,9 @@
       <c r="K14" s="25">
         <v>20</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="105"/>
-      <c r="O14" s="121"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="126"/>
+      <c r="O14" s="107"/>
       <c r="P14" s="24" t="s">
         <v>210</v>
       </c>
@@ -6099,9 +6172,9 @@
       <c r="R14" s="25">
         <v>20</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="105"/>
-      <c r="V14" s="121"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="126"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="24" t="s">
         <v>273</v>
       </c>
@@ -6145,7 +6218,7 @@
       <c r="BJ14" s="26"/>
     </row>
     <row r="15" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="24" t="s">
         <v>445</v>
       </c>
@@ -6159,9 +6232,9 @@
         <v>252</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="121"/>
+        <v>533</v>
+      </c>
+      <c r="H15" s="107"/>
       <c r="I15" s="24" t="s">
         <v>211</v>
       </c>
@@ -6171,9 +6244,9 @@
       <c r="K15" s="25">
         <v>29</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="105"/>
-      <c r="O15" s="121"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="126"/>
+      <c r="O15" s="107"/>
       <c r="P15" s="24" t="s">
         <v>211</v>
       </c>
@@ -6183,9 +6256,9 @@
       <c r="R15" s="25">
         <v>29</v>
       </c>
-      <c r="S15" s="102"/>
-      <c r="T15" s="105"/>
-      <c r="V15" s="121"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="126"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="24" t="s">
         <v>275</v>
       </c>
@@ -6229,7 +6302,7 @@
       <c r="BJ15" s="26"/>
     </row>
     <row r="16" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="24" t="s">
         <v>446</v>
       </c>
@@ -6243,9 +6316,9 @@
         <v>253</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="121"/>
+        <v>533</v>
+      </c>
+      <c r="H16" s="107"/>
       <c r="I16" s="24" t="s">
         <v>212</v>
       </c>
@@ -6255,9 +6328,9 @@
       <c r="K16" s="25">
         <v>29</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="106"/>
-      <c r="O16" s="121"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="24" t="s">
         <v>212</v>
       </c>
@@ -6267,9 +6340,9 @@
       <c r="R16" s="25">
         <v>29</v>
       </c>
-      <c r="S16" s="103"/>
-      <c r="T16" s="106"/>
-      <c r="V16" s="122"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="127"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="28" t="s">
         <v>277</v>
       </c>
@@ -6313,7 +6386,7 @@
       <c r="BJ16" s="26"/>
     </row>
     <row r="17" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="26" t="s">
         <v>447</v>
       </c>
@@ -6329,7 +6402,7 @@
       <c r="F17" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="H17" s="122"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="28" t="s">
         <v>189</v>
       </c>
@@ -6339,11 +6412,11 @@
       <c r="K17" s="29">
         <v>32</v>
       </c>
-      <c r="L17" s="109" t="s">
+      <c r="L17" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="O17" s="122"/>
+      <c r="M17" s="100"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="28" t="s">
         <v>189</v>
       </c>
@@ -6353,15 +6426,15 @@
       <c r="R17" s="29">
         <v>32</v>
       </c>
-      <c r="S17" s="109" t="s">
+      <c r="S17" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="T17" s="110"/>
-      <c r="V17" s="120" t="s">
+      <c r="T17" s="100"/>
+      <c r="V17" s="106" t="s">
         <v>253</v>
       </c>
       <c r="W17" s="54" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="X17" s="54" t="s">
         <v>279</v>
@@ -6407,7 +6480,7 @@
       <c r="BJ17" s="26"/>
     </row>
     <row r="18" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="28" t="s">
         <v>189</v>
       </c>
@@ -6417,15 +6490,15 @@
       <c r="D18" s="29">
         <v>32</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="H18" s="123" t="s">
+      <c r="F18" s="100"/>
+      <c r="H18" s="117" t="s">
         <v>224</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J18" s="54" t="s">
         <v>213</v>
@@ -6439,11 +6512,11 @@
       <c r="M18" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="O18" s="120" t="s">
+      <c r="O18" s="106" t="s">
         <v>179</v>
       </c>
       <c r="P18" s="54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="54" t="s">
         <v>213</v>
@@ -6457,9 +6530,9 @@
       <c r="T18" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="V18" s="121"/>
+      <c r="V18" s="107"/>
       <c r="W18" s="24" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="X18" s="24" t="s">
         <v>280</v>
@@ -6505,7 +6578,7 @@
       <c r="BJ18" s="26"/>
     </row>
     <row r="19" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="106" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -6518,12 +6591,12 @@
         <v>29</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="H19" s="124"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="24" t="s">
         <v>201</v>
       </c>
@@ -6533,13 +6606,13 @@
       <c r="K19" s="25">
         <v>29</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="M19" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="O19" s="121"/>
+      <c r="M19" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="O19" s="107"/>
       <c r="P19" s="24" t="s">
         <v>197</v>
       </c>
@@ -6549,15 +6622,15 @@
       <c r="R19" s="25">
         <v>29</v>
       </c>
-      <c r="S19" s="101" t="s">
+      <c r="S19" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="V19" s="121"/>
+      <c r="T19" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="V19" s="107"/>
       <c r="W19" s="24" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="X19" s="24" t="s">
         <v>281</v>
@@ -6569,7 +6642,7 @@
         <v>252</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="24"/>
@@ -6603,7 +6676,7 @@
       <c r="BJ19" s="26"/>
     </row>
     <row r="20" spans="1:62" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="24" t="s">
         <v>448</v>
       </c>
@@ -6617,9 +6690,9 @@
         <v>248</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="H20" s="124"/>
+        <v>456</v>
+      </c>
+      <c r="H20" s="118"/>
       <c r="I20" s="24" t="s">
         <v>227</v>
       </c>
@@ -6629,9 +6702,9 @@
       <c r="K20" s="25">
         <v>28</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="105"/>
-      <c r="O20" s="121"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="126"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="24" t="s">
         <v>199</v>
       </c>
@@ -6641,9 +6714,9 @@
       <c r="R20" s="25">
         <v>28</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="105"/>
-      <c r="V20" s="121"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="126"/>
+      <c r="V20" s="107"/>
       <c r="W20" s="24" t="s">
         <v>189</v>
       </c>
@@ -6653,10 +6726,10 @@
       <c r="Y20" s="25">
         <v>32</v>
       </c>
-      <c r="Z20" s="107" t="s">
+      <c r="Z20" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="AA20" s="108"/>
+      <c r="AA20" s="110"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="24"/>
@@ -6689,7 +6762,7 @@
       <c r="BJ20" s="26"/>
     </row>
     <row r="21" spans="1:62" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="28" t="s">
         <v>189</v>
       </c>
@@ -6699,11 +6772,11 @@
       <c r="D21" s="29">
         <v>32</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="H21" s="124"/>
+      <c r="F21" s="100"/>
+      <c r="H21" s="118"/>
       <c r="I21" s="24" t="s">
         <v>229</v>
       </c>
@@ -6713,9 +6786,9 @@
       <c r="K21" s="25">
         <v>28</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="105"/>
-      <c r="O21" s="121"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="126"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="24" t="s">
         <v>201</v>
       </c>
@@ -6725,9 +6798,9 @@
       <c r="R21" s="25">
         <v>28</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="105"/>
-      <c r="V21" s="121"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="126"/>
+      <c r="V21" s="107"/>
       <c r="W21" s="24" t="s">
         <v>294</v>
       </c>
@@ -6779,7 +6852,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="52"/>
       <c r="F22" s="53"/>
-      <c r="H22" s="124"/>
+      <c r="H22" s="118"/>
       <c r="I22" s="24" t="s">
         <v>203</v>
       </c>
@@ -6789,9 +6862,9 @@
       <c r="K22" s="25">
         <v>27</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="105"/>
-      <c r="O22" s="121"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="126"/>
+      <c r="O22" s="107"/>
       <c r="P22" s="24" t="s">
         <v>203</v>
       </c>
@@ -6801,9 +6874,9 @@
       <c r="R22" s="25">
         <v>27</v>
       </c>
-      <c r="S22" s="102"/>
-      <c r="T22" s="105"/>
-      <c r="V22" s="121"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="126"/>
+      <c r="V22" s="107"/>
       <c r="W22" s="24" t="s">
         <v>295</v>
       </c>
@@ -6853,7 +6926,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="24"/>
       <c r="F23" s="26"/>
-      <c r="H23" s="124"/>
+      <c r="H23" s="118"/>
       <c r="I23" s="24" t="s">
         <v>205</v>
       </c>
@@ -6863,9 +6936,9 @@
       <c r="K23" s="25">
         <v>23</v>
       </c>
-      <c r="L23" s="102"/>
-      <c r="M23" s="105"/>
-      <c r="O23" s="121"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="126"/>
+      <c r="O23" s="107"/>
       <c r="P23" s="24" t="s">
         <v>205</v>
       </c>
@@ -6875,9 +6948,9 @@
       <c r="R23" s="25">
         <v>23</v>
       </c>
-      <c r="S23" s="102"/>
-      <c r="T23" s="105"/>
-      <c r="V23" s="121"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="126"/>
+      <c r="V23" s="107"/>
       <c r="W23" s="24" t="s">
         <v>296</v>
       </c>
@@ -6927,7 +7000,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="24"/>
       <c r="F24" s="26"/>
-      <c r="H24" s="124"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="24" t="s">
         <v>210</v>
       </c>
@@ -6937,9 +7010,9 @@
       <c r="K24" s="25">
         <v>20</v>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="105"/>
-      <c r="O24" s="121"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="126"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="24" t="s">
         <v>210</v>
       </c>
@@ -6949,9 +7022,9 @@
       <c r="R24" s="25">
         <v>20</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="105"/>
-      <c r="V24" s="121"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="126"/>
+      <c r="V24" s="107"/>
       <c r="W24" s="24" t="s">
         <v>297</v>
       </c>
@@ -7001,7 +7074,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26"/>
-      <c r="H25" s="124"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="24" t="s">
         <v>211</v>
       </c>
@@ -7011,9 +7084,9 @@
       <c r="K25" s="25">
         <v>29</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="105"/>
-      <c r="O25" s="121"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="126"/>
+      <c r="O25" s="107"/>
       <c r="P25" s="24" t="s">
         <v>211</v>
       </c>
@@ -7023,9 +7096,9 @@
       <c r="R25" s="25">
         <v>29</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="T25" s="105"/>
-      <c r="V25" s="121"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="126"/>
+      <c r="V25" s="107"/>
       <c r="W25" s="24" t="s">
         <v>298</v>
       </c>
@@ -7075,7 +7148,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="24"/>
       <c r="F26" s="26"/>
-      <c r="H26" s="124"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="24" t="s">
         <v>212</v>
       </c>
@@ -7085,9 +7158,9 @@
       <c r="K26" s="25">
         <v>29</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="121"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="127"/>
+      <c r="O26" s="107"/>
       <c r="P26" s="24" t="s">
         <v>212</v>
       </c>
@@ -7097,9 +7170,9 @@
       <c r="R26" s="25">
         <v>29</v>
       </c>
-      <c r="S26" s="103"/>
-      <c r="T26" s="106"/>
-      <c r="V26" s="121"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="127"/>
+      <c r="V26" s="107"/>
       <c r="W26" s="24" t="s">
         <v>269</v>
       </c>
@@ -7149,7 +7222,7 @@
       <c r="D27" s="25"/>
       <c r="E27" s="24"/>
       <c r="F27" s="26"/>
-      <c r="H27" s="125"/>
+      <c r="H27" s="119"/>
       <c r="I27" s="28" t="s">
         <v>189</v>
       </c>
@@ -7159,11 +7232,11 @@
       <c r="K27" s="29">
         <v>32</v>
       </c>
-      <c r="L27" s="109" t="s">
+      <c r="L27" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="M27" s="110"/>
-      <c r="O27" s="122"/>
+      <c r="M27" s="100"/>
+      <c r="O27" s="108"/>
       <c r="P27" s="28" t="s">
         <v>189</v>
       </c>
@@ -7173,11 +7246,11 @@
       <c r="R27" s="29">
         <v>32</v>
       </c>
-      <c r="S27" s="109" t="s">
+      <c r="S27" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="T27" s="110"/>
-      <c r="V27" s="121"/>
+      <c r="T27" s="100"/>
+      <c r="V27" s="107"/>
       <c r="W27" s="24" t="s">
         <v>271</v>
       </c>
@@ -7239,7 +7312,7 @@
       <c r="R28" s="42"/>
       <c r="S28" s="52"/>
       <c r="T28" s="53"/>
-      <c r="V28" s="121"/>
+      <c r="V28" s="107"/>
       <c r="W28" s="24" t="s">
         <v>273</v>
       </c>
@@ -7301,7 +7374,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="24"/>
       <c r="T29" s="26"/>
-      <c r="V29" s="121"/>
+      <c r="V29" s="107"/>
       <c r="W29" s="24" t="s">
         <v>275</v>
       </c>
@@ -7363,7 +7436,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="24"/>
       <c r="T30" s="26"/>
-      <c r="V30" s="122"/>
+      <c r="V30" s="108"/>
       <c r="W30" s="28" t="s">
         <v>277</v>
       </c>
@@ -7437,10 +7510,10 @@
       <c r="Y31" s="61">
         <v>26</v>
       </c>
-      <c r="Z31" s="99" t="s">
+      <c r="Z31" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AA31" s="100"/>
+      <c r="AA31" s="121"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
@@ -7503,10 +7576,10 @@
       <c r="Y32" s="61">
         <v>26</v>
       </c>
-      <c r="Z32" s="99" t="s">
+      <c r="Z32" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AA32" s="100"/>
+      <c r="AA32" s="121"/>
       <c r="AC32" s="23"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
@@ -11330,6 +11403,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="L9:L16"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S9:S16"/>
+    <mergeCell ref="T9:T16"/>
+    <mergeCell ref="M9:M16"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z7:AA16"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="V17:V30"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BE1:BJ1"/>
@@ -11346,230 +11451,198 @@
     <mergeCell ref="H8:H17"/>
     <mergeCell ref="O8:O17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z7:AA16"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="V17:V30"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="L9:L16"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S9:S16"/>
-    <mergeCell ref="T9:T16"/>
-    <mergeCell ref="M9:M16"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Z6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 A9 C13:D20 A14 A19 C21:E21 A22:F76">
-    <cfRule type="expression" dxfId="204" priority="41">
+    <cfRule type="expression" dxfId="214" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B21">
-    <cfRule type="expression" dxfId="202" priority="13">
+    <cfRule type="expression" dxfId="212" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="14">
+    <cfRule type="expression" dxfId="211" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D11">
-    <cfRule type="expression" dxfId="200" priority="40">
+    <cfRule type="expression" dxfId="210" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="39">
+    <cfRule type="expression" dxfId="209" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="198" priority="31">
+    <cfRule type="expression" dxfId="208" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="32">
+    <cfRule type="expression" dxfId="207" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="196" priority="27">
+    <cfRule type="expression" dxfId="206" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="28">
+    <cfRule type="expression" dxfId="205" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="194" priority="30">
+    <cfRule type="expression" dxfId="204" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F4 E14:F16 E19:F20">
-    <cfRule type="expression" dxfId="192" priority="35">
+    <cfRule type="expression" dxfId="202" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="36">
+    <cfRule type="expression" dxfId="201" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F12">
-    <cfRule type="expression" dxfId="190" priority="33">
+    <cfRule type="expression" dxfId="200" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="34">
+    <cfRule type="expression" dxfId="199" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="188" priority="25">
+    <cfRule type="expression" dxfId="198" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="26">
+    <cfRule type="expression" dxfId="197" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:M3 I4:M4 I5:L5">
-    <cfRule type="expression" dxfId="186" priority="68">
+    <cfRule type="expression" dxfId="196" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="67">
+    <cfRule type="expression" dxfId="195" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:M8">
-    <cfRule type="expression" dxfId="184" priority="8">
+    <cfRule type="expression" dxfId="194" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K27">
-    <cfRule type="expression" dxfId="182" priority="49">
+    <cfRule type="expression" dxfId="192" priority="49">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="50">
+    <cfRule type="expression" dxfId="191" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:M7">
-    <cfRule type="expression" dxfId="180" priority="3">
+    <cfRule type="expression" dxfId="190" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="4">
+    <cfRule type="expression" dxfId="189" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="178" priority="5">
+    <cfRule type="expression" dxfId="188" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Q3:R6 AC3:AG3 AX3:BC77 BE3:BJ77 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 P17:S17 V17 L17:L18 AA17:AA19 H18 O18:T18 L19:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="176" priority="69">
+    <cfRule type="expression" dxfId="186" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 AC3:AG3 Q3:R6 AX3:BC77 BE3:BJ77 AC4:AH77 W6:Z6 AQ6:AV77 X7:Z7 P8:T9 X8:Y11 L9:M9 P10:R16 W12:Y16 P17:S17 V17 L17:L18 AA17:AA19 H18 O18:T18 L19:M19 P19:T19 P20:R26 L27 P27:S27 H28:M77 O28:T77 V31:Z32 V33:AA77">
-    <cfRule type="expression" dxfId="175" priority="70">
+    <cfRule type="expression" dxfId="185" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="174" priority="51">
+    <cfRule type="expression" dxfId="184" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="52">
+    <cfRule type="expression" dxfId="183" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:T4 O5:S5">
-    <cfRule type="expression" dxfId="172" priority="65">
+    <cfRule type="expression" dxfId="182" priority="65">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="66">
+    <cfRule type="expression" dxfId="181" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:T7">
-    <cfRule type="expression" dxfId="170" priority="2">
+    <cfRule type="expression" dxfId="180" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="179" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:AA3">
-    <cfRule type="expression" dxfId="168" priority="12">
+    <cfRule type="expression" dxfId="178" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="11">
+    <cfRule type="expression" dxfId="177" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W11">
-    <cfRule type="expression" dxfId="166" priority="45">
+    <cfRule type="expression" dxfId="176" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="46">
+    <cfRule type="expression" dxfId="175" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:Z21 W22:Y30">
-    <cfRule type="expression" dxfId="164" priority="47">
+    <cfRule type="expression" dxfId="174" priority="47">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="48">
+    <cfRule type="expression" dxfId="173" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AA5">
-    <cfRule type="expression" dxfId="162" priority="10">
+    <cfRule type="expression" dxfId="172" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="9">
+    <cfRule type="expression" dxfId="171" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AN3 AJ4:AO77">
-    <cfRule type="expression" dxfId="160" priority="43">
+    <cfRule type="expression" dxfId="170" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="44">
+    <cfRule type="expression" dxfId="169" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV3 AQ4:AS5 AU4:AV5">
-    <cfRule type="expression" dxfId="158" priority="57">
+    <cfRule type="expression" dxfId="168" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="58">
+    <cfRule type="expression" dxfId="167" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11582,8 +11655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B1D877-AB6E-4B8B-93B1-7FB6A5739D3A}">
   <dimension ref="A1:BJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -11654,86 +11727,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="71" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="70"/>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="70"/>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="103"/>
       <c r="U1" s="70"/>
-      <c r="V1" s="117" t="s">
+      <c r="V1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="103"/>
       <c r="AB1" s="70"/>
-      <c r="AC1" s="117" t="s">
+      <c r="AC1" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="119"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
       <c r="AI1" s="70"/>
-      <c r="AJ1" s="117" t="s">
+      <c r="AJ1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="119"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="103"/>
       <c r="AP1" s="70"/>
-      <c r="AQ1" s="117" t="s">
+      <c r="AQ1" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="103"/>
       <c r="AW1" s="70"/>
-      <c r="AX1" s="117" t="s">
+      <c r="AX1" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="118"/>
-      <c r="BB1" s="118"/>
-      <c r="BC1" s="119"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="103"/>
       <c r="BD1" s="70"/>
-      <c r="BE1" s="117" t="s">
+      <c r="BE1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="118"/>
-      <c r="BG1" s="118"/>
-      <c r="BH1" s="118"/>
-      <c r="BI1" s="118"/>
-      <c r="BJ1" s="119"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="103"/>
     </row>
     <row r="2" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
@@ -11908,64 +11981,64 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="106" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="129"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="54" t="s">
         <v>249</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="H3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="106" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="K3" s="129"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="54" t="s">
         <v>223</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="O3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="O3" s="106" t="s">
         <v>177</v>
       </c>
       <c r="P3" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="Q3" s="128" t="s">
+      <c r="Q3" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="R3" s="129"/>
+      <c r="R3" s="131"/>
       <c r="S3" s="54" t="s">
         <v>178</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="V3" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="V3" s="106" t="s">
         <v>252</v>
       </c>
       <c r="W3" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="X3" s="128" t="s">
+        <v>532</v>
+      </c>
+      <c r="X3" s="130" t="s">
         <v>352</v>
       </c>
-      <c r="Y3" s="129"/>
+      <c r="Y3" s="131"/>
       <c r="Z3" s="54" t="s">
         <v>249</v>
       </c>
@@ -11979,15 +12052,15 @@
         <v>271</v>
       </c>
       <c r="AE3" s="60" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF3" s="60" t="s">
-        <v>512</v>
-      </c>
-      <c r="AG3" s="99" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG3" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AH3" s="100"/>
+      <c r="AH3" s="121"/>
       <c r="AJ3" s="59" t="s">
         <v>180</v>
       </c>
@@ -11995,15 +12068,15 @@
         <v>271</v>
       </c>
       <c r="AL3" s="73" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AM3" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="AN3" s="99" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN3" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="AO3" s="100"/>
+      <c r="AO3" s="121"/>
       <c r="AQ3" s="44" t="s">
         <v>112</v>
       </c>
@@ -12011,93 +12084,93 @@
         <v>449</v>
       </c>
       <c r="AS3" s="86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AT3" s="87" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AU3" s="52"/>
       <c r="AV3" s="53"/>
       <c r="AX3" s="44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AY3" s="52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AZ3" s="52" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="BA3" s="42" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="BB3" s="52"/>
       <c r="BC3" s="53"/>
       <c r="BE3" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BF3" s="52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BG3" s="52" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="BH3" s="42" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="BI3" s="52"/>
       <c r="BJ3" s="53"/>
     </row>
     <row r="4" spans="1:62" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="24" t="s">
         <v>254</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="132"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="24" t="s">
         <v>224</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="O4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="O4" s="107"/>
       <c r="P4" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="Q4" s="131" t="s">
+      <c r="Q4" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="R4" s="132"/>
+      <c r="R4" s="134"/>
       <c r="S4" s="24" t="s">
         <v>179</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="V4" s="121"/>
+        <v>456</v>
+      </c>
+      <c r="V4" s="107"/>
       <c r="W4" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="X4" s="107" t="s">
+        <v>533</v>
+      </c>
+      <c r="X4" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" s="133"/>
+      <c r="Y4" s="132"/>
       <c r="Z4" s="24" t="s">
         <v>254</v>
       </c>
@@ -12120,13 +12193,13 @@
         <v>113</v>
       </c>
       <c r="AR4" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS4" s="85" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AT4" s="74" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AU4" s="24"/>
       <c r="AV4" s="26"/>
@@ -12144,61 +12217,61 @@
       <c r="BJ4" s="26"/>
     </row>
     <row r="5" spans="1:62" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="24" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="E5" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="H5" s="121"/>
+      <c r="F5" s="110"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="L5" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="L5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="O5" s="121"/>
+      <c r="M5" s="110"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="24" t="s">
         <v>189</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="S5" s="107" t="s">
+        <v>499</v>
+      </c>
+      <c r="S5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="V5" s="121"/>
+      <c r="T5" s="110"/>
+      <c r="V5" s="107"/>
       <c r="W5" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="X5" s="131" t="s">
+        <v>534</v>
+      </c>
+      <c r="X5" s="133" t="s">
         <v>351</v>
       </c>
-      <c r="Y5" s="132"/>
+      <c r="Y5" s="134"/>
       <c r="Z5" s="24" t="s">
         <v>253</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC5" s="23"/>
       <c r="AD5" s="24"/>
@@ -12216,13 +12289,13 @@
         <v>114</v>
       </c>
       <c r="AR5" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS5" s="85" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AT5" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AU5" s="24"/>
       <c r="AV5" s="26"/>
@@ -12240,7 +12313,7 @@
       <c r="BJ5" s="26"/>
     </row>
     <row r="6" spans="1:62" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="47" t="s">
         <v>444</v>
       </c>
@@ -12254,11 +12327,11 @@
         <v>190</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="H6" s="121"/>
+        <v>457</v>
+      </c>
+      <c r="H6" s="107"/>
       <c r="I6" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>439</v>
@@ -12270,11 +12343,11 @@
         <v>190</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="O6" s="121"/>
+        <v>451</v>
+      </c>
+      <c r="O6" s="107"/>
       <c r="P6" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>440</v>
@@ -12286,22 +12359,22 @@
         <v>190</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="V6" s="121"/>
+        <v>455</v>
+      </c>
+      <c r="V6" s="107"/>
       <c r="W6" s="75" t="s">
         <v>189</v>
       </c>
       <c r="X6" s="75" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Y6" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z6" s="107" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z6" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="AA6" s="108"/>
+      <c r="AA6" s="110"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="24"/>
@@ -12315,16 +12388,16 @@
       <c r="AN6" s="24"/>
       <c r="AO6" s="26"/>
       <c r="AQ6" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AR6" s="24" t="s">
         <v>449</v>
       </c>
       <c r="AS6" s="77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AT6" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AU6" s="24"/>
       <c r="AV6" s="26"/>
@@ -12342,49 +12415,49 @@
       <c r="BJ6" s="26"/>
     </row>
     <row r="7" spans="1:62" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="107" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" s="133"/>
+      <c r="C7" s="109" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="132"/>
       <c r="E7" s="47" t="s">
         <v>309</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H7" s="122"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="J7" s="107" t="s">
-        <v>527</v>
-      </c>
-      <c r="K7" s="133"/>
+      <c r="J7" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" s="132"/>
       <c r="L7" s="57" t="s">
         <v>310</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="O7" s="122"/>
+      <c r="O7" s="108"/>
       <c r="P7" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="Q7" s="109" t="s">
-        <v>528</v>
-      </c>
-      <c r="R7" s="130"/>
+      <c r="Q7" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="R7" s="135"/>
       <c r="S7" s="57" t="s">
         <v>311</v>
       </c>
       <c r="T7" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="V7" s="134"/>
+      <c r="V7" s="128"/>
       <c r="W7" s="24" t="s">
         <v>294</v>
       </c>
@@ -12415,13 +12488,13 @@
         <v>115</v>
       </c>
       <c r="AR7" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS7" s="85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AT7" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AU7" s="24"/>
       <c r="AV7" s="26"/>
@@ -12439,53 +12512,53 @@
       <c r="BJ7" s="26"/>
     </row>
     <row r="8" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="131" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="28" t="s">
         <v>247</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="106" t="s">
         <v>223</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="J8" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="K8" s="129"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="54" t="s">
         <v>191</v>
       </c>
       <c r="M8" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="O8" s="120" t="s">
+      <c r="O8" s="106" t="s">
         <v>178</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q8" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q8" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="R8" s="129"/>
+      <c r="R8" s="131"/>
       <c r="S8" s="54" t="s">
         <v>177</v>
       </c>
       <c r="T8" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="V8" s="134"/>
+      <c r="V8" s="128"/>
       <c r="W8" s="24" t="s">
         <v>295</v>
       </c>
@@ -12530,23 +12603,23 @@
       <c r="BJ8" s="26"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="106" t="s">
         <v>249</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="129"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="54" t="s">
         <v>248</v>
       </c>
       <c r="F9" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="24" t="s">
         <v>201</v>
       </c>
@@ -12556,13 +12629,13 @@
       <c r="K9" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="M9" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="O9" s="121"/>
+      <c r="M9" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="O9" s="107"/>
       <c r="P9" s="24" t="s">
         <v>197</v>
       </c>
@@ -12572,13 +12645,13 @@
       <c r="R9" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="V9" s="134"/>
+      <c r="T9" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="V9" s="128"/>
       <c r="W9" s="24" t="s">
         <v>296</v>
       </c>
@@ -12623,21 +12696,21 @@
       <c r="BJ9" s="26"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="24" t="s">
         <v>252</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="H10" s="121"/>
+        <v>532</v>
+      </c>
+      <c r="H10" s="107"/>
       <c r="I10" s="24" t="s">
         <v>227</v>
       </c>
@@ -12647,9 +12720,9 @@
       <c r="K10" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="105"/>
-      <c r="O10" s="121"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="126"/>
+      <c r="O10" s="107"/>
       <c r="P10" s="24" t="s">
         <v>199</v>
       </c>
@@ -12659,9 +12732,9 @@
       <c r="R10" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="105"/>
-      <c r="V10" s="134"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="126"/>
+      <c r="V10" s="128"/>
       <c r="W10" s="24" t="s">
         <v>297</v>
       </c>
@@ -12706,21 +12779,21 @@
       <c r="BJ10" s="26"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="24" t="s">
         <v>253</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="H11" s="121"/>
+        <v>532</v>
+      </c>
+      <c r="H11" s="107"/>
       <c r="I11" s="24" t="s">
         <v>229</v>
       </c>
@@ -12730,9 +12803,9 @@
       <c r="K11" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="105"/>
-      <c r="O11" s="121"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="126"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="24" t="s">
         <v>201</v>
       </c>
@@ -12742,9 +12815,9 @@
       <c r="R11" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="S11" s="102"/>
-      <c r="T11" s="105"/>
-      <c r="V11" s="134"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="126"/>
+      <c r="V11" s="128"/>
       <c r="W11" s="24" t="s">
         <v>298</v>
       </c>
@@ -12789,21 +12862,21 @@
       <c r="BJ11" s="26"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="24" t="s">
         <v>254</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="107"/>
       <c r="I12" s="24" t="s">
         <v>203</v>
       </c>
@@ -12813,9 +12886,9 @@
       <c r="K12" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="105"/>
-      <c r="O12" s="121"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="126"/>
+      <c r="O12" s="107"/>
       <c r="P12" s="24" t="s">
         <v>203</v>
       </c>
@@ -12825,9 +12898,9 @@
       <c r="R12" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="105"/>
-      <c r="V12" s="134"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="126"/>
+      <c r="V12" s="128"/>
       <c r="W12" s="24" t="s">
         <v>269</v>
       </c>
@@ -12872,21 +12945,21 @@
       <c r="BJ12" s="26"/>
     </row>
     <row r="13" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="E13" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="E13" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="H13" s="121"/>
+      <c r="F13" s="100"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="24" t="s">
         <v>205</v>
       </c>
@@ -12896,9 +12969,9 @@
       <c r="K13" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="105"/>
-      <c r="O13" s="121"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="126"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="24" t="s">
         <v>205</v>
       </c>
@@ -12908,9 +12981,9 @@
       <c r="R13" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="S13" s="102"/>
-      <c r="T13" s="105"/>
-      <c r="V13" s="134"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="126"/>
+      <c r="V13" s="128"/>
       <c r="W13" s="24" t="s">
         <v>271</v>
       </c>
@@ -12955,23 +13028,23 @@
       <c r="BJ13" s="26"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="106" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="54" t="s">
         <v>248</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="H14" s="121"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="24" t="s">
         <v>210</v>
       </c>
@@ -12981,9 +13054,9 @@
       <c r="K14" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="105"/>
-      <c r="O14" s="121"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="126"/>
+      <c r="O14" s="107"/>
       <c r="P14" s="24" t="s">
         <v>210</v>
       </c>
@@ -12993,9 +13066,9 @@
       <c r="R14" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="105"/>
-      <c r="V14" s="134"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="126"/>
+      <c r="V14" s="128"/>
       <c r="W14" s="24" t="s">
         <v>273</v>
       </c>
@@ -13040,21 +13113,21 @@
       <c r="BJ14" s="26"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="24" t="s">
         <v>252</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="121"/>
+        <v>533</v>
+      </c>
+      <c r="H15" s="107"/>
       <c r="I15" s="24" t="s">
         <v>211</v>
       </c>
@@ -13064,9 +13137,9 @@
       <c r="K15" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="105"/>
-      <c r="O15" s="121"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="126"/>
+      <c r="O15" s="107"/>
       <c r="P15" s="24" t="s">
         <v>211</v>
       </c>
@@ -13076,9 +13149,9 @@
       <c r="R15" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="S15" s="102"/>
-      <c r="T15" s="105"/>
-      <c r="V15" s="134"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="126"/>
+      <c r="V15" s="128"/>
       <c r="W15" s="24" t="s">
         <v>275</v>
       </c>
@@ -13123,21 +13196,21 @@
       <c r="BJ15" s="26"/>
     </row>
     <row r="16" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="24" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="121"/>
+        <v>533</v>
+      </c>
+      <c r="H16" s="107"/>
       <c r="I16" s="24" t="s">
         <v>212</v>
       </c>
@@ -13147,9 +13220,9 @@
       <c r="K16" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="106"/>
-      <c r="O16" s="121"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="24" t="s">
         <v>212</v>
       </c>
@@ -13159,9 +13232,9 @@
       <c r="R16" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="S16" s="103"/>
-      <c r="T16" s="106"/>
-      <c r="V16" s="135"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="127"/>
+      <c r="V16" s="129"/>
       <c r="W16" s="28" t="s">
         <v>277</v>
       </c>
@@ -13206,58 +13279,58 @@
       <c r="BJ16" s="26"/>
     </row>
     <row r="17" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="132"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="24" t="s">
         <v>249</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="H17" s="122"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="28" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="L17" s="109" t="s">
+        <v>495</v>
+      </c>
+      <c r="L17" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="O17" s="122"/>
+      <c r="M17" s="100"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="28" t="s">
         <v>189</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="S17" s="109" t="s">
+        <v>501</v>
+      </c>
+      <c r="S17" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="T17" s="110"/>
-      <c r="V17" s="120" t="s">
+      <c r="T17" s="100"/>
+      <c r="V17" s="106" t="s">
         <v>253</v>
       </c>
       <c r="W17" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="X17" s="128" t="s">
+        <v>532</v>
+      </c>
+      <c r="X17" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="Y17" s="129"/>
+      <c r="Y17" s="131"/>
       <c r="Z17" s="54" t="s">
         <v>249</v>
       </c>
@@ -13297,60 +13370,60 @@
       <c r="BJ17" s="26"/>
     </row>
     <row r="18" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="109" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="H18" s="123" t="s">
+      <c r="F18" s="100"/>
+      <c r="H18" s="117" t="s">
         <v>224</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="J18" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="K18" s="129"/>
+      <c r="K18" s="131"/>
       <c r="L18" s="54" t="s">
         <v>191</v>
       </c>
       <c r="M18" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="O18" s="120" t="s">
+      <c r="O18" s="106" t="s">
         <v>179</v>
       </c>
       <c r="P18" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q18" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q18" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="R18" s="129"/>
+      <c r="R18" s="131"/>
       <c r="S18" s="54" t="s">
         <v>177</v>
       </c>
       <c r="T18" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="V18" s="121"/>
+      <c r="V18" s="107"/>
       <c r="W18" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="X18" s="107" t="s">
+        <v>533</v>
+      </c>
+      <c r="X18" s="109" t="s">
         <v>355</v>
       </c>
-      <c r="Y18" s="133"/>
+      <c r="Y18" s="132"/>
       <c r="Z18" s="24" t="s">
         <v>254</v>
       </c>
@@ -13389,25 +13462,25 @@
       <c r="BJ18" s="26"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="106" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>450</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="H19" s="124"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="24" t="s">
         <v>201</v>
       </c>
@@ -13417,13 +13490,13 @@
       <c r="K19" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="M19" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="O19" s="121"/>
+      <c r="M19" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="O19" s="107"/>
       <c r="P19" s="24" t="s">
         <v>197</v>
       </c>
@@ -13433,25 +13506,25 @@
       <c r="R19" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="S19" s="101" t="s">
+      <c r="S19" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="V19" s="121"/>
+      <c r="T19" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="V19" s="107"/>
       <c r="W19" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="X19" s="131" t="s">
+        <v>534</v>
+      </c>
+      <c r="X19" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="Y19" s="132"/>
+      <c r="Y19" s="134"/>
       <c r="Z19" s="24" t="s">
         <v>252</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="24"/>
@@ -13485,21 +13558,21 @@
       <c r="BJ19" s="26"/>
     </row>
     <row r="20" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="132"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="24" t="s">
         <v>248</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="H20" s="124"/>
+        <v>456</v>
+      </c>
+      <c r="H20" s="118"/>
       <c r="I20" s="24" t="s">
         <v>227</v>
       </c>
@@ -13509,9 +13582,9 @@
       <c r="K20" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="105"/>
-      <c r="O20" s="121"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="126"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="24" t="s">
         <v>199</v>
       </c>
@@ -13521,22 +13594,22 @@
       <c r="R20" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="105"/>
-      <c r="V20" s="121"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="126"/>
+      <c r="V20" s="107"/>
       <c r="W20" s="24" t="s">
         <v>189</v>
       </c>
       <c r="X20" s="24" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z20" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z20" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="AA20" s="108"/>
+      <c r="AA20" s="110"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="24"/>
@@ -13569,21 +13642,21 @@
       <c r="BJ20" s="26"/>
     </row>
     <row r="21" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="E21" s="109" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="H21" s="124"/>
+      <c r="F21" s="100"/>
+      <c r="H21" s="118"/>
       <c r="I21" s="24" t="s">
         <v>229</v>
       </c>
@@ -13593,9 +13666,9 @@
       <c r="K21" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="105"/>
-      <c r="O21" s="121"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="126"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="24" t="s">
         <v>201</v>
       </c>
@@ -13605,9 +13678,9 @@
       <c r="R21" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="105"/>
-      <c r="V21" s="121"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="126"/>
+      <c r="V21" s="107"/>
       <c r="W21" s="24" t="s">
         <v>294</v>
       </c>
@@ -13659,7 +13732,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="52"/>
       <c r="F22" s="53"/>
-      <c r="H22" s="124"/>
+      <c r="H22" s="118"/>
       <c r="I22" s="24" t="s">
         <v>203</v>
       </c>
@@ -13669,9 +13742,9 @@
       <c r="K22" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="105"/>
-      <c r="O22" s="121"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="126"/>
+      <c r="O22" s="107"/>
       <c r="P22" s="24" t="s">
         <v>203</v>
       </c>
@@ -13681,9 +13754,9 @@
       <c r="R22" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="S22" s="102"/>
-      <c r="T22" s="105"/>
-      <c r="V22" s="121"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="126"/>
+      <c r="V22" s="107"/>
       <c r="W22" s="24" t="s">
         <v>295</v>
       </c>
@@ -13733,7 +13806,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="24"/>
       <c r="F23" s="26"/>
-      <c r="H23" s="124"/>
+      <c r="H23" s="118"/>
       <c r="I23" s="24" t="s">
         <v>205</v>
       </c>
@@ -13743,9 +13816,9 @@
       <c r="K23" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="102"/>
-      <c r="M23" s="105"/>
-      <c r="O23" s="121"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="126"/>
+      <c r="O23" s="107"/>
       <c r="P23" s="24" t="s">
         <v>205</v>
       </c>
@@ -13755,9 +13828,9 @@
       <c r="R23" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="S23" s="102"/>
-      <c r="T23" s="105"/>
-      <c r="V23" s="121"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="126"/>
+      <c r="V23" s="107"/>
       <c r="W23" s="24" t="s">
         <v>296</v>
       </c>
@@ -13807,7 +13880,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="24"/>
       <c r="F24" s="26"/>
-      <c r="H24" s="124"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="24" t="s">
         <v>210</v>
       </c>
@@ -13817,9 +13890,9 @@
       <c r="K24" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="105"/>
-      <c r="O24" s="121"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="126"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="24" t="s">
         <v>210</v>
       </c>
@@ -13829,9 +13902,9 @@
       <c r="R24" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="105"/>
-      <c r="V24" s="121"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="126"/>
+      <c r="V24" s="107"/>
       <c r="W24" s="24" t="s">
         <v>297</v>
       </c>
@@ -13881,7 +13954,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26"/>
-      <c r="H25" s="124"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="24" t="s">
         <v>211</v>
       </c>
@@ -13891,9 +13964,9 @@
       <c r="K25" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="105"/>
-      <c r="O25" s="121"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="126"/>
+      <c r="O25" s="107"/>
       <c r="P25" s="24" t="s">
         <v>211</v>
       </c>
@@ -13903,9 +13976,9 @@
       <c r="R25" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="T25" s="105"/>
-      <c r="V25" s="121"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="126"/>
+      <c r="V25" s="107"/>
       <c r="W25" s="24" t="s">
         <v>298</v>
       </c>
@@ -13955,7 +14028,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="24"/>
       <c r="F26" s="26"/>
-      <c r="H26" s="124"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="24" t="s">
         <v>212</v>
       </c>
@@ -13965,9 +14038,9 @@
       <c r="K26" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="121"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="127"/>
+      <c r="O26" s="107"/>
       <c r="P26" s="24" t="s">
         <v>212</v>
       </c>
@@ -13977,9 +14050,9 @@
       <c r="R26" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="S26" s="103"/>
-      <c r="T26" s="106"/>
-      <c r="V26" s="121"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="127"/>
+      <c r="V26" s="107"/>
       <c r="W26" s="24" t="s">
         <v>269</v>
       </c>
@@ -14029,35 +14102,35 @@
       <c r="D27" s="25"/>
       <c r="E27" s="24"/>
       <c r="F27" s="26"/>
-      <c r="H27" s="125"/>
+      <c r="H27" s="119"/>
       <c r="I27" s="28" t="s">
         <v>189</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="L27" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="L27" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="M27" s="110"/>
-      <c r="O27" s="122"/>
+      <c r="M27" s="100"/>
+      <c r="O27" s="108"/>
       <c r="P27" s="28" t="s">
         <v>189</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="S27" s="109" t="s">
+        <v>503</v>
+      </c>
+      <c r="S27" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="T27" s="110"/>
-      <c r="V27" s="121"/>
+      <c r="T27" s="100"/>
+      <c r="V27" s="107"/>
       <c r="W27" s="24" t="s">
         <v>271</v>
       </c>
@@ -14119,7 +14192,7 @@
       <c r="R28" s="42"/>
       <c r="S28" s="52"/>
       <c r="T28" s="53"/>
-      <c r="V28" s="121"/>
+      <c r="V28" s="107"/>
       <c r="W28" s="24" t="s">
         <v>273</v>
       </c>
@@ -14181,7 +14254,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="24"/>
       <c r="T29" s="26"/>
-      <c r="V29" s="121"/>
+      <c r="V29" s="107"/>
       <c r="W29" s="24" t="s">
         <v>275</v>
       </c>
@@ -14243,7 +14316,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="24"/>
       <c r="T30" s="26"/>
-      <c r="V30" s="122"/>
+      <c r="V30" s="108"/>
       <c r="W30" s="28" t="s">
         <v>277</v>
       </c>
@@ -14312,13 +14385,15 @@
         <v>271</v>
       </c>
       <c r="X31" s="60" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Y31" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="144"/>
+        <v>527</v>
+      </c>
+      <c r="Z31" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA31" s="121"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
@@ -14376,13 +14451,15 @@
         <v>271</v>
       </c>
       <c r="X32" s="60" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y32" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="144"/>
+        <v>529</v>
+      </c>
+      <c r="Z32" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA32" s="121"/>
       <c r="AC32" s="23"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
@@ -17103,42 +17180,32 @@
       <c r="BJ80" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="V3:V16"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="76">
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="Z21:AA30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="S19:S26"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="X18:Y18"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="Q8:R8"/>
@@ -17155,571 +17222,615 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="V17:V30"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Z21:AA30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A3 A22:F80">
-    <cfRule type="expression" dxfId="156" priority="265">
+    <cfRule type="expression" dxfId="166" priority="276">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="275">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="266">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="154" priority="225">
+    <cfRule type="expression" dxfId="164" priority="235">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="226">
+    <cfRule type="expression" dxfId="163" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="152" priority="217">
+    <cfRule type="expression" dxfId="162" priority="228">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="227">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="218">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="150" priority="209">
+    <cfRule type="expression" dxfId="160" priority="220">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="219">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="210">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B21">
-    <cfRule type="expression" dxfId="148" priority="85">
+    <cfRule type="expression" dxfId="158" priority="95">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="86">
+    <cfRule type="expression" dxfId="157" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="expression" dxfId="146" priority="228">
+    <cfRule type="expression" dxfId="156" priority="237">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="227">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="expression" dxfId="144" priority="205">
+    <cfRule type="expression" dxfId="154" priority="216">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="215">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="206">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C17">
-    <cfRule type="expression" dxfId="142" priority="95">
+    <cfRule type="expression" dxfId="152" priority="106">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="105">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="140" priority="207">
+    <cfRule type="expression" dxfId="150" priority="218">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="217">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="208">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="138" priority="33">
+    <cfRule type="expression" dxfId="148" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="34">
+    <cfRule type="expression" dxfId="147" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="136" priority="31">
+    <cfRule type="expression" dxfId="146" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="32">
+    <cfRule type="expression" dxfId="145" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="expression" dxfId="134" priority="29">
+    <cfRule type="expression" dxfId="144" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5">
-    <cfRule type="expression" dxfId="132" priority="259">
+    <cfRule type="expression" dxfId="142" priority="269">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="260">
+    <cfRule type="expression" dxfId="141" priority="270">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="130" priority="100">
+    <cfRule type="expression" dxfId="140" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="99">
+    <cfRule type="expression" dxfId="139" priority="109">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E21">
-    <cfRule type="expression" dxfId="128" priority="94">
+    <cfRule type="expression" dxfId="138" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="93">
+    <cfRule type="expression" dxfId="137" priority="103">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F4">
-    <cfRule type="expression" dxfId="126" priority="89">
+    <cfRule type="expression" dxfId="136" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="90">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F9 F12">
+    <cfRule type="expression" dxfId="134" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="133" priority="93">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F12">
-    <cfRule type="expression" dxfId="124" priority="83">
+  <conditionalFormatting sqref="F14 F17">
+    <cfRule type="expression" dxfId="132" priority="89">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="expression" dxfId="122" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="80">
+    <cfRule type="expression" dxfId="131" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="expression" dxfId="120" priority="77">
+    <cfRule type="expression" dxfId="130" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 J6:J8">
-    <cfRule type="expression" dxfId="118" priority="203">
+    <cfRule type="expression" dxfId="128" priority="213">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="204">
+    <cfRule type="expression" dxfId="127" priority="214">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="116" priority="274">
+    <cfRule type="expression" dxfId="126" priority="284">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="273">
+    <cfRule type="expression" dxfId="125" priority="283">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I27">
-    <cfRule type="expression" dxfId="114" priority="62">
+    <cfRule type="expression" dxfId="124" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J4">
-    <cfRule type="expression" dxfId="112" priority="200">
+    <cfRule type="expression" dxfId="122" priority="209">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="210">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="199">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="110" priority="36">
+    <cfRule type="expression" dxfId="120" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="35">
+    <cfRule type="expression" dxfId="119" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:K17">
-    <cfRule type="expression" dxfId="108" priority="28">
+    <cfRule type="expression" dxfId="118" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="27">
+    <cfRule type="expression" dxfId="117" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:K27">
-    <cfRule type="expression" dxfId="106" priority="26">
+    <cfRule type="expression" dxfId="116" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="25">
+    <cfRule type="expression" dxfId="115" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="104" priority="201">
+    <cfRule type="expression" dxfId="114" priority="211">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="202">
+    <cfRule type="expression" dxfId="113" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="112" priority="107">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="97">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L19">
-    <cfRule type="expression" dxfId="100" priority="253">
+    <cfRule type="expression" dxfId="110" priority="263">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="254">
+    <cfRule type="expression" dxfId="109" priority="264">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="expression" dxfId="98" priority="249">
+    <cfRule type="expression" dxfId="108" priority="260">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="259">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="250">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M4">
-    <cfRule type="expression" dxfId="96" priority="73">
+    <cfRule type="expression" dxfId="106" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M9">
-    <cfRule type="expression" dxfId="94" priority="67">
+    <cfRule type="expression" dxfId="104" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="68">
+    <cfRule type="expression" dxfId="103" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="expression" dxfId="92" priority="57">
+    <cfRule type="expression" dxfId="102" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="58">
+    <cfRule type="expression" dxfId="101" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 Z3:Z6 AX3:BC80 BE3:BJ80 AC4:AH80 Q5:R6 Q7 AD7:AI17 H8 R9:R16 Q17:S17 V17 Q27:S27 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="90" priority="284">
+    <cfRule type="expression" dxfId="100" priority="294">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18 Q18">
-    <cfRule type="expression" dxfId="89" priority="191">
+    <cfRule type="expression" dxfId="99" priority="201">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="192">
+    <cfRule type="expression" dxfId="98" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P27">
-    <cfRule type="expression" dxfId="87" priority="44">
+    <cfRule type="expression" dxfId="97" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="43">
+    <cfRule type="expression" dxfId="96" priority="53">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q4 O3:O8">
-    <cfRule type="expression" dxfId="85" priority="196">
+    <cfRule type="expression" dxfId="95" priority="206">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="195">
+    <cfRule type="expression" dxfId="94" priority="205">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q16">
-    <cfRule type="expression" dxfId="83" priority="126">
+    <cfRule type="expression" dxfId="93" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="125">
+    <cfRule type="expression" dxfId="92" priority="135">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R6 Q17:S17 O3 Q27:S27 Q7 Z3:Z6 AX3:BC80 BE3:BJ80 AC4:AH80 AD7:AI17 H8 R9:R16 V17 H28:M80 O28:T80">
-    <cfRule type="expression" dxfId="81" priority="283">
+    <cfRule type="expression" dxfId="91" priority="293">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="expression" dxfId="80" priority="258">
+    <cfRule type="expression" dxfId="90" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="257">
+    <cfRule type="expression" dxfId="89" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="23">
+    <cfRule type="expression" dxfId="88" priority="267">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="87" priority="268">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:R27">
-    <cfRule type="expression" dxfId="76" priority="129">
+    <cfRule type="expression" dxfId="86" priority="139">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="130">
+    <cfRule type="expression" dxfId="85" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:R27">
-    <cfRule type="expression" dxfId="74" priority="22">
+    <cfRule type="expression" dxfId="84" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="19">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="20">
+    <cfRule type="expression" dxfId="82" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="81" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:S6">
-    <cfRule type="expression" dxfId="70" priority="279">
+    <cfRule type="expression" dxfId="80" priority="289">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="280">
+    <cfRule type="expression" dxfId="79" priority="290">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S8 S9:T9">
-    <cfRule type="expression" dxfId="68" priority="262">
+    <cfRule type="expression" dxfId="78" priority="271">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="261">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T4">
-    <cfRule type="expression" dxfId="66" priority="51">
+    <cfRule type="expression" dxfId="76" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:T19">
-    <cfRule type="expression" dxfId="64" priority="42">
+    <cfRule type="expression" dxfId="74" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T8">
-    <cfRule type="expression" dxfId="62" priority="46">
+    <cfRule type="expression" dxfId="72" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="45">
+    <cfRule type="expression" dxfId="71" priority="55">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W3">
-    <cfRule type="expression" dxfId="60" priority="8">
+  <conditionalFormatting sqref="V3">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V31:W31 Y31:AA31 V32:AA80">
-    <cfRule type="expression" dxfId="58" priority="287">
+  <conditionalFormatting sqref="V31:W31 Y31:Z31 V33:AA80 V32:Z32">
+    <cfRule type="expression" dxfId="68" priority="298">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="297">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="288">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:W30">
+    <cfRule type="expression" dxfId="64" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:Y6">
+    <cfRule type="expression" dxfId="62" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7:Z7 W8:Y16">
+    <cfRule type="expression" dxfId="60" priority="145">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="146">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X5">
+    <cfRule type="expression" dxfId="58" priority="176">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X19">
+    <cfRule type="expression" dxfId="56" priority="170">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="169">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21:X31">
+    <cfRule type="expression" dxfId="54" priority="143">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="144">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20:Y20">
+    <cfRule type="expression" dxfId="52" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="expression" dxfId="50" priority="189">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="190">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21:Y30">
+    <cfRule type="expression" dxfId="48" priority="186">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="expression" dxfId="46" priority="184">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="183">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:Z21">
+    <cfRule type="expression" dxfId="44" priority="281">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="282">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA5">
+    <cfRule type="expression" dxfId="42" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17:AA19">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AG3">
+    <cfRule type="expression" dxfId="38" priority="126">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="125">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AN3">
+    <cfRule type="expression" dxfId="36" priority="124">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="123">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4:AO80">
+    <cfRule type="expression" dxfId="34" priority="277">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="278">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AV80">
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W5">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17:W30">
-    <cfRule type="expression" dxfId="54" priority="13">
+  <conditionalFormatting sqref="W17:W19">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="14">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6:Y6">
-    <cfRule type="expression" dxfId="52" priority="9">
+  <conditionalFormatting sqref="F10:F11">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W7:Z7 W8:Y16">
-    <cfRule type="expression" dxfId="50" priority="135">
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="136">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X5">
-    <cfRule type="expression" dxfId="48" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="166">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X19">
-    <cfRule type="expression" dxfId="46" priority="160">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21:X31">
-    <cfRule type="expression" dxfId="44" priority="133">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="134">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20:Y20">
-    <cfRule type="expression" dxfId="42" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="40" priority="180">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="179">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Y30">
-    <cfRule type="expression" dxfId="38" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="176">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="36" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="174">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:Z21">
-    <cfRule type="expression" dxfId="34" priority="272">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="271">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA5">
-    <cfRule type="expression" dxfId="32" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA17:AA19">
-    <cfRule type="expression" dxfId="30" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AG3">
-    <cfRule type="expression" dxfId="28" priority="116">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="115">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AN3">
-    <cfRule type="expression" dxfId="26" priority="114">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="113">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AO80">
-    <cfRule type="expression" dxfId="24" priority="268">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="267">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3:AV80">
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18078,22 +18189,22 @@
         <v>82</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F12" s="19">
         <v>24</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J12" s="19">
         <v>24</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -18120,13 +18231,13 @@
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B15" s="19">
         <v>24</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -18708,35 +18819,35 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C15">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G11 I3:K11">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G12">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:G12">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K12">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:K12">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18986,17 +19097,17 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -19015,10 +19126,10 @@
     </row>
     <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13"/>
@@ -19029,10 +19140,10 @@
     </row>
     <row r="14" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14"/>
@@ -19184,26 +19295,26 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E11">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19419,26 +19530,26 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B8 J3:K9">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H5">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19452,7 +19563,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20159,7 +20270,7 @@
     <cfRule type="expression" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20167,7 +20278,7 @@
     <cfRule type="expression" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
